--- a/Notebooks/data/Final_Berg JBS 2013 Supplemental Table 3_For SVM14Dec2017 - Mechanisms.xlsx
+++ b/Notebooks/data/Final_Berg JBS 2013 Supplemental Table 3_For SVM14Dec2017 - Mechanisms.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Suppl Table 3" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="390">
   <si>
     <t>BioMAP Viewer Mixed Profile</t>
   </si>
@@ -1780,7 +1780,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1801,6 +1801,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1835,7 +1841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1871,6 +1877,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2278,19 +2287,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CH328"/>
+  <dimension ref="A1:CE328"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="66.140625" customWidth="1"/>
-    <col min="2" max="2" width="56.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2298,7 +2308,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="2" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2386,11 +2396,8 @@
       <c r="CC2" s="1"/>
       <c r="CD2" s="1"/>
       <c r="CE2" s="1"/>
-      <c r="CF2" s="1"/>
-      <c r="CG2" s="1"/>
-      <c r="CH2" s="1"/>
-    </row>
-    <row r="3" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2418,10 +2425,10 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
+      <c r="X3" s="2"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="2"/>
+      <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
@@ -2478,11 +2485,8 @@
       <c r="CC3" s="1"/>
       <c r="CD3" s="1"/>
       <c r="CE3" s="1"/>
-      <c r="CF3" s="1"/>
-      <c r="CG3" s="1"/>
-      <c r="CH3" s="1"/>
-    </row>
-    <row r="4" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2570,11 +2574,8 @@
       <c r="CC4" s="1"/>
       <c r="CD4" s="1"/>
       <c r="CE4" s="1"/>
-      <c r="CF4" s="1"/>
-      <c r="CG4" s="1"/>
-      <c r="CH4" s="1"/>
-    </row>
-    <row r="5" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2662,11 +2663,8 @@
       <c r="CC5" s="1"/>
       <c r="CD5" s="1"/>
       <c r="CE5" s="1"/>
-      <c r="CF5" s="1"/>
-      <c r="CG5" s="1"/>
-      <c r="CH5" s="1"/>
-    </row>
-    <row r="6" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2754,11 +2752,8 @@
       <c r="CC6" s="1"/>
       <c r="CD6" s="1"/>
       <c r="CE6" s="1"/>
-      <c r="CF6" s="1"/>
-      <c r="CG6" s="1"/>
-      <c r="CH6" s="1"/>
-    </row>
-    <row r="7" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2846,11 +2841,8 @@
       <c r="CC7" s="1"/>
       <c r="CD7" s="1"/>
       <c r="CE7" s="1"/>
-      <c r="CF7" s="1"/>
-      <c r="CG7" s="1"/>
-      <c r="CH7" s="1"/>
-    </row>
-    <row r="8" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2938,11 +2930,8 @@
       <c r="CC8" s="1"/>
       <c r="CD8" s="1"/>
       <c r="CE8" s="1"/>
-      <c r="CF8" s="1"/>
-      <c r="CG8" s="1"/>
-      <c r="CH8" s="1"/>
-    </row>
-    <row r="9" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2959,10 +2948,10 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="M9" s="2"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="2"/>
+      <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -3030,11 +3019,8 @@
       <c r="CC9" s="1"/>
       <c r="CD9" s="1"/>
       <c r="CE9" s="1"/>
-      <c r="CF9" s="1"/>
-      <c r="CG9" s="1"/>
-      <c r="CH9" s="1"/>
-    </row>
-    <row r="10" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3122,11 +3108,8 @@
       <c r="CC10" s="1"/>
       <c r="CD10" s="1"/>
       <c r="CE10" s="1"/>
-      <c r="CF10" s="1"/>
-      <c r="CG10" s="1"/>
-      <c r="CH10" s="1"/>
-    </row>
-    <row r="11" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3214,11 +3197,8 @@
       <c r="CC11" s="1"/>
       <c r="CD11" s="1"/>
       <c r="CE11" s="1"/>
-      <c r="CF11" s="1"/>
-      <c r="CG11" s="1"/>
-      <c r="CH11" s="1"/>
-    </row>
-    <row r="12" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3306,11 +3286,8 @@
       <c r="CC12" s="1"/>
       <c r="CD12" s="1"/>
       <c r="CE12" s="1"/>
-      <c r="CF12" s="1"/>
-      <c r="CG12" s="1"/>
-      <c r="CH12" s="1"/>
-    </row>
-    <row r="13" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3398,11 +3375,8 @@
       <c r="CC13" s="1"/>
       <c r="CD13" s="1"/>
       <c r="CE13" s="1"/>
-      <c r="CF13" s="1"/>
-      <c r="CG13" s="1"/>
-      <c r="CH13" s="1"/>
-    </row>
-    <row r="14" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3413,10 +3387,10 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -3490,11 +3464,8 @@
       <c r="CC14" s="1"/>
       <c r="CD14" s="1"/>
       <c r="CE14" s="1"/>
-      <c r="CF14" s="1"/>
-      <c r="CG14" s="1"/>
-      <c r="CH14" s="1"/>
-    </row>
-    <row r="15" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3582,11 +3553,8 @@
       <c r="CC15" s="1"/>
       <c r="CD15" s="1"/>
       <c r="CE15" s="1"/>
-      <c r="CF15" s="1"/>
-      <c r="CG15" s="1"/>
-      <c r="CH15" s="1"/>
-    </row>
-    <row r="16" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3597,10 +3565,10 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="2"/>
+      <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -3627,10 +3595,10 @@
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
+      <c r="AK16" s="2"/>
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
-      <c r="AN16" s="2"/>
+      <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1"/>
@@ -3674,11 +3642,8 @@
       <c r="CC16" s="1"/>
       <c r="CD16" s="1"/>
       <c r="CE16" s="1"/>
-      <c r="CF16" s="1"/>
-      <c r="CG16" s="1"/>
-      <c r="CH16" s="1"/>
-    </row>
-    <row r="17" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3709,10 +3674,10 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
+      <c r="AA17" s="2"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-      <c r="AD17" s="2"/>
+      <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
@@ -3743,10 +3708,10 @@
       <c r="BF17" s="1"/>
       <c r="BG17" s="1"/>
       <c r="BH17" s="1"/>
-      <c r="BI17" s="1"/>
+      <c r="BI17" s="2"/>
       <c r="BJ17" s="1"/>
       <c r="BK17" s="1"/>
-      <c r="BL17" s="2"/>
+      <c r="BL17" s="1"/>
       <c r="BM17" s="1"/>
       <c r="BN17" s="1"/>
       <c r="BO17" s="1"/>
@@ -3766,11 +3731,8 @@
       <c r="CC17" s="1"/>
       <c r="CD17" s="1"/>
       <c r="CE17" s="1"/>
-      <c r="CF17" s="1"/>
-      <c r="CG17" s="1"/>
-      <c r="CH17" s="1"/>
-    </row>
-    <row r="18" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3858,11 +3820,8 @@
       <c r="CC18" s="1"/>
       <c r="CD18" s="1"/>
       <c r="CE18" s="1"/>
-      <c r="CF18" s="1"/>
-      <c r="CG18" s="1"/>
-      <c r="CH18" s="1"/>
-    </row>
-    <row r="19" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3950,11 +3909,8 @@
       <c r="CC19" s="1"/>
       <c r="CD19" s="1"/>
       <c r="CE19" s="1"/>
-      <c r="CF19" s="1"/>
-      <c r="CG19" s="1"/>
-      <c r="CH19" s="1"/>
-    </row>
-    <row r="20" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4042,11 +3998,8 @@
       <c r="CC20" s="1"/>
       <c r="CD20" s="1"/>
       <c r="CE20" s="1"/>
-      <c r="CF20" s="1"/>
-      <c r="CG20" s="1"/>
-      <c r="CH20" s="1"/>
-    </row>
-    <row r="21" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4107,10 +4060,10 @@
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
       <c r="BD21" s="1"/>
-      <c r="BE21" s="1"/>
+      <c r="BE21" s="2"/>
       <c r="BF21" s="1"/>
       <c r="BG21" s="1"/>
-      <c r="BH21" s="2"/>
+      <c r="BH21" s="1"/>
       <c r="BI21" s="1"/>
       <c r="BJ21" s="1"/>
       <c r="BK21" s="1"/>
@@ -4134,11 +4087,8 @@
       <c r="CC21" s="1"/>
       <c r="CD21" s="1"/>
       <c r="CE21" s="1"/>
-      <c r="CF21" s="1"/>
-      <c r="CG21" s="1"/>
-      <c r="CH21" s="1"/>
-    </row>
-    <row r="22" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4208,10 +4158,10 @@
       <c r="BK22" s="1"/>
       <c r="BL22" s="1"/>
       <c r="BM22" s="1"/>
-      <c r="BN22" s="1"/>
+      <c r="BN22" s="2"/>
       <c r="BO22" s="1"/>
       <c r="BP22" s="1"/>
-      <c r="BQ22" s="2"/>
+      <c r="BQ22" s="1"/>
       <c r="BR22" s="1"/>
       <c r="BS22" s="1"/>
       <c r="BT22" s="1"/>
@@ -4226,11 +4176,8 @@
       <c r="CC22" s="1"/>
       <c r="CD22" s="1"/>
       <c r="CE22" s="1"/>
-      <c r="CF22" s="1"/>
-      <c r="CG22" s="1"/>
-      <c r="CH22" s="1"/>
-    </row>
-    <row r="23" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -4318,11 +4265,8 @@
       <c r="CC23" s="1"/>
       <c r="CD23" s="1"/>
       <c r="CE23" s="1"/>
-      <c r="CF23" s="1"/>
-      <c r="CG23" s="1"/>
-      <c r="CH23" s="1"/>
-    </row>
-    <row r="24" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4410,11 +4354,8 @@
       <c r="CC24" s="1"/>
       <c r="CD24" s="1"/>
       <c r="CE24" s="1"/>
-      <c r="CF24" s="1"/>
-      <c r="CG24" s="1"/>
-      <c r="CH24" s="1"/>
-    </row>
-    <row r="25" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4502,11 +4443,8 @@
       <c r="CC25" s="1"/>
       <c r="CD25" s="1"/>
       <c r="CE25" s="1"/>
-      <c r="CF25" s="1"/>
-      <c r="CG25" s="1"/>
-      <c r="CH25" s="1"/>
-    </row>
-    <row r="26" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -4594,11 +4532,8 @@
       <c r="CC26" s="1"/>
       <c r="CD26" s="1"/>
       <c r="CE26" s="1"/>
-      <c r="CF26" s="1"/>
-      <c r="CG26" s="1"/>
-      <c r="CH26" s="1"/>
-    </row>
-    <row r="27" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4650,10 +4585,10 @@
       <c r="AS27" s="1"/>
       <c r="AT27" s="1"/>
       <c r="AU27" s="1"/>
-      <c r="AV27" s="1"/>
+      <c r="AV27" s="2"/>
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
-      <c r="AY27" s="2"/>
+      <c r="AY27" s="1"/>
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
@@ -4672,11 +4607,8 @@
       <c r="BO27" s="1"/>
       <c r="BP27" s="1"/>
       <c r="BQ27" s="1"/>
-      <c r="BR27" s="1"/>
-      <c r="BS27" s="1"/>
-      <c r="BT27" s="1"/>
-    </row>
-    <row r="28" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4750,11 +4682,8 @@
       <c r="BO28" s="1"/>
       <c r="BP28" s="1"/>
       <c r="BQ28" s="1"/>
-      <c r="BR28" s="1"/>
-      <c r="BS28" s="1"/>
-      <c r="BT28" s="1"/>
-    </row>
-    <row r="29" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -4780,9 +4709,9 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
       <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
@@ -4826,11 +4755,8 @@
       <c r="BO29" s="1"/>
       <c r="BP29" s="1"/>
       <c r="BQ29" s="1"/>
-      <c r="BR29" s="1"/>
-      <c r="BS29" s="1"/>
-      <c r="BT29" s="1"/>
-    </row>
-    <row r="30" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4904,11 +4830,8 @@
       <c r="BO30" s="1"/>
       <c r="BP30" s="1"/>
       <c r="BQ30" s="1"/>
-      <c r="BR30" s="1"/>
-      <c r="BS30" s="1"/>
-      <c r="BT30" s="1"/>
-    </row>
-    <row r="31" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4996,11 +4919,8 @@
       <c r="CC31" s="1"/>
       <c r="CD31" s="1"/>
       <c r="CE31" s="1"/>
-      <c r="CF31" s="1"/>
-      <c r="CG31" s="1"/>
-      <c r="CH31" s="1"/>
-    </row>
-    <row r="32" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -5088,11 +5008,8 @@
       <c r="CC32" s="1"/>
       <c r="CD32" s="1"/>
       <c r="CE32" s="1"/>
-      <c r="CF32" s="1"/>
-      <c r="CG32" s="1"/>
-      <c r="CH32" s="1"/>
-    </row>
-    <row r="33" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -5180,11 +5097,8 @@
       <c r="CC33" s="1"/>
       <c r="CD33" s="1"/>
       <c r="CE33" s="1"/>
-      <c r="CF33" s="1"/>
-      <c r="CG33" s="1"/>
-      <c r="CH33" s="1"/>
-    </row>
-    <row r="34" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -5272,11 +5186,8 @@
       <c r="CC34" s="1"/>
       <c r="CD34" s="1"/>
       <c r="CE34" s="1"/>
-      <c r="CF34" s="1"/>
-      <c r="CG34" s="1"/>
-      <c r="CH34" s="1"/>
-    </row>
-    <row r="35" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -5364,11 +5275,8 @@
       <c r="CC35" s="1"/>
       <c r="CD35" s="1"/>
       <c r="CE35" s="1"/>
-      <c r="CF35" s="1"/>
-      <c r="CG35" s="1"/>
-      <c r="CH35" s="1"/>
-    </row>
-    <row r="36" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -5420,10 +5328,10 @@
       <c r="AS36" s="1"/>
       <c r="AT36" s="1"/>
       <c r="AU36" s="1"/>
-      <c r="AV36" s="1"/>
+      <c r="AV36" s="2"/>
       <c r="AW36" s="1"/>
       <c r="AX36" s="1"/>
-      <c r="AY36" s="2"/>
+      <c r="AY36" s="1"/>
       <c r="AZ36" s="1"/>
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
@@ -5456,11 +5364,8 @@
       <c r="CC36" s="1"/>
       <c r="CD36" s="1"/>
       <c r="CE36" s="1"/>
-      <c r="CF36" s="1"/>
-      <c r="CG36" s="1"/>
-      <c r="CH36" s="1"/>
-    </row>
-    <row r="37" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -5489,10 +5394,10 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
+      <c r="Y37" s="2"/>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
-      <c r="AB37" s="2"/>
+      <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
@@ -5548,11 +5453,8 @@
       <c r="CC37" s="1"/>
       <c r="CD37" s="1"/>
       <c r="CE37" s="1"/>
-      <c r="CF37" s="1"/>
-      <c r="CG37" s="1"/>
-      <c r="CH37" s="1"/>
-    </row>
-    <row r="38" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -5606,10 +5508,10 @@
       <c r="AU38" s="1"/>
       <c r="AV38" s="1"/>
       <c r="AW38" s="1"/>
-      <c r="AX38" s="1"/>
+      <c r="AX38" s="2"/>
       <c r="AY38" s="1"/>
       <c r="AZ38" s="1"/>
-      <c r="BA38" s="2"/>
+      <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
       <c r="BD38" s="1"/>
@@ -5640,11 +5542,8 @@
       <c r="CC38" s="1"/>
       <c r="CD38" s="1"/>
       <c r="CE38" s="1"/>
-      <c r="CF38" s="1"/>
-      <c r="CG38" s="1"/>
-      <c r="CH38" s="1"/>
-    </row>
-    <row r="39" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -5732,11 +5631,8 @@
       <c r="CC39" s="1"/>
       <c r="CD39" s="1"/>
       <c r="CE39" s="1"/>
-      <c r="CF39" s="1"/>
-      <c r="CG39" s="1"/>
-      <c r="CH39" s="1"/>
-    </row>
-    <row r="40" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -5824,11 +5720,8 @@
       <c r="CC40" s="1"/>
       <c r="CD40" s="1"/>
       <c r="CE40" s="1"/>
-      <c r="CF40" s="1"/>
-      <c r="CG40" s="1"/>
-      <c r="CH40" s="1"/>
-    </row>
-    <row r="41" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -5916,11 +5809,8 @@
       <c r="CC41" s="1"/>
       <c r="CD41" s="1"/>
       <c r="CE41" s="1"/>
-      <c r="CF41" s="1"/>
-      <c r="CG41" s="1"/>
-      <c r="CH41" s="1"/>
-    </row>
-    <row r="42" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -6008,11 +5898,8 @@
       <c r="CC42" s="1"/>
       <c r="CD42" s="1"/>
       <c r="CE42" s="1"/>
-      <c r="CF42" s="1"/>
-      <c r="CG42" s="1"/>
-      <c r="CH42" s="1"/>
-    </row>
-    <row r="43" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -6037,9 +5924,9 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
@@ -6099,11 +5986,8 @@
       <c r="CC43" s="1"/>
       <c r="CD43" s="1"/>
       <c r="CE43" s="1"/>
-      <c r="CF43" s="1"/>
-      <c r="CG43" s="1"/>
-      <c r="CH43" s="1"/>
-    </row>
-    <row r="44" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -6128,9 +6012,9 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
@@ -6190,11 +6074,8 @@
       <c r="CC44" s="1"/>
       <c r="CD44" s="1"/>
       <c r="CE44" s="1"/>
-      <c r="CF44" s="1"/>
-      <c r="CG44" s="1"/>
-      <c r="CH44" s="1"/>
-    </row>
-    <row r="45" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -6225,10 +6106,10 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
-      <c r="AA45" s="1"/>
+      <c r="AA45" s="2"/>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
-      <c r="AD45" s="2"/>
+      <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
@@ -6282,11 +6163,8 @@
       <c r="CC45" s="1"/>
       <c r="CD45" s="1"/>
       <c r="CE45" s="1"/>
-      <c r="CF45" s="1"/>
-      <c r="CG45" s="1"/>
-      <c r="CH45" s="1"/>
-    </row>
-    <row r="46" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -6320,14 +6198,14 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
-      <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
       <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
       <c r="AH46" s="1"/>
       <c r="AI46" s="1"/>
-      <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
       <c r="AL46" s="1"/>
+      <c r="AM46" s="1"/>
       <c r="AN46" s="1"/>
       <c r="AO46" s="1"/>
       <c r="AP46" s="1"/>
@@ -6341,29 +6219,26 @@
       <c r="AX46" s="1"/>
       <c r="AY46" s="1"/>
       <c r="AZ46" s="1"/>
-      <c r="BA46" s="1"/>
-      <c r="BB46" s="1"/>
-      <c r="BC46" s="1"/>
-      <c r="BG46" s="1"/>
+      <c r="BD46" s="1"/>
+      <c r="BE46" s="1"/>
       <c r="BH46" s="1"/>
+      <c r="BI46" s="1"/>
+      <c r="BJ46" s="1"/>
       <c r="BK46" s="1"/>
       <c r="BL46" s="1"/>
       <c r="BM46" s="1"/>
-      <c r="BN46" s="1"/>
       <c r="BO46" s="1"/>
       <c r="BP46" s="1"/>
+      <c r="BQ46" s="1"/>
       <c r="BR46" s="1"/>
-      <c r="BS46" s="1"/>
       <c r="BT46" s="1"/>
       <c r="BU46" s="1"/>
-      <c r="BW46" s="1"/>
-      <c r="BX46" s="1"/>
-      <c r="BY46" s="1"/>
-      <c r="CF46" s="1"/>
-      <c r="CG46" s="1"/>
-      <c r="CH46" s="1"/>
-    </row>
-    <row r="47" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="BV46" s="1"/>
+      <c r="CC46" s="1"/>
+      <c r="CD46" s="1"/>
+      <c r="CE46" s="1"/>
+    </row>
+    <row r="47" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -6451,11 +6326,8 @@
       <c r="CC47" s="1"/>
       <c r="CD47" s="1"/>
       <c r="CE47" s="1"/>
-      <c r="CF47" s="1"/>
-      <c r="CG47" s="1"/>
-      <c r="CH47" s="1"/>
-    </row>
-    <row r="48" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -6543,11 +6415,8 @@
       <c r="CC48" s="1"/>
       <c r="CD48" s="1"/>
       <c r="CE48" s="1"/>
-      <c r="CF48" s="1"/>
-      <c r="CG48" s="1"/>
-      <c r="CH48" s="1"/>
-    </row>
-    <row r="49" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -6635,11 +6504,8 @@
       <c r="CC49" s="1"/>
       <c r="CD49" s="1"/>
       <c r="CE49" s="1"/>
-      <c r="CF49" s="1"/>
-      <c r="CG49" s="1"/>
-      <c r="CH49" s="1"/>
-    </row>
-    <row r="50" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -6727,11 +6593,8 @@
       <c r="CC50" s="1"/>
       <c r="CD50" s="1"/>
       <c r="CE50" s="1"/>
-      <c r="CF50" s="1"/>
-      <c r="CG50" s="1"/>
-      <c r="CH50" s="1"/>
-    </row>
-    <row r="51" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -6819,11 +6682,8 @@
       <c r="CC51" s="1"/>
       <c r="CD51" s="1"/>
       <c r="CE51" s="1"/>
-      <c r="CF51" s="1"/>
-      <c r="CG51" s="1"/>
-      <c r="CH51" s="1"/>
-    </row>
-    <row r="52" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -6911,11 +6771,8 @@
       <c r="CC52" s="1"/>
       <c r="CD52" s="1"/>
       <c r="CE52" s="1"/>
-      <c r="CF52" s="1"/>
-      <c r="CG52" s="1"/>
-      <c r="CH52" s="1"/>
-    </row>
-    <row r="53" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -7003,11 +6860,8 @@
       <c r="CC53" s="1"/>
       <c r="CD53" s="1"/>
       <c r="CE53" s="1"/>
-      <c r="CF53" s="1"/>
-      <c r="CG53" s="1"/>
-      <c r="CH53" s="1"/>
-    </row>
-    <row r="54" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -7095,11 +6949,8 @@
       <c r="CC54" s="1"/>
       <c r="CD54" s="1"/>
       <c r="CE54" s="1"/>
-      <c r="CF54" s="1"/>
-      <c r="CG54" s="1"/>
-      <c r="CH54" s="1"/>
-    </row>
-    <row r="55" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -7187,11 +7038,8 @@
       <c r="CC55" s="1"/>
       <c r="CD55" s="1"/>
       <c r="CE55" s="1"/>
-      <c r="CF55" s="1"/>
-      <c r="CG55" s="1"/>
-      <c r="CH55" s="1"/>
-    </row>
-    <row r="56" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -7279,11 +7127,8 @@
       <c r="CC56" s="1"/>
       <c r="CD56" s="1"/>
       <c r="CE56" s="1"/>
-      <c r="CF56" s="1"/>
-      <c r="CG56" s="1"/>
-      <c r="CH56" s="1"/>
-    </row>
-    <row r="57" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -7371,11 +7216,8 @@
       <c r="CC57" s="1"/>
       <c r="CD57" s="1"/>
       <c r="CE57" s="1"/>
-      <c r="CF57" s="1"/>
-      <c r="CG57" s="1"/>
-      <c r="CH57" s="1"/>
-    </row>
-    <row r="58" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -7463,11 +7305,8 @@
       <c r="CC58" s="1"/>
       <c r="CD58" s="1"/>
       <c r="CE58" s="1"/>
-      <c r="CF58" s="1"/>
-      <c r="CG58" s="1"/>
-      <c r="CH58" s="1"/>
-    </row>
-    <row r="59" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -7478,10 +7317,10 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
+      <c r="G59" s="2"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="2"/>
+      <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -7555,11 +7394,8 @@
       <c r="CC59" s="1"/>
       <c r="CD59" s="1"/>
       <c r="CE59" s="1"/>
-      <c r="CF59" s="1"/>
-      <c r="CG59" s="1"/>
-      <c r="CH59" s="1"/>
-    </row>
-    <row r="60" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -7601,18 +7437,18 @@
       <c r="AI60" s="1"/>
       <c r="AJ60" s="1"/>
       <c r="AK60" s="1"/>
-      <c r="AL60" s="1"/>
       <c r="AM60" s="1"/>
-      <c r="AN60" s="1"/>
+      <c r="AO60" s="1"/>
       <c r="AP60" s="1"/>
+      <c r="AQ60" s="1"/>
       <c r="AR60" s="1"/>
       <c r="AS60" s="1"/>
       <c r="AT60" s="1"/>
       <c r="AU60" s="1"/>
       <c r="AV60" s="1"/>
-      <c r="AW60" s="1"/>
       <c r="AX60" s="1"/>
       <c r="AY60" s="1"/>
+      <c r="AZ60" s="1"/>
       <c r="BA60" s="1"/>
       <c r="BB60" s="1"/>
       <c r="BC60" s="1"/>
@@ -7644,11 +7480,8 @@
       <c r="CC60" s="1"/>
       <c r="CD60" s="1"/>
       <c r="CE60" s="1"/>
-      <c r="CF60" s="1"/>
-      <c r="CG60" s="1"/>
-      <c r="CH60" s="1"/>
-    </row>
-    <row r="61" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -7736,11 +7569,8 @@
       <c r="CC61" s="1"/>
       <c r="CD61" s="1"/>
       <c r="CE61" s="1"/>
-      <c r="CF61" s="1"/>
-      <c r="CG61" s="1"/>
-      <c r="CH61" s="1"/>
-    </row>
-    <row r="62" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -7828,11 +7658,8 @@
       <c r="CC62" s="1"/>
       <c r="CD62" s="1"/>
       <c r="CE62" s="1"/>
-      <c r="CF62" s="1"/>
-      <c r="CG62" s="1"/>
-      <c r="CH62" s="1"/>
-    </row>
-    <row r="63" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -7920,11 +7747,8 @@
       <c r="CC63" s="1"/>
       <c r="CD63" s="1"/>
       <c r="CE63" s="1"/>
-      <c r="CF63" s="1"/>
-      <c r="CG63" s="1"/>
-      <c r="CH63" s="1"/>
-    </row>
-    <row r="64" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -7977,10 +7801,10 @@
       <c r="AT64" s="1"/>
       <c r="AU64" s="1"/>
       <c r="AV64" s="1"/>
-      <c r="AW64" s="1"/>
+      <c r="AW64" s="2"/>
       <c r="AX64" s="1"/>
       <c r="AY64" s="1"/>
-      <c r="AZ64" s="2"/>
+      <c r="AZ64" s="1"/>
       <c r="BA64" s="1"/>
       <c r="BB64" s="1"/>
       <c r="BC64" s="1"/>
@@ -8012,11 +7836,8 @@
       <c r="CC64" s="1"/>
       <c r="CD64" s="1"/>
       <c r="CE64" s="1"/>
-      <c r="CF64" s="1"/>
-      <c r="CG64" s="1"/>
-      <c r="CH64" s="1"/>
-    </row>
-    <row r="65" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -8104,11 +7925,8 @@
       <c r="CC65" s="1"/>
       <c r="CD65" s="1"/>
       <c r="CE65" s="1"/>
-      <c r="CF65" s="1"/>
-      <c r="CG65" s="1"/>
-      <c r="CH65" s="1"/>
-    </row>
-    <row r="66" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -8138,10 +7956,10 @@
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
-      <c r="Z66" s="1"/>
+      <c r="Z66" s="2"/>
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
-      <c r="AC66" s="2"/>
+      <c r="AC66" s="1"/>
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
       <c r="AF66" s="1"/>
@@ -8196,11 +8014,8 @@
       <c r="CC66" s="1"/>
       <c r="CD66" s="1"/>
       <c r="CE66" s="1"/>
-      <c r="CF66" s="1"/>
-      <c r="CG66" s="1"/>
-      <c r="CH66" s="1"/>
-    </row>
-    <row r="67" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -8288,11 +8103,8 @@
       <c r="CC67" s="1"/>
       <c r="CD67" s="1"/>
       <c r="CE67" s="1"/>
-      <c r="CF67" s="1"/>
-      <c r="CG67" s="1"/>
-      <c r="CH67" s="1"/>
-    </row>
-    <row r="68" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -8380,11 +8192,8 @@
       <c r="CC68" s="1"/>
       <c r="CD68" s="1"/>
       <c r="CE68" s="1"/>
-      <c r="CF68" s="1"/>
-      <c r="CG68" s="1"/>
-      <c r="CH68" s="1"/>
-    </row>
-    <row r="69" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -8472,11 +8281,8 @@
       <c r="CC69" s="1"/>
       <c r="CD69" s="1"/>
       <c r="CE69" s="1"/>
-      <c r="CF69" s="1"/>
-      <c r="CG69" s="1"/>
-      <c r="CH69" s="1"/>
-    </row>
-    <row r="70" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -8563,12 +8369,9 @@
       <c r="CB70" s="1"/>
       <c r="CC70" s="1"/>
       <c r="CD70" s="1"/>
-      <c r="CE70" s="1"/>
-      <c r="CF70" s="1"/>
-      <c r="CG70" s="1"/>
-      <c r="CH70" s="2"/>
-    </row>
-    <row r="71" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="CE70" s="2"/>
+    </row>
+    <row r="71" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -8577,7 +8380,7 @@
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="2"/>
+      <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -8656,11 +8459,8 @@
       <c r="CC71" s="1"/>
       <c r="CD71" s="1"/>
       <c r="CE71" s="1"/>
-      <c r="CF71" s="1"/>
-      <c r="CG71" s="1"/>
-      <c r="CH71" s="1"/>
-    </row>
-    <row r="72" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -8748,11 +8548,8 @@
       <c r="CC72" s="1"/>
       <c r="CD72" s="1"/>
       <c r="CE72" s="1"/>
-      <c r="CF72" s="1"/>
-      <c r="CG72" s="1"/>
-      <c r="CH72" s="1"/>
-    </row>
-    <row r="73" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -8840,11 +8637,8 @@
       <c r="CC73" s="1"/>
       <c r="CD73" s="1"/>
       <c r="CE73" s="1"/>
-      <c r="CF73" s="1"/>
-      <c r="CG73" s="1"/>
-      <c r="CH73" s="1"/>
-    </row>
-    <row r="74" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -8932,11 +8726,8 @@
       <c r="CC74" s="1"/>
       <c r="CD74" s="1"/>
       <c r="CE74" s="1"/>
-      <c r="CF74" s="1"/>
-      <c r="CG74" s="1"/>
-      <c r="CH74" s="1"/>
-    </row>
-    <row r="75" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -9024,11 +8815,8 @@
       <c r="CC75" s="1"/>
       <c r="CD75" s="1"/>
       <c r="CE75" s="1"/>
-      <c r="CF75" s="1"/>
-      <c r="CG75" s="1"/>
-      <c r="CH75" s="1"/>
-    </row>
-    <row r="76" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -9116,11 +8904,8 @@
       <c r="CC76" s="1"/>
       <c r="CD76" s="1"/>
       <c r="CE76" s="1"/>
-      <c r="CF76" s="1"/>
-      <c r="CG76" s="1"/>
-      <c r="CH76" s="1"/>
-    </row>
-    <row r="77" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -9208,11 +8993,8 @@
       <c r="CC77" s="1"/>
       <c r="CD77" s="1"/>
       <c r="CE77" s="1"/>
-      <c r="CF77" s="1"/>
-      <c r="CG77" s="1"/>
-      <c r="CH77" s="1"/>
-    </row>
-    <row r="78" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -9226,9 +9008,9 @@
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
       <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="16"/>
-      <c r="L78" s="16"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
@@ -9286,9 +9068,9 @@
       <c r="BO78" s="1"/>
       <c r="BP78" s="1"/>
       <c r="BQ78" s="1"/>
-      <c r="BR78" s="1"/>
-      <c r="BS78" s="1"/>
-      <c r="BT78" s="1"/>
+      <c r="BR78" s="16"/>
+      <c r="BS78" s="16"/>
+      <c r="BT78" s="16"/>
       <c r="BU78" s="16"/>
       <c r="BV78" s="16"/>
       <c r="BW78" s="16"/>
@@ -9300,11 +9082,8 @@
       <c r="CC78" s="16"/>
       <c r="CD78" s="16"/>
       <c r="CE78" s="16"/>
-      <c r="CF78" s="16"/>
-      <c r="CG78" s="16"/>
-      <c r="CH78" s="16"/>
-    </row>
-    <row r="79" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -9318,9 +9097,9 @@
       <c r="G79" s="16"/>
       <c r="H79" s="16"/>
       <c r="I79" s="16"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="16"/>
-      <c r="L79" s="16"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
@@ -9378,9 +9157,9 @@
       <c r="BO79" s="1"/>
       <c r="BP79" s="1"/>
       <c r="BQ79" s="1"/>
-      <c r="BR79" s="1"/>
-      <c r="BS79" s="1"/>
-      <c r="BT79" s="1"/>
+      <c r="BR79" s="16"/>
+      <c r="BS79" s="16"/>
+      <c r="BT79" s="16"/>
       <c r="BU79" s="16"/>
       <c r="BV79" s="16"/>
       <c r="BW79" s="16"/>
@@ -9392,11 +9171,8 @@
       <c r="CC79" s="16"/>
       <c r="CD79" s="16"/>
       <c r="CE79" s="16"/>
-      <c r="CF79" s="16"/>
-      <c r="CG79" s="16"/>
-      <c r="CH79" s="16"/>
-    </row>
-    <row r="80" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -9484,11 +9260,8 @@
       <c r="CC80" s="1"/>
       <c r="CD80" s="1"/>
       <c r="CE80" s="1"/>
-      <c r="CF80" s="1"/>
-      <c r="CG80" s="1"/>
-      <c r="CH80" s="1"/>
-    </row>
-    <row r="81" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -9502,9 +9275,9 @@
       <c r="G81" s="16"/>
       <c r="H81" s="16"/>
       <c r="I81" s="16"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="16"/>
-      <c r="L81" s="16"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
@@ -9514,11 +9287,11 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
-      <c r="V81" s="1"/>
-      <c r="W81" s="1"/>
+      <c r="V81" s="16"/>
+      <c r="W81" s="16"/>
       <c r="X81" s="1"/>
-      <c r="Y81" s="16"/>
-      <c r="Z81" s="16"/>
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
       <c r="AC81" s="1"/>
@@ -9540,10 +9313,10 @@
       <c r="AS81" s="1"/>
       <c r="AT81" s="1"/>
       <c r="AU81" s="1"/>
-      <c r="AV81" s="1"/>
+      <c r="AV81" s="16"/>
       <c r="AW81" s="1"/>
       <c r="AX81" s="1"/>
-      <c r="AY81" s="16"/>
+      <c r="AY81" s="1"/>
       <c r="AZ81" s="1"/>
       <c r="BA81" s="1"/>
       <c r="BB81" s="1"/>
@@ -9562,9 +9335,9 @@
       <c r="BO81" s="1"/>
       <c r="BP81" s="1"/>
       <c r="BQ81" s="1"/>
-      <c r="BR81" s="1"/>
-      <c r="BS81" s="1"/>
-      <c r="BT81" s="1"/>
+      <c r="BR81" s="16"/>
+      <c r="BS81" s="16"/>
+      <c r="BT81" s="16"/>
       <c r="BU81" s="16"/>
       <c r="BV81" s="16"/>
       <c r="BW81" s="16"/>
@@ -9576,11 +9349,8 @@
       <c r="CC81" s="16"/>
       <c r="CD81" s="16"/>
       <c r="CE81" s="16"/>
-      <c r="CF81" s="16"/>
-      <c r="CG81" s="16"/>
-      <c r="CH81" s="16"/>
-    </row>
-    <row r="82" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -9668,11 +9438,8 @@
       <c r="CC82" s="1"/>
       <c r="CD82" s="1"/>
       <c r="CE82" s="1"/>
-      <c r="CF82" s="1"/>
-      <c r="CG82" s="1"/>
-      <c r="CH82" s="1"/>
-    </row>
-    <row r="83" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -9760,11 +9527,8 @@
       <c r="CC83" s="1"/>
       <c r="CD83" s="1"/>
       <c r="CE83" s="1"/>
-      <c r="CF83" s="1"/>
-      <c r="CG83" s="1"/>
-      <c r="CH83" s="1"/>
-    </row>
-    <row r="84" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -9852,11 +9616,8 @@
       <c r="CC84" s="1"/>
       <c r="CD84" s="1"/>
       <c r="CE84" s="1"/>
-      <c r="CF84" s="1"/>
-      <c r="CG84" s="1"/>
-      <c r="CH84" s="1"/>
-    </row>
-    <row r="85" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -9944,11 +9705,8 @@
       <c r="CC85" s="1"/>
       <c r="CD85" s="1"/>
       <c r="CE85" s="1"/>
-      <c r="CF85" s="1"/>
-      <c r="CG85" s="1"/>
-      <c r="CH85" s="1"/>
-    </row>
-    <row r="86" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -10036,11 +9794,8 @@
       <c r="CC86" s="1"/>
       <c r="CD86" s="1"/>
       <c r="CE86" s="1"/>
-      <c r="CF86" s="1"/>
-      <c r="CG86" s="1"/>
-      <c r="CH86" s="1"/>
-    </row>
-    <row r="87" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -10128,11 +9883,8 @@
       <c r="CC87" s="1"/>
       <c r="CD87" s="1"/>
       <c r="CE87" s="1"/>
-      <c r="CF87" s="1"/>
-      <c r="CG87" s="1"/>
-      <c r="CH87" s="1"/>
-    </row>
-    <row r="88" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -10220,11 +9972,8 @@
       <c r="CC88" s="1"/>
       <c r="CD88" s="1"/>
       <c r="CE88" s="1"/>
-      <c r="CF88" s="1"/>
-      <c r="CG88" s="1"/>
-      <c r="CH88" s="1"/>
-    </row>
-    <row r="89" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -10312,11 +10061,8 @@
       <c r="CC89" s="1"/>
       <c r="CD89" s="1"/>
       <c r="CE89" s="1"/>
-      <c r="CF89" s="1"/>
-      <c r="CG89" s="1"/>
-      <c r="CH89" s="1"/>
-    </row>
-    <row r="90" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -10404,11 +10150,8 @@
       <c r="CC90" s="1"/>
       <c r="CD90" s="1"/>
       <c r="CE90" s="1"/>
-      <c r="CF90" s="1"/>
-      <c r="CG90" s="1"/>
-      <c r="CH90" s="1"/>
-    </row>
-    <row r="91" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -10496,11 +10239,8 @@
       <c r="CC91" s="1"/>
       <c r="CD91" s="1"/>
       <c r="CE91" s="1"/>
-      <c r="CF91" s="1"/>
-      <c r="CG91" s="1"/>
-      <c r="CH91" s="1"/>
-    </row>
-    <row r="92" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -10588,11 +10328,8 @@
       <c r="CC92" s="1"/>
       <c r="CD92" s="1"/>
       <c r="CE92" s="1"/>
-      <c r="CF92" s="1"/>
-      <c r="CG92" s="1"/>
-      <c r="CH92" s="1"/>
-    </row>
-    <row r="93" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -10680,11 +10417,8 @@
       <c r="CC93" s="1"/>
       <c r="CD93" s="1"/>
       <c r="CE93" s="1"/>
-      <c r="CF93" s="1"/>
-      <c r="CG93" s="1"/>
-      <c r="CH93" s="1"/>
-    </row>
-    <row r="94" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -10772,11 +10506,8 @@
       <c r="CC94" s="1"/>
       <c r="CD94" s="1"/>
       <c r="CE94" s="1"/>
-      <c r="CF94" s="1"/>
-      <c r="CG94" s="1"/>
-      <c r="CH94" s="1"/>
-    </row>
-    <row r="95" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -10864,11 +10595,8 @@
       <c r="CC95" s="1"/>
       <c r="CD95" s="1"/>
       <c r="CE95" s="1"/>
-      <c r="CF95" s="1"/>
-      <c r="CG95" s="1"/>
-      <c r="CH95" s="1"/>
-    </row>
-    <row r="96" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -10893,9 +10621,9 @@
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
-      <c r="U96" s="1"/>
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
@@ -10955,11 +10683,8 @@
       <c r="CC96" s="1"/>
       <c r="CD96" s="1"/>
       <c r="CE96" s="1"/>
-      <c r="CF96" s="1"/>
-      <c r="CG96" s="1"/>
-      <c r="CH96" s="1"/>
-    </row>
-    <row r="97" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -10984,9 +10709,9 @@
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
-      <c r="U97" s="1"/>
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
@@ -11046,11 +10771,8 @@
       <c r="CC97" s="1"/>
       <c r="CD97" s="1"/>
       <c r="CE97" s="1"/>
-      <c r="CF97" s="1"/>
-      <c r="CG97" s="1"/>
-      <c r="CH97" s="1"/>
-    </row>
-    <row r="98" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -11138,11 +10860,8 @@
       <c r="CC98" s="1"/>
       <c r="CD98" s="1"/>
       <c r="CE98" s="1"/>
-      <c r="CF98" s="1"/>
-      <c r="CG98" s="1"/>
-      <c r="CH98" s="1"/>
-    </row>
-    <row r="99" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -11167,9 +10886,9 @@
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
-      <c r="U99" s="1"/>
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
@@ -11229,11 +10948,8 @@
       <c r="CC99" s="1"/>
       <c r="CD99" s="1"/>
       <c r="CE99" s="1"/>
-      <c r="CF99" s="1"/>
-      <c r="CG99" s="1"/>
-      <c r="CH99" s="1"/>
-    </row>
-    <row r="100" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -11321,11 +11037,8 @@
       <c r="CC100" s="1"/>
       <c r="CD100" s="1"/>
       <c r="CE100" s="1"/>
-      <c r="CF100" s="1"/>
-      <c r="CG100" s="1"/>
-      <c r="CH100" s="1"/>
-    </row>
-    <row r="101" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -11413,11 +11126,8 @@
       <c r="CC101" s="1"/>
       <c r="CD101" s="1"/>
       <c r="CE101" s="1"/>
-      <c r="CF101" s="1"/>
-      <c r="CG101" s="1"/>
-      <c r="CH101" s="1"/>
-    </row>
-    <row r="102" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -11505,11 +11215,8 @@
       <c r="CC102" s="1"/>
       <c r="CD102" s="1"/>
       <c r="CE102" s="1"/>
-      <c r="CF102" s="1"/>
-      <c r="CG102" s="1"/>
-      <c r="CH102" s="1"/>
-    </row>
-    <row r="103" spans="1:86" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:83" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
         <v>102</v>
       </c>
@@ -11534,10 +11241,10 @@
       <c r="R103" s="12"/>
       <c r="S103" s="12"/>
       <c r="T103" s="12"/>
-      <c r="U103" s="12"/>
+      <c r="U103" s="13"/>
       <c r="V103" s="12"/>
       <c r="W103" s="12"/>
-      <c r="X103" s="13"/>
+      <c r="X103" s="12"/>
       <c r="Y103" s="12"/>
       <c r="Z103" s="12"/>
       <c r="AA103" s="12"/>
@@ -11597,11 +11304,8 @@
       <c r="CC103" s="12"/>
       <c r="CD103" s="12"/>
       <c r="CE103" s="12"/>
-      <c r="CF103" s="12"/>
-      <c r="CG103" s="12"/>
-      <c r="CH103" s="12"/>
-    </row>
-    <row r="104" spans="1:86" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:83" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
         <v>103</v>
       </c>
@@ -11689,11 +11393,8 @@
       <c r="CC104" s="12"/>
       <c r="CD104" s="12"/>
       <c r="CE104" s="12"/>
-      <c r="CF104" s="12"/>
-      <c r="CG104" s="12"/>
-      <c r="CH104" s="12"/>
-    </row>
-    <row r="105" spans="1:86" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:83" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
         <v>104</v>
       </c>
@@ -11781,11 +11482,8 @@
       <c r="CC105" s="12"/>
       <c r="CD105" s="12"/>
       <c r="CE105" s="12"/>
-      <c r="CF105" s="12"/>
-      <c r="CG105" s="12"/>
-      <c r="CH105" s="12"/>
-    </row>
-    <row r="106" spans="1:86" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:83" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
         <v>105</v>
       </c>
@@ -11810,9 +11508,9 @@
       <c r="R106" s="12"/>
       <c r="S106" s="12"/>
       <c r="T106" s="12"/>
-      <c r="U106" s="12"/>
       <c r="V106" s="12"/>
       <c r="W106" s="12"/>
+      <c r="X106" s="12"/>
       <c r="Y106" s="12"/>
       <c r="Z106" s="12"/>
       <c r="AA106" s="12"/>
@@ -11872,11 +11570,8 @@
       <c r="CC106" s="12"/>
       <c r="CD106" s="12"/>
       <c r="CE106" s="12"/>
-      <c r="CF106" s="12"/>
-      <c r="CG106" s="12"/>
-      <c r="CH106" s="12"/>
-    </row>
-    <row r="107" spans="1:86" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:83" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
         <v>106</v>
       </c>
@@ -11964,11 +11659,8 @@
       <c r="CC107" s="12"/>
       <c r="CD107" s="12"/>
       <c r="CE107" s="12"/>
-      <c r="CF107" s="12"/>
-      <c r="CG107" s="12"/>
-      <c r="CH107" s="12"/>
-    </row>
-    <row r="108" spans="1:86" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:83" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
         <v>107</v>
       </c>
@@ -11993,9 +11685,9 @@
       <c r="R108" s="12"/>
       <c r="S108" s="12"/>
       <c r="T108" s="12"/>
-      <c r="U108" s="12"/>
       <c r="V108" s="12"/>
       <c r="W108" s="12"/>
+      <c r="X108" s="12"/>
       <c r="Y108" s="12"/>
       <c r="Z108" s="12"/>
       <c r="AA108" s="12"/>
@@ -12055,11 +11747,8 @@
       <c r="CC108" s="12"/>
       <c r="CD108" s="12"/>
       <c r="CE108" s="12"/>
-      <c r="CF108" s="12"/>
-      <c r="CG108" s="12"/>
-      <c r="CH108" s="12"/>
-    </row>
-    <row r="109" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -12147,11 +11836,8 @@
       <c r="CC109" s="1"/>
       <c r="CD109" s="1"/>
       <c r="CE109" s="1"/>
-      <c r="CF109" s="1"/>
-      <c r="CG109" s="1"/>
-      <c r="CH109" s="1"/>
-    </row>
-    <row r="110" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -12239,11 +11925,8 @@
       <c r="CC110" s="1"/>
       <c r="CD110" s="1"/>
       <c r="CE110" s="1"/>
-      <c r="CF110" s="1"/>
-      <c r="CG110" s="1"/>
-      <c r="CH110" s="1"/>
-    </row>
-    <row r="111" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -12331,11 +12014,8 @@
       <c r="CC111" s="1"/>
       <c r="CD111" s="1"/>
       <c r="CE111" s="1"/>
-      <c r="CF111" s="1"/>
-      <c r="CG111" s="1"/>
-      <c r="CH111" s="1"/>
-    </row>
-    <row r="112" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -12423,11 +12103,8 @@
       <c r="CC112" s="1"/>
       <c r="CD112" s="1"/>
       <c r="CE112" s="1"/>
-      <c r="CF112" s="1"/>
-      <c r="CG112" s="1"/>
-      <c r="CH112" s="1"/>
-    </row>
-    <row r="113" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -12515,11 +12192,8 @@
       <c r="CC113" s="1"/>
       <c r="CD113" s="1"/>
       <c r="CE113" s="1"/>
-      <c r="CF113" s="1"/>
-      <c r="CG113" s="1"/>
-      <c r="CH113" s="1"/>
-    </row>
-    <row r="114" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -12607,11 +12281,8 @@
       <c r="CC114" s="1"/>
       <c r="CD114" s="1"/>
       <c r="CE114" s="1"/>
-      <c r="CF114" s="1"/>
-      <c r="CG114" s="1"/>
-      <c r="CH114" s="1"/>
-    </row>
-    <row r="115" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -12699,11 +12370,8 @@
       <c r="CC115" s="1"/>
       <c r="CD115" s="1"/>
       <c r="CE115" s="1"/>
-      <c r="CF115" s="1"/>
-      <c r="CG115" s="1"/>
-      <c r="CH115" s="1"/>
-    </row>
-    <row r="116" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -12791,11 +12459,8 @@
       <c r="CC116" s="1"/>
       <c r="CD116" s="1"/>
       <c r="CE116" s="1"/>
-      <c r="CF116" s="1"/>
-      <c r="CG116" s="1"/>
-      <c r="CH116" s="1"/>
-    </row>
-    <row r="117" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -12883,11 +12548,8 @@
       <c r="CC117" s="1"/>
       <c r="CD117" s="1"/>
       <c r="CE117" s="1"/>
-      <c r="CF117" s="1"/>
-      <c r="CG117" s="1"/>
-      <c r="CH117" s="1"/>
-    </row>
-    <row r="118" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -12975,11 +12637,8 @@
       <c r="CC118" s="1"/>
       <c r="CD118" s="1"/>
       <c r="CE118" s="1"/>
-      <c r="CF118" s="1"/>
-      <c r="CG118" s="1"/>
-      <c r="CH118" s="1"/>
-    </row>
-    <row r="119" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -13067,11 +12726,8 @@
       <c r="CC119" s="1"/>
       <c r="CD119" s="1"/>
       <c r="CE119" s="1"/>
-      <c r="CF119" s="1"/>
-      <c r="CG119" s="1"/>
-      <c r="CH119" s="1"/>
-    </row>
-    <row r="120" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -13159,11 +12815,8 @@
       <c r="CC120" s="1"/>
       <c r="CD120" s="1"/>
       <c r="CE120" s="1"/>
-      <c r="CF120" s="1"/>
-      <c r="CG120" s="1"/>
-      <c r="CH120" s="1"/>
-    </row>
-    <row r="121" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -13251,11 +12904,8 @@
       <c r="CC121" s="1"/>
       <c r="CD121" s="1"/>
       <c r="CE121" s="1"/>
-      <c r="CF121" s="1"/>
-      <c r="CG121" s="1"/>
-      <c r="CH121" s="1"/>
-    </row>
-    <row r="122" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -13343,11 +12993,8 @@
       <c r="CC122" s="1"/>
       <c r="CD122" s="1"/>
       <c r="CE122" s="1"/>
-      <c r="CF122" s="1"/>
-      <c r="CG122" s="1"/>
-      <c r="CH122" s="1"/>
-    </row>
-    <row r="123" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -13435,11 +13082,8 @@
       <c r="CC123" s="1"/>
       <c r="CD123" s="1"/>
       <c r="CE123" s="1"/>
-      <c r="CF123" s="1"/>
-      <c r="CG123" s="1"/>
-      <c r="CH123" s="1"/>
-    </row>
-    <row r="124" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -13527,11 +13171,8 @@
       <c r="CC124" s="1"/>
       <c r="CD124" s="1"/>
       <c r="CE124" s="1"/>
-      <c r="CF124" s="1"/>
-      <c r="CG124" s="1"/>
-      <c r="CH124" s="1"/>
-    </row>
-    <row r="125" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -13619,11 +13260,8 @@
       <c r="CC125" s="1"/>
       <c r="CD125" s="1"/>
       <c r="CE125" s="1"/>
-      <c r="CF125" s="1"/>
-      <c r="CG125" s="1"/>
-      <c r="CH125" s="1"/>
-    </row>
-    <row r="126" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -13711,11 +13349,8 @@
       <c r="CC126" s="1"/>
       <c r="CD126" s="1"/>
       <c r="CE126" s="1"/>
-      <c r="CF126" s="1"/>
-      <c r="CG126" s="1"/>
-      <c r="CH126" s="1"/>
-    </row>
-    <row r="127" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -13741,9 +13376,9 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
       <c r="U127" s="1"/>
-      <c r="V127" s="1"/>
-      <c r="W127" s="1"/>
-      <c r="X127" s="1"/>
+      <c r="AD127" s="1"/>
+      <c r="AE127" s="1"/>
+      <c r="AF127" s="1"/>
       <c r="AG127" s="1"/>
       <c r="AH127" s="1"/>
       <c r="AI127" s="1"/>
@@ -13774,9 +13409,9 @@
       <c r="BH127" s="1"/>
       <c r="BI127" s="1"/>
       <c r="BJ127" s="1"/>
-      <c r="BK127" s="1"/>
       <c r="BL127" s="1"/>
       <c r="BM127" s="1"/>
+      <c r="BN127" s="1"/>
       <c r="BO127" s="1"/>
       <c r="BP127" s="1"/>
       <c r="BQ127" s="1"/>
@@ -13794,11 +13429,8 @@
       <c r="CC127" s="1"/>
       <c r="CD127" s="1"/>
       <c r="CE127" s="1"/>
-      <c r="CF127" s="1"/>
-      <c r="CG127" s="1"/>
-      <c r="CH127" s="1"/>
-    </row>
-    <row r="128" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -13824,9 +13456,9 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
       <c r="U128" s="1"/>
-      <c r="V128" s="1"/>
-      <c r="W128" s="1"/>
-      <c r="X128" s="1"/>
+      <c r="AD128" s="1"/>
+      <c r="AE128" s="1"/>
+      <c r="AF128" s="1"/>
       <c r="AG128" s="1"/>
       <c r="AH128" s="1"/>
       <c r="AI128" s="1"/>
@@ -13857,9 +13489,9 @@
       <c r="BH128" s="1"/>
       <c r="BI128" s="1"/>
       <c r="BJ128" s="1"/>
-      <c r="BK128" s="1"/>
       <c r="BL128" s="1"/>
       <c r="BM128" s="1"/>
+      <c r="BN128" s="1"/>
       <c r="BO128" s="1"/>
       <c r="BP128" s="1"/>
       <c r="BQ128" s="1"/>
@@ -13877,11 +13509,8 @@
       <c r="CC128" s="1"/>
       <c r="CD128" s="1"/>
       <c r="CE128" s="1"/>
-      <c r="CF128" s="1"/>
-      <c r="CG128" s="1"/>
-      <c r="CH128" s="1"/>
-    </row>
-    <row r="129" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -13951,10 +13580,10 @@
       <c r="BK129" s="1"/>
       <c r="BL129" s="1"/>
       <c r="BM129" s="1"/>
-      <c r="BN129" s="1"/>
+      <c r="BN129" s="2"/>
       <c r="BO129" s="1"/>
       <c r="BP129" s="1"/>
-      <c r="BQ129" s="2"/>
+      <c r="BQ129" s="1"/>
       <c r="BR129" s="1"/>
       <c r="BS129" s="1"/>
       <c r="BT129" s="1"/>
@@ -13969,11 +13598,8 @@
       <c r="CC129" s="1"/>
       <c r="CD129" s="1"/>
       <c r="CE129" s="1"/>
-      <c r="CF129" s="1"/>
-      <c r="CG129" s="1"/>
-      <c r="CH129" s="1"/>
-    </row>
-    <row r="130" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -13999,9 +13625,9 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
       <c r="U130" s="1"/>
-      <c r="V130" s="1"/>
-      <c r="W130" s="1"/>
-      <c r="X130" s="1"/>
+      <c r="AD130" s="1"/>
+      <c r="AE130" s="1"/>
+      <c r="AF130" s="1"/>
       <c r="AG130" s="1"/>
       <c r="AH130" s="1"/>
       <c r="AI130" s="1"/>
@@ -14032,9 +13658,9 @@
       <c r="BH130" s="1"/>
       <c r="BI130" s="1"/>
       <c r="BJ130" s="1"/>
-      <c r="BK130" s="1"/>
       <c r="BL130" s="1"/>
       <c r="BM130" s="1"/>
+      <c r="BN130" s="1"/>
       <c r="BO130" s="1"/>
       <c r="BP130" s="1"/>
       <c r="BQ130" s="1"/>
@@ -14052,11 +13678,8 @@
       <c r="CC130" s="1"/>
       <c r="CD130" s="1"/>
       <c r="CE130" s="1"/>
-      <c r="CF130" s="1"/>
-      <c r="CG130" s="1"/>
-      <c r="CH130" s="1"/>
-    </row>
-    <row r="131" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -14144,11 +13767,8 @@
       <c r="CC131" s="1"/>
       <c r="CD131" s="1"/>
       <c r="CE131" s="1"/>
-      <c r="CF131" s="1"/>
-      <c r="CG131" s="1"/>
-      <c r="CH131" s="1"/>
-    </row>
-    <row r="132" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -14214,10 +13834,10 @@
       <c r="BG132" s="1"/>
       <c r="BH132" s="1"/>
       <c r="BI132" s="1"/>
-      <c r="BJ132" s="1"/>
+      <c r="BJ132" s="2"/>
       <c r="BK132" s="1"/>
       <c r="BL132" s="1"/>
-      <c r="BM132" s="2"/>
+      <c r="BM132" s="1"/>
       <c r="BN132" s="1"/>
       <c r="BO132" s="1"/>
       <c r="BP132" s="1"/>
@@ -14236,11 +13856,8 @@
       <c r="CC132" s="1"/>
       <c r="CD132" s="1"/>
       <c r="CE132" s="1"/>
-      <c r="CF132" s="1"/>
-      <c r="CG132" s="1"/>
-      <c r="CH132" s="1"/>
-    </row>
-    <row r="133" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -14267,10 +13884,10 @@
       <c r="T133" s="1"/>
       <c r="U133" s="1"/>
       <c r="V133" s="1"/>
-      <c r="W133" s="1"/>
+      <c r="W133" s="2"/>
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
-      <c r="Z133" s="2"/>
+      <c r="Z133" s="1"/>
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
       <c r="AC133" s="1"/>
@@ -14328,11 +13945,8 @@
       <c r="CC133" s="1"/>
       <c r="CD133" s="1"/>
       <c r="CE133" s="1"/>
-      <c r="CF133" s="1"/>
-      <c r="CG133" s="1"/>
-      <c r="CH133" s="1"/>
-    </row>
-    <row r="134" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -14405,10 +14019,10 @@
       <c r="BN134" s="1"/>
       <c r="BO134" s="1"/>
       <c r="BP134" s="1"/>
-      <c r="BQ134" s="1"/>
+      <c r="BQ134" s="2"/>
       <c r="BR134" s="1"/>
       <c r="BS134" s="1"/>
-      <c r="BT134" s="2"/>
+      <c r="BT134" s="1"/>
       <c r="BU134" s="1"/>
       <c r="BV134" s="1"/>
       <c r="BW134" s="1"/>
@@ -14420,11 +14034,8 @@
       <c r="CC134" s="1"/>
       <c r="CD134" s="1"/>
       <c r="CE134" s="1"/>
-      <c r="CF134" s="1"/>
-      <c r="CG134" s="1"/>
-      <c r="CH134" s="1"/>
-    </row>
-    <row r="135" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -14512,11 +14123,8 @@
       <c r="CC135" s="1"/>
       <c r="CD135" s="1"/>
       <c r="CE135" s="1"/>
-      <c r="CF135" s="1"/>
-      <c r="CG135" s="1"/>
-      <c r="CH135" s="1"/>
-    </row>
-    <row r="136" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -14552,13 +14160,13 @@
       <c r="AC136" s="1"/>
       <c r="AD136" s="1"/>
       <c r="AE136" s="1"/>
-      <c r="AF136" s="1"/>
+      <c r="AF136" s="2"/>
       <c r="AG136" s="1"/>
       <c r="AH136" s="1"/>
       <c r="AI136" s="2"/>
       <c r="AJ136" s="1"/>
       <c r="AK136" s="1"/>
-      <c r="AL136" s="2"/>
+      <c r="AL136" s="1"/>
       <c r="AM136" s="1"/>
       <c r="AN136" s="1"/>
       <c r="AO136" s="1"/>
@@ -14604,11 +14212,8 @@
       <c r="CC136" s="1"/>
       <c r="CD136" s="1"/>
       <c r="CE136" s="1"/>
-      <c r="CF136" s="1"/>
-      <c r="CG136" s="1"/>
-      <c r="CH136" s="1"/>
-    </row>
-    <row r="137" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -14696,11 +14301,8 @@
       <c r="CC137" s="1"/>
       <c r="CD137" s="1"/>
       <c r="CE137" s="1"/>
-      <c r="CF137" s="1"/>
-      <c r="CG137" s="1"/>
-      <c r="CH137" s="1"/>
-    </row>
-    <row r="138" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -14731,10 +14333,10 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
-      <c r="AA138" s="1"/>
+      <c r="AA138" s="2"/>
       <c r="AB138" s="1"/>
       <c r="AC138" s="1"/>
-      <c r="AD138" s="2"/>
+      <c r="AD138" s="1"/>
       <c r="AE138" s="1"/>
       <c r="AF138" s="1"/>
       <c r="AG138" s="1"/>
@@ -14788,11 +14390,8 @@
       <c r="CC138" s="1"/>
       <c r="CD138" s="1"/>
       <c r="CE138" s="1"/>
-      <c r="CF138" s="1"/>
-      <c r="CG138" s="1"/>
-      <c r="CH138" s="1"/>
-    </row>
-    <row r="139" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -14880,11 +14479,8 @@
       <c r="CC139" s="1"/>
       <c r="CD139" s="1"/>
       <c r="CE139" s="1"/>
-      <c r="CF139" s="1"/>
-      <c r="CG139" s="1"/>
-      <c r="CH139" s="1"/>
-    </row>
-    <row r="140" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -14972,11 +14568,8 @@
       <c r="CC140" s="1"/>
       <c r="CD140" s="1"/>
       <c r="CE140" s="1"/>
-      <c r="CF140" s="1"/>
-      <c r="CG140" s="1"/>
-      <c r="CH140" s="1"/>
-    </row>
-    <row r="141" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -15064,11 +14657,8 @@
       <c r="CC141" s="1"/>
       <c r="CD141" s="1"/>
       <c r="CE141" s="1"/>
-      <c r="CF141" s="1"/>
-      <c r="CG141" s="1"/>
-      <c r="CH141" s="1"/>
-    </row>
-    <row r="142" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -15156,11 +14746,8 @@
       <c r="CC142" s="1"/>
       <c r="CD142" s="1"/>
       <c r="CE142" s="1"/>
-      <c r="CF142" s="1"/>
-      <c r="CG142" s="1"/>
-      <c r="CH142" s="1"/>
-    </row>
-    <row r="143" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -15248,11 +14835,8 @@
       <c r="CC143" s="1"/>
       <c r="CD143" s="1"/>
       <c r="CE143" s="1"/>
-      <c r="CF143" s="1"/>
-      <c r="CG143" s="1"/>
-      <c r="CH143" s="1"/>
-    </row>
-    <row r="144" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -15340,11 +14924,8 @@
       <c r="CC144" s="1"/>
       <c r="CD144" s="1"/>
       <c r="CE144" s="1"/>
-      <c r="CF144" s="1"/>
-      <c r="CG144" s="1"/>
-      <c r="CH144" s="1"/>
-    </row>
-    <row r="145" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -15432,11 +15013,8 @@
       <c r="CC145" s="1"/>
       <c r="CD145" s="1"/>
       <c r="CE145" s="1"/>
-      <c r="CF145" s="1"/>
-      <c r="CG145" s="1"/>
-      <c r="CH145" s="1"/>
-    </row>
-    <row r="146" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -15524,11 +15102,8 @@
       <c r="CC146" s="1"/>
       <c r="CD146" s="1"/>
       <c r="CE146" s="1"/>
-      <c r="CF146" s="1"/>
-      <c r="CG146" s="1"/>
-      <c r="CH146" s="1"/>
-    </row>
-    <row r="147" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -15616,11 +15191,8 @@
       <c r="CC147" s="1"/>
       <c r="CD147" s="1"/>
       <c r="CE147" s="1"/>
-      <c r="CF147" s="1"/>
-      <c r="CG147" s="1"/>
-      <c r="CH147" s="1"/>
-    </row>
-    <row r="148" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -15708,11 +15280,8 @@
       <c r="CC148" s="1"/>
       <c r="CD148" s="1"/>
       <c r="CE148" s="1"/>
-      <c r="CF148" s="1"/>
-      <c r="CG148" s="1"/>
-      <c r="CH148" s="1"/>
-    </row>
-    <row r="149" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -15771,10 +15340,10 @@
       <c r="AZ149" s="1"/>
       <c r="BA149" s="1"/>
       <c r="BB149" s="1"/>
-      <c r="BC149" s="1"/>
+      <c r="BC149" s="2"/>
       <c r="BD149" s="1"/>
       <c r="BE149" s="1"/>
-      <c r="BF149" s="2"/>
+      <c r="BF149" s="1"/>
       <c r="BG149" s="1"/>
       <c r="BH149" s="1"/>
       <c r="BI149" s="1"/>
@@ -15800,11 +15369,8 @@
       <c r="CC149" s="1"/>
       <c r="CD149" s="1"/>
       <c r="CE149" s="1"/>
-      <c r="CF149" s="1"/>
-      <c r="CG149" s="1"/>
-      <c r="CH149" s="1"/>
-    </row>
-    <row r="150" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -15892,11 +15458,8 @@
       <c r="CC150" s="1"/>
       <c r="CD150" s="1"/>
       <c r="CE150" s="1"/>
-      <c r="CF150" s="1"/>
-      <c r="CG150" s="1"/>
-      <c r="CH150" s="1"/>
-    </row>
-    <row r="151" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -15984,11 +15547,8 @@
       <c r="CC151" s="1"/>
       <c r="CD151" s="1"/>
       <c r="CE151" s="1"/>
-      <c r="CF151" s="1"/>
-      <c r="CG151" s="1"/>
-      <c r="CH151" s="1"/>
-    </row>
-    <row r="152" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -16076,11 +15636,8 @@
       <c r="CC152" s="1"/>
       <c r="CD152" s="1"/>
       <c r="CE152" s="1"/>
-      <c r="CF152" s="1"/>
-      <c r="CG152" s="1"/>
-      <c r="CH152" s="1"/>
-    </row>
-    <row r="153" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -16168,11 +15725,8 @@
       <c r="CC153" s="1"/>
       <c r="CD153" s="1"/>
       <c r="CE153" s="1"/>
-      <c r="CF153" s="1"/>
-      <c r="CG153" s="1"/>
-      <c r="CH153" s="1"/>
-    </row>
-    <row r="154" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -16260,11 +15814,8 @@
       <c r="CC154" s="1"/>
       <c r="CD154" s="1"/>
       <c r="CE154" s="1"/>
-      <c r="CF154" s="1"/>
-      <c r="CG154" s="1"/>
-      <c r="CH154" s="1"/>
-    </row>
-    <row r="155" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -16275,10 +15826,10 @@
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
+      <c r="G155" s="2"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
-      <c r="J155" s="2"/>
+      <c r="J155" s="1"/>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
@@ -16352,11 +15903,8 @@
       <c r="CC155" s="1"/>
       <c r="CD155" s="1"/>
       <c r="CE155" s="1"/>
-      <c r="CF155" s="1"/>
-      <c r="CG155" s="1"/>
-      <c r="CH155" s="1"/>
-    </row>
-    <row r="156" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -16444,11 +15992,8 @@
       <c r="CC156" s="1"/>
       <c r="CD156" s="1"/>
       <c r="CE156" s="1"/>
-      <c r="CF156" s="1"/>
-      <c r="CG156" s="1"/>
-      <c r="CH156" s="1"/>
-    </row>
-    <row r="157" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -16536,11 +16081,8 @@
       <c r="CC157" s="1"/>
       <c r="CD157" s="1"/>
       <c r="CE157" s="1"/>
-      <c r="CF157" s="1"/>
-      <c r="CG157" s="1"/>
-      <c r="CH157" s="1"/>
-    </row>
-    <row r="158" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -16565,9 +16107,9 @@
       <c r="R158" s="1"/>
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
-      <c r="U158" s="1"/>
       <c r="V158" s="1"/>
       <c r="W158" s="1"/>
+      <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
       <c r="AA158" s="1"/>
@@ -16627,11 +16169,8 @@
       <c r="CC158" s="1"/>
       <c r="CD158" s="1"/>
       <c r="CE158" s="1"/>
-      <c r="CF158" s="1"/>
-      <c r="CG158" s="1"/>
-      <c r="CH158" s="1"/>
-    </row>
-    <row r="159" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -16719,11 +16258,8 @@
       <c r="CC159" s="1"/>
       <c r="CD159" s="1"/>
       <c r="CE159" s="1"/>
-      <c r="CF159" s="1"/>
-      <c r="CG159" s="1"/>
-      <c r="CH159" s="1"/>
-    </row>
-    <row r="160" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -16811,11 +16347,8 @@
       <c r="CC160" s="1"/>
       <c r="CD160" s="1"/>
       <c r="CE160" s="1"/>
-      <c r="CF160" s="1"/>
-      <c r="CG160" s="1"/>
-      <c r="CH160" s="1"/>
-    </row>
-    <row r="161" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -16903,11 +16436,8 @@
       <c r="CC161" s="1"/>
       <c r="CD161" s="1"/>
       <c r="CE161" s="1"/>
-      <c r="CF161" s="1"/>
-      <c r="CG161" s="1"/>
-      <c r="CH161" s="1"/>
-    </row>
-    <row r="162" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -16995,11 +16525,8 @@
       <c r="CC162" s="1"/>
       <c r="CD162" s="1"/>
       <c r="CE162" s="1"/>
-      <c r="CF162" s="1"/>
-      <c r="CG162" s="1"/>
-      <c r="CH162" s="1"/>
-    </row>
-    <row r="163" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -17018,10 +16545,10 @@
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
-      <c r="O163" s="1"/>
+      <c r="O163" s="2"/>
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
-      <c r="R163" s="2"/>
+      <c r="R163" s="1"/>
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
       <c r="U163" s="1"/>
@@ -17087,11 +16614,8 @@
       <c r="CC163" s="1"/>
       <c r="CD163" s="1"/>
       <c r="CE163" s="1"/>
-      <c r="CF163" s="1"/>
-      <c r="CG163" s="1"/>
-      <c r="CH163" s="1"/>
-    </row>
-    <row r="164" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -17179,11 +16703,8 @@
       <c r="CC164" s="1"/>
       <c r="CD164" s="1"/>
       <c r="CE164" s="1"/>
-      <c r="CF164" s="1"/>
-      <c r="CG164" s="1"/>
-      <c r="CH164" s="1"/>
-    </row>
-    <row r="165" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -17271,11 +16792,8 @@
       <c r="CC165" s="1"/>
       <c r="CD165" s="1"/>
       <c r="CE165" s="1"/>
-      <c r="CF165" s="1"/>
-      <c r="CG165" s="1"/>
-      <c r="CH165" s="1"/>
-    </row>
-    <row r="166" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -17363,11 +16881,8 @@
       <c r="CC166" s="1"/>
       <c r="CD166" s="1"/>
       <c r="CE166" s="1"/>
-      <c r="CF166" s="1"/>
-      <c r="CG166" s="1"/>
-      <c r="CH166" s="1"/>
-    </row>
-    <row r="167" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -17455,11 +16970,8 @@
       <c r="CC167" s="1"/>
       <c r="CD167" s="1"/>
       <c r="CE167" s="1"/>
-      <c r="CF167" s="1"/>
-      <c r="CG167" s="1"/>
-      <c r="CH167" s="1"/>
-    </row>
-    <row r="168" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -17547,11 +17059,8 @@
       <c r="CC168" s="1"/>
       <c r="CD168" s="1"/>
       <c r="CE168" s="1"/>
-      <c r="CF168" s="1"/>
-      <c r="CG168" s="1"/>
-      <c r="CH168" s="1"/>
-    </row>
-    <row r="169" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -17639,11 +17148,8 @@
       <c r="CC169" s="1"/>
       <c r="CD169" s="1"/>
       <c r="CE169" s="1"/>
-      <c r="CF169" s="1"/>
-      <c r="CG169" s="1"/>
-      <c r="CH169" s="1"/>
-    </row>
-    <row r="170" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -17731,11 +17237,8 @@
       <c r="CC170" s="1"/>
       <c r="CD170" s="1"/>
       <c r="CE170" s="1"/>
-      <c r="CF170" s="1"/>
-      <c r="CG170" s="1"/>
-      <c r="CH170" s="1"/>
-    </row>
-    <row r="171" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -17823,11 +17326,8 @@
       <c r="CC171" s="1"/>
       <c r="CD171" s="1"/>
       <c r="CE171" s="1"/>
-      <c r="CF171" s="1"/>
-      <c r="CG171" s="1"/>
-      <c r="CH171" s="1"/>
-    </row>
-    <row r="172" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -17915,11 +17415,8 @@
       <c r="CC172" s="1"/>
       <c r="CD172" s="1"/>
       <c r="CE172" s="1"/>
-      <c r="CF172" s="1"/>
-      <c r="CG172" s="1"/>
-      <c r="CH172" s="1"/>
-    </row>
-    <row r="173" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -18007,11 +17504,8 @@
       <c r="CC173" s="1"/>
       <c r="CD173" s="1"/>
       <c r="CE173" s="1"/>
-      <c r="CF173" s="1"/>
-      <c r="CG173" s="1"/>
-      <c r="CH173" s="1"/>
-    </row>
-    <row r="174" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -18099,11 +17593,8 @@
       <c r="CC174" s="1"/>
       <c r="CD174" s="1"/>
       <c r="CE174" s="1"/>
-      <c r="CF174" s="1"/>
-      <c r="CG174" s="1"/>
-      <c r="CH174" s="1"/>
-    </row>
-    <row r="175" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -18134,10 +17625,10 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
-      <c r="AA175" s="1"/>
+      <c r="AA175" s="2"/>
       <c r="AB175" s="1"/>
       <c r="AC175" s="1"/>
-      <c r="AD175" s="2"/>
+      <c r="AD175" s="1"/>
       <c r="AE175" s="1"/>
       <c r="AF175" s="1"/>
       <c r="AG175" s="1"/>
@@ -18191,11 +17682,8 @@
       <c r="CC175" s="1"/>
       <c r="CD175" s="1"/>
       <c r="CE175" s="1"/>
-      <c r="CF175" s="1"/>
-      <c r="CG175" s="1"/>
-      <c r="CH175" s="1"/>
-    </row>
-    <row r="176" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -18283,11 +17771,8 @@
       <c r="CC176" s="1"/>
       <c r="CD176" s="1"/>
       <c r="CE176" s="1"/>
-      <c r="CF176" s="1"/>
-      <c r="CG176" s="1"/>
-      <c r="CH176" s="1"/>
-    </row>
-    <row r="177" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -18375,11 +17860,8 @@
       <c r="CC177" s="1"/>
       <c r="CD177" s="1"/>
       <c r="CE177" s="1"/>
-      <c r="CF177" s="1"/>
-      <c r="CG177" s="1"/>
-      <c r="CH177" s="1"/>
-    </row>
-    <row r="178" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -18467,11 +17949,8 @@
       <c r="CC178" s="1"/>
       <c r="CD178" s="1"/>
       <c r="CE178" s="1"/>
-      <c r="CF178" s="1"/>
-      <c r="CG178" s="1"/>
-      <c r="CH178" s="1"/>
-    </row>
-    <row r="179" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -18559,11 +18038,8 @@
       <c r="CC179" s="1"/>
       <c r="CD179" s="1"/>
       <c r="CE179" s="1"/>
-      <c r="CF179" s="1"/>
-      <c r="CG179" s="1"/>
-      <c r="CH179" s="1"/>
-    </row>
-    <row r="180" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -18651,11 +18127,8 @@
       <c r="CC180" s="1"/>
       <c r="CD180" s="1"/>
       <c r="CE180" s="1"/>
-      <c r="CF180" s="1"/>
-      <c r="CG180" s="1"/>
-      <c r="CH180" s="1"/>
-    </row>
-    <row r="181" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -18703,10 +18176,10 @@
       <c r="AO181" s="1"/>
       <c r="AP181" s="1"/>
       <c r="AQ181" s="1"/>
-      <c r="AR181" s="1"/>
+      <c r="AR181" s="2"/>
       <c r="AS181" s="1"/>
       <c r="AT181" s="1"/>
-      <c r="AU181" s="2"/>
+      <c r="AU181" s="1"/>
       <c r="AV181" s="1"/>
       <c r="AW181" s="1"/>
       <c r="AX181" s="1"/>
@@ -18743,11 +18216,8 @@
       <c r="CC181" s="1"/>
       <c r="CD181" s="1"/>
       <c r="CE181" s="1"/>
-      <c r="CF181" s="1"/>
-      <c r="CG181" s="1"/>
-      <c r="CH181" s="1"/>
-    </row>
-    <row r="182" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -18835,11 +18305,8 @@
       <c r="CC182" s="1"/>
       <c r="CD182" s="1"/>
       <c r="CE182" s="1"/>
-      <c r="CF182" s="1"/>
-      <c r="CG182" s="1"/>
-      <c r="CH182" s="1"/>
-    </row>
-    <row r="183" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -18927,11 +18394,8 @@
       <c r="CC183" s="1"/>
       <c r="CD183" s="1"/>
       <c r="CE183" s="1"/>
-      <c r="CF183" s="1"/>
-      <c r="CG183" s="1"/>
-      <c r="CH183" s="1"/>
-    </row>
-    <row r="184" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -19019,11 +18483,8 @@
       <c r="CC184" s="1"/>
       <c r="CD184" s="1"/>
       <c r="CE184" s="1"/>
-      <c r="CF184" s="1"/>
-      <c r="CG184" s="1"/>
-      <c r="CH184" s="1"/>
-    </row>
-    <row r="185" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -19111,11 +18572,8 @@
       <c r="CC185" s="1"/>
       <c r="CD185" s="1"/>
       <c r="CE185" s="1"/>
-      <c r="CF185" s="1"/>
-      <c r="CG185" s="1"/>
-      <c r="CH185" s="1"/>
-    </row>
-    <row r="186" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -19203,11 +18661,8 @@
       <c r="CC186" s="1"/>
       <c r="CD186" s="1"/>
       <c r="CE186" s="1"/>
-      <c r="CF186" s="1"/>
-      <c r="CG186" s="1"/>
-      <c r="CH186" s="1"/>
-    </row>
-    <row r="187" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -19295,11 +18750,8 @@
       <c r="CC187" s="1"/>
       <c r="CD187" s="1"/>
       <c r="CE187" s="1"/>
-      <c r="CF187" s="1"/>
-      <c r="CG187" s="1"/>
-      <c r="CH187" s="1"/>
-    </row>
-    <row r="188" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -19387,11 +18839,8 @@
       <c r="CC188" s="1"/>
       <c r="CD188" s="1"/>
       <c r="CE188" s="1"/>
-      <c r="CF188" s="1"/>
-      <c r="CG188" s="1"/>
-      <c r="CH188" s="1"/>
-    </row>
-    <row r="189" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -19479,11 +18928,8 @@
       <c r="CC189" s="1"/>
       <c r="CD189" s="1"/>
       <c r="CE189" s="1"/>
-      <c r="CF189" s="1"/>
-      <c r="CG189" s="1"/>
-      <c r="CH189" s="1"/>
-    </row>
-    <row r="190" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -19571,11 +19017,8 @@
       <c r="CC190" s="1"/>
       <c r="CD190" s="1"/>
       <c r="CE190" s="1"/>
-      <c r="CF190" s="1"/>
-      <c r="CG190" s="1"/>
-      <c r="CH190" s="1"/>
-    </row>
-    <row r="191" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -19663,11 +19106,8 @@
       <c r="CC191" s="1"/>
       <c r="CD191" s="1"/>
       <c r="CE191" s="1"/>
-      <c r="CF191" s="1"/>
-      <c r="CG191" s="1"/>
-      <c r="CH191" s="1"/>
-    </row>
-    <row r="192" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -19755,11 +19195,8 @@
       <c r="CC192" s="1"/>
       <c r="CD192" s="1"/>
       <c r="CE192" s="1"/>
-      <c r="CF192" s="1"/>
-      <c r="CG192" s="1"/>
-      <c r="CH192" s="1"/>
-    </row>
-    <row r="193" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -19837,21 +19274,18 @@
       <c r="BS193" s="1"/>
       <c r="BT193" s="1"/>
       <c r="BU193" s="1"/>
-      <c r="BV193" s="1"/>
+      <c r="BV193" s="2"/>
       <c r="BW193" s="1"/>
       <c r="BX193" s="1"/>
-      <c r="BY193" s="2"/>
+      <c r="BY193" s="1"/>
       <c r="BZ193" s="1"/>
       <c r="CA193" s="1"/>
       <c r="CB193" s="1"/>
       <c r="CC193" s="1"/>
       <c r="CD193" s="1"/>
       <c r="CE193" s="1"/>
-      <c r="CF193" s="1"/>
-      <c r="CG193" s="1"/>
-      <c r="CH193" s="1"/>
-    </row>
-    <row r="194" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -19939,11 +19373,8 @@
       <c r="CC194" s="1"/>
       <c r="CD194" s="1"/>
       <c r="CE194" s="1"/>
-      <c r="CF194" s="1"/>
-      <c r="CG194" s="1"/>
-      <c r="CH194" s="1"/>
-    </row>
-    <row r="195" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -20031,11 +19462,8 @@
       <c r="CC195" s="1"/>
       <c r="CD195" s="1"/>
       <c r="CE195" s="1"/>
-      <c r="CF195" s="1"/>
-      <c r="CG195" s="1"/>
-      <c r="CH195" s="1"/>
-    </row>
-    <row r="196" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -20053,10 +19481,10 @@
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
       <c r="M196" s="1"/>
-      <c r="N196" s="1"/>
+      <c r="N196" s="2"/>
       <c r="O196" s="1"/>
       <c r="P196" s="1"/>
-      <c r="Q196" s="2"/>
+      <c r="Q196" s="1"/>
       <c r="R196" s="1"/>
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
@@ -20123,11 +19551,8 @@
       <c r="CC196" s="1"/>
       <c r="CD196" s="1"/>
       <c r="CE196" s="1"/>
-      <c r="CF196" s="1"/>
-      <c r="CG196" s="1"/>
-      <c r="CH196" s="1"/>
-    </row>
-    <row r="197" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -20197,10 +19622,10 @@
       <c r="BK197" s="1"/>
       <c r="BL197" s="1"/>
       <c r="BM197" s="1"/>
-      <c r="BN197" s="1"/>
+      <c r="BN197" s="2"/>
       <c r="BO197" s="1"/>
       <c r="BP197" s="1"/>
-      <c r="BQ197" s="2"/>
+      <c r="BQ197" s="1"/>
       <c r="BR197" s="1"/>
       <c r="BS197" s="1"/>
       <c r="BT197" s="1"/>
@@ -20215,11 +19640,8 @@
       <c r="CC197" s="1"/>
       <c r="CD197" s="1"/>
       <c r="CE197" s="1"/>
-      <c r="CF197" s="1"/>
-      <c r="CG197" s="1"/>
-      <c r="CH197" s="1"/>
-    </row>
-    <row r="198" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -20307,11 +19729,8 @@
       <c r="CC198" s="1"/>
       <c r="CD198" s="1"/>
       <c r="CE198" s="1"/>
-      <c r="CF198" s="1"/>
-      <c r="CG198" s="1"/>
-      <c r="CH198" s="1"/>
-    </row>
-    <row r="199" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -20399,11 +19818,8 @@
       <c r="CC199" s="1"/>
       <c r="CD199" s="1"/>
       <c r="CE199" s="1"/>
-      <c r="CF199" s="1"/>
-      <c r="CG199" s="1"/>
-      <c r="CH199" s="1"/>
-    </row>
-    <row r="200" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -20491,11 +19907,8 @@
       <c r="CC200" s="1"/>
       <c r="CD200" s="1"/>
       <c r="CE200" s="1"/>
-      <c r="CF200" s="1"/>
-      <c r="CG200" s="1"/>
-      <c r="CH200" s="1"/>
-    </row>
-    <row r="201" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -20583,11 +19996,8 @@
       <c r="CC201" s="1"/>
       <c r="CD201" s="1"/>
       <c r="CE201" s="1"/>
-      <c r="CF201" s="1"/>
-      <c r="CG201" s="1"/>
-      <c r="CH201" s="1"/>
-    </row>
-    <row r="202" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -20675,11 +20085,8 @@
       <c r="CC202" s="1"/>
       <c r="CD202" s="1"/>
       <c r="CE202" s="1"/>
-      <c r="CF202" s="1"/>
-      <c r="CG202" s="1"/>
-      <c r="CH202" s="1"/>
-    </row>
-    <row r="203" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -20767,11 +20174,8 @@
       <c r="CC203" s="1"/>
       <c r="CD203" s="1"/>
       <c r="CE203" s="1"/>
-      <c r="CF203" s="1"/>
-      <c r="CG203" s="1"/>
-      <c r="CH203" s="1"/>
-    </row>
-    <row r="204" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -20859,11 +20263,8 @@
       <c r="CC204" s="1"/>
       <c r="CD204" s="1"/>
       <c r="CE204" s="1"/>
-      <c r="CF204" s="1"/>
-      <c r="CG204" s="1"/>
-      <c r="CH204" s="1"/>
-    </row>
-    <row r="205" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -20951,11 +20352,8 @@
       <c r="CC205" s="1"/>
       <c r="CD205" s="1"/>
       <c r="CE205" s="1"/>
-      <c r="CF205" s="1"/>
-      <c r="CG205" s="1"/>
-      <c r="CH205" s="1"/>
-    </row>
-    <row r="206" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -20991,10 +20389,10 @@
       <c r="AC206" s="1"/>
       <c r="AD206" s="1"/>
       <c r="AE206" s="1"/>
-      <c r="AF206" s="1"/>
+      <c r="AF206" s="2"/>
       <c r="AG206" s="1"/>
       <c r="AH206" s="1"/>
-      <c r="AI206" s="2"/>
+      <c r="AI206" s="1"/>
       <c r="AJ206" s="1"/>
       <c r="AK206" s="1"/>
       <c r="AL206" s="1"/>
@@ -21043,11 +20441,8 @@
       <c r="CC206" s="1"/>
       <c r="CD206" s="1"/>
       <c r="CE206" s="1"/>
-      <c r="CF206" s="1"/>
-      <c r="CG206" s="1"/>
-      <c r="CH206" s="1"/>
-    </row>
-    <row r="207" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -21135,11 +20530,8 @@
       <c r="CC207" s="1"/>
       <c r="CD207" s="1"/>
       <c r="CE207" s="1"/>
-      <c r="CF207" s="1"/>
-      <c r="CG207" s="1"/>
-      <c r="CH207" s="1"/>
-    </row>
-    <row r="208" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -21227,11 +20619,8 @@
       <c r="CC208" s="1"/>
       <c r="CD208" s="1"/>
       <c r="CE208" s="1"/>
-      <c r="CF208" s="1"/>
-      <c r="CG208" s="1"/>
-      <c r="CH208" s="1"/>
-    </row>
-    <row r="209" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -21319,11 +20708,8 @@
       <c r="CC209" s="1"/>
       <c r="CD209" s="1"/>
       <c r="CE209" s="1"/>
-      <c r="CF209" s="1"/>
-      <c r="CG209" s="1"/>
-      <c r="CH209" s="1"/>
-    </row>
-    <row r="210" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -21411,11 +20797,8 @@
       <c r="CC210" s="1"/>
       <c r="CD210" s="1"/>
       <c r="CE210" s="1"/>
-      <c r="CF210" s="1"/>
-      <c r="CG210" s="1"/>
-      <c r="CH210" s="1"/>
-    </row>
-    <row r="211" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -21503,11 +20886,8 @@
       <c r="CC211" s="1"/>
       <c r="CD211" s="1"/>
       <c r="CE211" s="1"/>
-      <c r="CF211" s="1"/>
-      <c r="CG211" s="1"/>
-      <c r="CH211" s="1"/>
-    </row>
-    <row r="212" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -21595,11 +20975,8 @@
       <c r="CC212" s="1"/>
       <c r="CD212" s="1"/>
       <c r="CE212" s="1"/>
-      <c r="CF212" s="1"/>
-      <c r="CG212" s="1"/>
-      <c r="CH212" s="1"/>
-    </row>
-    <row r="213" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -21687,11 +21064,8 @@
       <c r="CC213" s="1"/>
       <c r="CD213" s="1"/>
       <c r="CE213" s="1"/>
-      <c r="CF213" s="1"/>
-      <c r="CG213" s="1"/>
-      <c r="CH213" s="1"/>
-    </row>
-    <row r="214" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -21759,10 +21133,10 @@
       <c r="BI214" s="1"/>
       <c r="BJ214" s="1"/>
       <c r="BK214" s="1"/>
-      <c r="BL214" s="1"/>
+      <c r="BL214" s="2"/>
       <c r="BM214" s="1"/>
       <c r="BN214" s="1"/>
-      <c r="BO214" s="2"/>
+      <c r="BO214" s="1"/>
       <c r="BP214" s="1"/>
       <c r="BQ214" s="1"/>
       <c r="BR214" s="1"/>
@@ -21779,20 +21153,19 @@
       <c r="CC214" s="1"/>
       <c r="CD214" s="1"/>
       <c r="CE214" s="1"/>
-      <c r="CF214" s="1"/>
-      <c r="CG214" s="1"/>
-      <c r="CH214" s="1"/>
-    </row>
-    <row r="215" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>255</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
+      <c r="E215" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
@@ -21871,20 +21244,19 @@
       <c r="CC215" s="1"/>
       <c r="CD215" s="1"/>
       <c r="CE215" s="1"/>
-      <c r="CF215" s="1"/>
-      <c r="CG215" s="1"/>
-      <c r="CH215" s="1"/>
-    </row>
-    <row r="216" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>256</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
-      <c r="E216" s="1"/>
+      <c r="E216" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
@@ -21963,20 +21335,19 @@
       <c r="CC216" s="1"/>
       <c r="CD216" s="1"/>
       <c r="CE216" s="1"/>
-      <c r="CF216" s="1"/>
-      <c r="CG216" s="1"/>
-      <c r="CH216" s="1"/>
-    </row>
-    <row r="217" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>257</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
-      <c r="E217" s="1"/>
+      <c r="E217" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
@@ -22055,20 +21426,19 @@
       <c r="CC217" s="1"/>
       <c r="CD217" s="1"/>
       <c r="CE217" s="1"/>
-      <c r="CF217" s="1"/>
-      <c r="CG217" s="1"/>
-      <c r="CH217" s="1"/>
-    </row>
-    <row r="218" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>258</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
-      <c r="E218" s="1"/>
+      <c r="E218" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
@@ -22147,20 +21517,19 @@
       <c r="CC218" s="1"/>
       <c r="CD218" s="1"/>
       <c r="CE218" s="1"/>
-      <c r="CF218" s="1"/>
-      <c r="CG218" s="1"/>
-      <c r="CH218" s="1"/>
-    </row>
-    <row r="219" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>259</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
-      <c r="E219" s="1"/>
+      <c r="E219" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
@@ -22197,10 +21566,10 @@
       <c r="AM219" s="1"/>
       <c r="AN219" s="1"/>
       <c r="AO219" s="1"/>
-      <c r="AP219" s="1"/>
+      <c r="AP219" s="2"/>
       <c r="AQ219" s="1"/>
       <c r="AR219" s="1"/>
-      <c r="AS219" s="2"/>
+      <c r="AS219" s="1"/>
       <c r="AT219" s="1"/>
       <c r="AU219" s="1"/>
       <c r="AV219" s="1"/>
@@ -22239,20 +21608,19 @@
       <c r="CC219" s="1"/>
       <c r="CD219" s="1"/>
       <c r="CE219" s="1"/>
-      <c r="CF219" s="1"/>
-      <c r="CG219" s="1"/>
-      <c r="CH219" s="1"/>
-    </row>
-    <row r="220" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>260</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
-      <c r="E220" s="1"/>
+      <c r="E220" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
@@ -22271,10 +21639,10 @@
       <c r="U220" s="1"/>
       <c r="V220" s="1"/>
       <c r="W220" s="1"/>
-      <c r="X220" s="1"/>
+      <c r="X220" s="2"/>
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
-      <c r="AA220" s="2"/>
+      <c r="AA220" s="1"/>
       <c r="AB220" s="1"/>
       <c r="AC220" s="1"/>
       <c r="AD220" s="1"/>
@@ -22331,20 +21699,19 @@
       <c r="CC220" s="1"/>
       <c r="CD220" s="1"/>
       <c r="CE220" s="1"/>
-      <c r="CF220" s="1"/>
-      <c r="CG220" s="1"/>
-      <c r="CH220" s="1"/>
-    </row>
-    <row r="221" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>261</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
-      <c r="E221" s="1"/>
+      <c r="E221" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
@@ -22401,10 +21768,10 @@
       <c r="BG221" s="1"/>
       <c r="BH221" s="1"/>
       <c r="BI221" s="1"/>
-      <c r="BJ221" s="1"/>
+      <c r="BJ221" s="2"/>
       <c r="BK221" s="1"/>
       <c r="BL221" s="1"/>
-      <c r="BM221" s="2"/>
+      <c r="BM221" s="1"/>
       <c r="BN221" s="1"/>
       <c r="BO221" s="1"/>
       <c r="BP221" s="1"/>
@@ -22423,20 +21790,19 @@
       <c r="CC221" s="1"/>
       <c r="CD221" s="1"/>
       <c r="CE221" s="1"/>
-      <c r="CF221" s="1"/>
-      <c r="CG221" s="1"/>
-      <c r="CH221" s="1"/>
-    </row>
-    <row r="222" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>262</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
-      <c r="E222" s="1"/>
+      <c r="E222" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
@@ -22515,20 +21881,19 @@
       <c r="CC222" s="1"/>
       <c r="CD222" s="1"/>
       <c r="CE222" s="1"/>
-      <c r="CF222" s="1"/>
-      <c r="CG222" s="1"/>
-      <c r="CH222" s="1"/>
-    </row>
-    <row r="223" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>263</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
-      <c r="E223" s="1"/>
+      <c r="E223" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
@@ -22607,20 +21972,19 @@
       <c r="CC223" s="1"/>
       <c r="CD223" s="1"/>
       <c r="CE223" s="1"/>
-      <c r="CF223" s="1"/>
-      <c r="CG223" s="1"/>
-      <c r="CH223" s="1"/>
-    </row>
-    <row r="224" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>264</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
-      <c r="E224" s="1"/>
+      <c r="E224" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
@@ -22699,20 +22063,19 @@
       <c r="CC224" s="1"/>
       <c r="CD224" s="1"/>
       <c r="CE224" s="1"/>
-      <c r="CF224" s="1"/>
-      <c r="CG224" s="1"/>
-      <c r="CH224" s="1"/>
-    </row>
-    <row r="225" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>265</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
-      <c r="E225" s="1"/>
+      <c r="E225" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
@@ -22791,22 +22154,21 @@
       <c r="CC225" s="1"/>
       <c r="CD225" s="1"/>
       <c r="CE225" s="1"/>
-      <c r="CF225" s="1"/>
-      <c r="CG225" s="1"/>
-      <c r="CH225" s="1"/>
-    </row>
-    <row r="226" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>266</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="C226" s="1"/>
-      <c r="D226" s="1"/>
-      <c r="E226" s="1"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="F226" s="1"/>
-      <c r="G226" s="2"/>
+      <c r="G226" s="1"/>
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
@@ -22826,10 +22188,10 @@
       <c r="X226" s="1"/>
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
-      <c r="AA226" s="1"/>
+      <c r="AA226" s="2"/>
       <c r="AB226" s="1"/>
       <c r="AC226" s="1"/>
-      <c r="AD226" s="2"/>
+      <c r="AD226" s="1"/>
       <c r="AE226" s="1"/>
       <c r="AF226" s="1"/>
       <c r="AG226" s="1"/>
@@ -22883,20 +22245,19 @@
       <c r="CC226" s="1"/>
       <c r="CD226" s="1"/>
       <c r="CE226" s="1"/>
-      <c r="CF226" s="1"/>
-      <c r="CG226" s="1"/>
-      <c r="CH226" s="1"/>
-    </row>
-    <row r="227" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>267</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
-      <c r="E227" s="1"/>
+      <c r="E227" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
@@ -22975,20 +22336,19 @@
       <c r="CC227" s="1"/>
       <c r="CD227" s="1"/>
       <c r="CE227" s="1"/>
-      <c r="CF227" s="1"/>
-      <c r="CG227" s="1"/>
-      <c r="CH227" s="1"/>
-    </row>
-    <row r="228" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>268</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
-      <c r="E228" s="1"/>
+      <c r="E228" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
@@ -23067,20 +22427,19 @@
       <c r="CC228" s="1"/>
       <c r="CD228" s="1"/>
       <c r="CE228" s="1"/>
-      <c r="CF228" s="1"/>
-      <c r="CG228" s="1"/>
-      <c r="CH228" s="1"/>
-    </row>
-    <row r="229" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>269</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
-      <c r="E229" s="1"/>
+      <c r="E229" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
@@ -23159,20 +22518,19 @@
       <c r="CC229" s="1"/>
       <c r="CD229" s="1"/>
       <c r="CE229" s="1"/>
-      <c r="CF229" s="1"/>
-      <c r="CG229" s="1"/>
-      <c r="CH229" s="1"/>
-    </row>
-    <row r="230" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>270</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
-      <c r="E230" s="1"/>
+      <c r="E230" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
@@ -23251,20 +22609,19 @@
       <c r="CC230" s="1"/>
       <c r="CD230" s="1"/>
       <c r="CE230" s="1"/>
-      <c r="CF230" s="1"/>
-      <c r="CG230" s="1"/>
-      <c r="CH230" s="1"/>
-    </row>
-    <row r="231" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>271</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
-      <c r="E231" s="1"/>
+      <c r="E231" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
@@ -23343,20 +22700,19 @@
       <c r="CC231" s="1"/>
       <c r="CD231" s="1"/>
       <c r="CE231" s="1"/>
-      <c r="CF231" s="1"/>
-      <c r="CG231" s="1"/>
-      <c r="CH231" s="1"/>
-    </row>
-    <row r="232" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>272</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
-      <c r="E232" s="1"/>
+      <c r="E232" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
@@ -23435,20 +22791,19 @@
       <c r="CC232" s="1"/>
       <c r="CD232" s="1"/>
       <c r="CE232" s="1"/>
-      <c r="CF232" s="1"/>
-      <c r="CG232" s="1"/>
-      <c r="CH232" s="1"/>
-    </row>
-    <row r="233" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>273</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
-      <c r="E233" s="1"/>
+      <c r="E233" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
@@ -23527,20 +22882,19 @@
       <c r="CC233" s="1"/>
       <c r="CD233" s="1"/>
       <c r="CE233" s="1"/>
-      <c r="CF233" s="1"/>
-      <c r="CG233" s="1"/>
-      <c r="CH233" s="1"/>
-    </row>
-    <row r="234" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>274</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
-      <c r="E234" s="1"/>
+      <c r="E234" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
@@ -23619,20 +22973,19 @@
       <c r="CC234" s="1"/>
       <c r="CD234" s="1"/>
       <c r="CE234" s="1"/>
-      <c r="CF234" s="1"/>
-      <c r="CG234" s="1"/>
-      <c r="CH234" s="1"/>
-    </row>
-    <row r="235" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>275</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
-      <c r="E235" s="1"/>
+      <c r="E235" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
@@ -23711,20 +23064,19 @@
       <c r="CC235" s="1"/>
       <c r="CD235" s="1"/>
       <c r="CE235" s="1"/>
-      <c r="CF235" s="1"/>
-      <c r="CG235" s="1"/>
-      <c r="CH235" s="1"/>
-    </row>
-    <row r="236" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>276</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
-      <c r="E236" s="1"/>
+      <c r="E236" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
@@ -23803,20 +23155,19 @@
       <c r="CC236" s="1"/>
       <c r="CD236" s="1"/>
       <c r="CE236" s="1"/>
-      <c r="CF236" s="1"/>
-      <c r="CG236" s="1"/>
-      <c r="CH236" s="1"/>
-    </row>
-    <row r="237" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>277</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
-      <c r="E237" s="1"/>
+      <c r="E237" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
@@ -23895,20 +23246,19 @@
       <c r="CC237" s="1"/>
       <c r="CD237" s="1"/>
       <c r="CE237" s="1"/>
-      <c r="CF237" s="1"/>
-      <c r="CG237" s="1"/>
-      <c r="CH237" s="1"/>
-    </row>
-    <row r="238" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>278</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
-      <c r="E238" s="1"/>
+      <c r="E238" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
@@ -23987,20 +23337,19 @@
       <c r="CC238" s="1"/>
       <c r="CD238" s="1"/>
       <c r="CE238" s="1"/>
-      <c r="CF238" s="1"/>
-      <c r="CG238" s="1"/>
-      <c r="CH238" s="1"/>
-    </row>
-    <row r="239" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>279</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
-      <c r="E239" s="1"/>
+      <c r="E239" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
@@ -24022,10 +23371,10 @@
       <c r="X239" s="1"/>
       <c r="Y239" s="1"/>
       <c r="Z239" s="1"/>
-      <c r="AA239" s="1"/>
+      <c r="AA239" s="2"/>
       <c r="AB239" s="1"/>
       <c r="AC239" s="1"/>
-      <c r="AD239" s="2"/>
+      <c r="AD239" s="1"/>
       <c r="AE239" s="1"/>
       <c r="AF239" s="1"/>
       <c r="AG239" s="1"/>
@@ -24079,20 +23428,19 @@
       <c r="CC239" s="1"/>
       <c r="CD239" s="1"/>
       <c r="CE239" s="1"/>
-      <c r="CF239" s="1"/>
-      <c r="CG239" s="1"/>
-      <c r="CH239" s="1"/>
-    </row>
-    <row r="240" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>280</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
-      <c r="E240" s="1"/>
+      <c r="E240" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
@@ -24171,20 +23519,19 @@
       <c r="CC240" s="1"/>
       <c r="CD240" s="1"/>
       <c r="CE240" s="1"/>
-      <c r="CF240" s="1"/>
-      <c r="CG240" s="1"/>
-      <c r="CH240" s="1"/>
-    </row>
-    <row r="241" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>281</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
-      <c r="E241" s="1"/>
+      <c r="E241" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
@@ -24263,20 +23610,19 @@
       <c r="CC241" s="1"/>
       <c r="CD241" s="1"/>
       <c r="CE241" s="1"/>
-      <c r="CF241" s="1"/>
-      <c r="CG241" s="1"/>
-      <c r="CH241" s="1"/>
-    </row>
-    <row r="242" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>282</v>
       </c>
-      <c r="B242" s="6" t="s">
-        <v>368</v>
+      <c r="B242" s="8" t="s">
+        <v>382</v>
       </c>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
-      <c r="E242" s="1"/>
+      <c r="E242" s="8" t="s">
+        <v>382</v>
+      </c>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
@@ -24355,20 +23701,19 @@
       <c r="CC242" s="1"/>
       <c r="CD242" s="1"/>
       <c r="CE242" s="1"/>
-      <c r="CF242" s="1"/>
-      <c r="CG242" s="1"/>
-      <c r="CH242" s="1"/>
-    </row>
-    <row r="243" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>283</v>
       </c>
-      <c r="B243" s="6" t="s">
-        <v>368</v>
+      <c r="B243" s="8" t="s">
+        <v>382</v>
       </c>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
-      <c r="E243" s="1"/>
+      <c r="E243" s="8" t="s">
+        <v>382</v>
+      </c>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
@@ -24447,20 +23792,19 @@
       <c r="CC243" s="1"/>
       <c r="CD243" s="1"/>
       <c r="CE243" s="1"/>
-      <c r="CF243" s="1"/>
-      <c r="CG243" s="1"/>
-      <c r="CH243" s="1"/>
-    </row>
-    <row r="244" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>284</v>
       </c>
-      <c r="B244" s="6" t="s">
-        <v>368</v>
+      <c r="B244" s="8" t="s">
+        <v>382</v>
       </c>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
-      <c r="E244" s="1"/>
+      <c r="E244" s="8" t="s">
+        <v>382</v>
+      </c>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
@@ -24539,20 +23883,19 @@
       <c r="CC244" s="1"/>
       <c r="CD244" s="1"/>
       <c r="CE244" s="1"/>
-      <c r="CF244" s="1"/>
-      <c r="CG244" s="1"/>
-      <c r="CH244" s="1"/>
-    </row>
-    <row r="245" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>285</v>
       </c>
-      <c r="B245" s="6" t="s">
-        <v>368</v>
+      <c r="B245" s="8" t="s">
+        <v>382</v>
       </c>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
-      <c r="E245" s="1"/>
+      <c r="E245" s="8" t="s">
+        <v>382</v>
+      </c>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
@@ -24631,20 +23974,19 @@
       <c r="CC245" s="1"/>
       <c r="CD245" s="1"/>
       <c r="CE245" s="1"/>
-      <c r="CF245" s="1"/>
-      <c r="CG245" s="1"/>
-      <c r="CH245" s="1"/>
-    </row>
-    <row r="246" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>286</v>
       </c>
-      <c r="B246" s="6" t="s">
-        <v>368</v>
+      <c r="B246" s="8" t="s">
+        <v>382</v>
       </c>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
-      <c r="E246" s="1"/>
+      <c r="E246" s="8" t="s">
+        <v>382</v>
+      </c>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
@@ -24723,20 +24065,19 @@
       <c r="CC246" s="1"/>
       <c r="CD246" s="1"/>
       <c r="CE246" s="1"/>
-      <c r="CF246" s="1"/>
-      <c r="CG246" s="1"/>
-      <c r="CH246" s="1"/>
-    </row>
-    <row r="247" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>287</v>
       </c>
-      <c r="B247" s="6" t="s">
-        <v>368</v>
+      <c r="B247" s="8" t="s">
+        <v>382</v>
       </c>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
-      <c r="E247" s="1"/>
+      <c r="E247" s="8" t="s">
+        <v>382</v>
+      </c>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
@@ -24815,20 +24156,19 @@
       <c r="CC247" s="1"/>
       <c r="CD247" s="1"/>
       <c r="CE247" s="1"/>
-      <c r="CF247" s="1"/>
-      <c r="CG247" s="1"/>
-      <c r="CH247" s="1"/>
-    </row>
-    <row r="248" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>288</v>
       </c>
-      <c r="B248" s="6" t="s">
-        <v>370</v>
+      <c r="B248" s="8" t="s">
+        <v>382</v>
       </c>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
-      <c r="E248" s="1"/>
+      <c r="E248" s="8" t="s">
+        <v>382</v>
+      </c>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
@@ -24907,20 +24247,19 @@
       <c r="CC248" s="1"/>
       <c r="CD248" s="1"/>
       <c r="CE248" s="1"/>
-      <c r="CF248" s="1"/>
-      <c r="CG248" s="1"/>
-      <c r="CH248" s="1"/>
-    </row>
-    <row r="249" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>289</v>
       </c>
-      <c r="B249" s="6" t="s">
-        <v>370</v>
+      <c r="B249" s="8" t="s">
+        <v>382</v>
       </c>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
-      <c r="E249" s="1"/>
+      <c r="E249" s="8" t="s">
+        <v>382</v>
+      </c>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
@@ -24999,20 +24338,19 @@
       <c r="CC249" s="1"/>
       <c r="CD249" s="1"/>
       <c r="CE249" s="1"/>
-      <c r="CF249" s="1"/>
-      <c r="CG249" s="1"/>
-      <c r="CH249" s="1"/>
-    </row>
-    <row r="250" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>290</v>
       </c>
-      <c r="B250" s="6" t="s">
-        <v>370</v>
+      <c r="B250" s="8" t="s">
+        <v>382</v>
       </c>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
-      <c r="E250" s="1"/>
+      <c r="E250" s="8" t="s">
+        <v>382</v>
+      </c>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
@@ -25091,20 +24429,19 @@
       <c r="CC250" s="1"/>
       <c r="CD250" s="1"/>
       <c r="CE250" s="1"/>
-      <c r="CF250" s="1"/>
-      <c r="CG250" s="1"/>
-      <c r="CH250" s="1"/>
-    </row>
-    <row r="251" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>291</v>
       </c>
-      <c r="B251" s="6" t="s">
-        <v>370</v>
+      <c r="B251" s="8" t="s">
+        <v>382</v>
       </c>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
-      <c r="E251" s="1"/>
+      <c r="E251" s="8" t="s">
+        <v>382</v>
+      </c>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
@@ -25183,20 +24520,19 @@
       <c r="CC251" s="1"/>
       <c r="CD251" s="1"/>
       <c r="CE251" s="1"/>
-      <c r="CF251" s="1"/>
-      <c r="CG251" s="1"/>
-      <c r="CH251" s="1"/>
-    </row>
-    <row r="252" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>292</v>
       </c>
-      <c r="B252" s="6" t="s">
-        <v>370</v>
+      <c r="B252" s="8" t="s">
+        <v>382</v>
       </c>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
-      <c r="E252" s="1"/>
+      <c r="E252" s="8" t="s">
+        <v>382</v>
+      </c>
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
@@ -25275,20 +24611,19 @@
       <c r="CC252" s="1"/>
       <c r="CD252" s="1"/>
       <c r="CE252" s="1"/>
-      <c r="CF252" s="1"/>
-      <c r="CG252" s="1"/>
-      <c r="CH252" s="1"/>
-    </row>
-    <row r="253" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>293</v>
       </c>
-      <c r="B253" s="6" t="s">
-        <v>372</v>
+      <c r="B253" s="8" t="s">
+        <v>382</v>
       </c>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
-      <c r="E253" s="1"/>
+      <c r="E253" s="8" t="s">
+        <v>382</v>
+      </c>
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
@@ -25367,20 +24702,19 @@
       <c r="CC253" s="1"/>
       <c r="CD253" s="1"/>
       <c r="CE253" s="1"/>
-      <c r="CF253" s="1"/>
-      <c r="CG253" s="1"/>
-      <c r="CH253" s="1"/>
-    </row>
-    <row r="254" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>294</v>
       </c>
-      <c r="B254" s="6" t="s">
-        <v>372</v>
+      <c r="B254" s="8" t="s">
+        <v>382</v>
       </c>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
-      <c r="E254" s="1"/>
+      <c r="E254" s="8" t="s">
+        <v>382</v>
+      </c>
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
@@ -25402,10 +24736,10 @@
       <c r="X254" s="1"/>
       <c r="Y254" s="1"/>
       <c r="Z254" s="1"/>
-      <c r="AA254" s="1"/>
+      <c r="AA254" s="2"/>
       <c r="AB254" s="1"/>
       <c r="AC254" s="1"/>
-      <c r="AD254" s="2"/>
+      <c r="AD254" s="1"/>
       <c r="AE254" s="1"/>
       <c r="AF254" s="1"/>
       <c r="AG254" s="1"/>
@@ -25459,20 +24793,19 @@
       <c r="CC254" s="1"/>
       <c r="CD254" s="1"/>
       <c r="CE254" s="1"/>
-      <c r="CF254" s="1"/>
-      <c r="CG254" s="1"/>
-      <c r="CH254" s="1"/>
-    </row>
-    <row r="255" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>295</v>
       </c>
-      <c r="B255" s="6" t="s">
-        <v>372</v>
+      <c r="B255" s="8" t="s">
+        <v>382</v>
       </c>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
-      <c r="E255" s="1"/>
+      <c r="E255" s="8" t="s">
+        <v>382</v>
+      </c>
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
@@ -25551,20 +24884,19 @@
       <c r="CC255" s="1"/>
       <c r="CD255" s="1"/>
       <c r="CE255" s="1"/>
-      <c r="CF255" s="1"/>
-      <c r="CG255" s="1"/>
-      <c r="CH255" s="1"/>
-    </row>
-    <row r="256" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>296</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
-      <c r="E256" s="1"/>
+      <c r="E256" s="6" t="s">
+        <v>364</v>
+      </c>
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
@@ -25643,20 +24975,19 @@
       <c r="CC256" s="1"/>
       <c r="CD256" s="1"/>
       <c r="CE256" s="1"/>
-      <c r="CF256" s="1"/>
-      <c r="CG256" s="1"/>
-      <c r="CH256" s="1"/>
-    </row>
-    <row r="257" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>297</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
-      <c r="E257" s="1"/>
+      <c r="E257" s="6" t="s">
+        <v>364</v>
+      </c>
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
@@ -25712,10 +25043,10 @@
       <c r="BF257" s="1"/>
       <c r="BG257" s="1"/>
       <c r="BH257" s="1"/>
-      <c r="BI257" s="1"/>
+      <c r="BI257" s="2"/>
       <c r="BJ257" s="1"/>
       <c r="BK257" s="1"/>
-      <c r="BL257" s="2"/>
+      <c r="BL257" s="1"/>
       <c r="BM257" s="1"/>
       <c r="BN257" s="1"/>
       <c r="BO257" s="1"/>
@@ -25735,20 +25066,19 @@
       <c r="CC257" s="1"/>
       <c r="CD257" s="1"/>
       <c r="CE257" s="1"/>
-      <c r="CF257" s="1"/>
-      <c r="CG257" s="1"/>
-      <c r="CH257" s="1"/>
-    </row>
-    <row r="258" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>298</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
-      <c r="E258" s="1"/>
+      <c r="E258" s="6" t="s">
+        <v>364</v>
+      </c>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
@@ -25827,20 +25157,19 @@
       <c r="CC258" s="1"/>
       <c r="CD258" s="1"/>
       <c r="CE258" s="1"/>
-      <c r="CF258" s="1"/>
-      <c r="CG258" s="1"/>
-      <c r="CH258" s="1"/>
-    </row>
-    <row r="259" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>299</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
-      <c r="E259" s="1"/>
+      <c r="E259" s="6" t="s">
+        <v>364</v>
+      </c>
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
@@ -25919,20 +25248,19 @@
       <c r="CC259" s="1"/>
       <c r="CD259" s="1"/>
       <c r="CE259" s="1"/>
-      <c r="CF259" s="1"/>
-      <c r="CG259" s="1"/>
-      <c r="CH259" s="1"/>
-    </row>
-    <row r="260" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>300</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
-      <c r="E260" s="2"/>
+      <c r="E260" s="6" t="s">
+        <v>364</v>
+      </c>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
@@ -26011,20 +25339,19 @@
       <c r="CC260" s="1"/>
       <c r="CD260" s="1"/>
       <c r="CE260" s="1"/>
-      <c r="CF260" s="1"/>
-      <c r="CG260" s="1"/>
-      <c r="CH260" s="1"/>
-    </row>
-    <row r="261" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>301</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
-      <c r="E261" s="1"/>
+      <c r="E261" s="6" t="s">
+        <v>364</v>
+      </c>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
@@ -26103,20 +25430,19 @@
       <c r="CC261" s="1"/>
       <c r="CD261" s="1"/>
       <c r="CE261" s="1"/>
-      <c r="CF261" s="1"/>
-      <c r="CG261" s="1"/>
-      <c r="CH261" s="1"/>
-    </row>
-    <row r="262" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>302</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
-      <c r="E262" s="1"/>
+      <c r="E262" s="6" t="s">
+        <v>364</v>
+      </c>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
@@ -26132,9 +25458,9 @@
       <c r="R262" s="1"/>
       <c r="S262" s="1"/>
       <c r="T262" s="1"/>
-      <c r="U262" s="1"/>
       <c r="V262" s="1"/>
       <c r="W262" s="1"/>
+      <c r="X262" s="1"/>
       <c r="Y262" s="1"/>
       <c r="Z262" s="1"/>
       <c r="AA262" s="1"/>
@@ -26194,20 +25520,19 @@
       <c r="CC262" s="1"/>
       <c r="CD262" s="1"/>
       <c r="CE262" s="1"/>
-      <c r="CF262" s="1"/>
-      <c r="CG262" s="1"/>
-      <c r="CH262" s="1"/>
-    </row>
-    <row r="263" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="263" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>303</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
-      <c r="E263" s="1"/>
+      <c r="E263" s="6" t="s">
+        <v>364</v>
+      </c>
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
@@ -26286,20 +25611,19 @@
       <c r="CC263" s="1"/>
       <c r="CD263" s="1"/>
       <c r="CE263" s="1"/>
-      <c r="CF263" s="1"/>
-      <c r="CG263" s="1"/>
-      <c r="CH263" s="1"/>
-    </row>
-    <row r="264" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>304</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
-      <c r="E264" s="1"/>
+      <c r="E264" s="6" t="s">
+        <v>364</v>
+      </c>
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
@@ -26378,20 +25702,19 @@
       <c r="CC264" s="1"/>
       <c r="CD264" s="1"/>
       <c r="CE264" s="1"/>
-      <c r="CF264" s="1"/>
-      <c r="CG264" s="1"/>
-      <c r="CH264" s="1"/>
-    </row>
-    <row r="265" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>305</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
-      <c r="E265" s="1"/>
+      <c r="E265" s="6" t="s">
+        <v>364</v>
+      </c>
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
@@ -26465,25 +25788,24 @@
       <c r="BX265" s="1"/>
       <c r="BY265" s="1"/>
       <c r="BZ265" s="1"/>
-      <c r="CA265" s="1"/>
+      <c r="CA265" s="2"/>
       <c r="CB265" s="1"/>
       <c r="CC265" s="1"/>
-      <c r="CD265" s="2"/>
+      <c r="CD265" s="1"/>
       <c r="CE265" s="1"/>
-      <c r="CF265" s="1"/>
-      <c r="CG265" s="1"/>
-      <c r="CH265" s="1"/>
-    </row>
-    <row r="266" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>306</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
-      <c r="E266" s="1"/>
+      <c r="E266" s="6" t="s">
+        <v>364</v>
+      </c>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
@@ -26521,10 +25843,10 @@
       <c r="AN266" s="1"/>
       <c r="AO266" s="1"/>
       <c r="AP266" s="1"/>
-      <c r="AQ266" s="1"/>
+      <c r="AQ266" s="2"/>
       <c r="AR266" s="1"/>
       <c r="AS266" s="1"/>
-      <c r="AT266" s="2"/>
+      <c r="AT266" s="1"/>
       <c r="AU266" s="1"/>
       <c r="AV266" s="1"/>
       <c r="AW266" s="1"/>
@@ -26562,27 +25884,26 @@
       <c r="CC266" s="1"/>
       <c r="CD266" s="1"/>
       <c r="CE266" s="1"/>
-      <c r="CF266" s="1"/>
-      <c r="CG266" s="1"/>
-      <c r="CH266" s="1"/>
-    </row>
-    <row r="267" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="267" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>307</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
-      <c r="E267" s="1"/>
+      <c r="E267" s="6" t="s">
+        <v>364</v>
+      </c>
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
-      <c r="I267" s="1"/>
+      <c r="I267" s="2"/>
       <c r="J267" s="1"/>
       <c r="K267" s="1"/>
-      <c r="L267" s="2"/>
+      <c r="L267" s="1"/>
       <c r="M267" s="1"/>
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
@@ -26648,26 +25969,25 @@
       <c r="BW267" s="1"/>
       <c r="BX267" s="1"/>
       <c r="BY267" s="1"/>
-      <c r="BZ267" s="1"/>
+      <c r="BZ267" s="2"/>
       <c r="CA267" s="1"/>
       <c r="CB267" s="1"/>
-      <c r="CC267" s="2"/>
+      <c r="CC267" s="1"/>
       <c r="CD267" s="1"/>
       <c r="CE267" s="1"/>
-      <c r="CF267" s="1"/>
-      <c r="CG267" s="1"/>
-      <c r="CH267" s="1"/>
-    </row>
-    <row r="268" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="268" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>308</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
-      <c r="E268" s="1"/>
+      <c r="E268" s="6" t="s">
+        <v>364</v>
+      </c>
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
@@ -26746,20 +26066,19 @@
       <c r="CC268" s="1"/>
       <c r="CD268" s="1"/>
       <c r="CE268" s="1"/>
-      <c r="CF268" s="1"/>
-      <c r="CG268" s="1"/>
-      <c r="CH268" s="1"/>
-    </row>
-    <row r="269" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="269" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>309</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
-      <c r="E269" s="1"/>
+      <c r="E269" s="6" t="s">
+        <v>364</v>
+      </c>
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
@@ -26838,20 +26157,19 @@
       <c r="CC269" s="1"/>
       <c r="CD269" s="1"/>
       <c r="CE269" s="1"/>
-      <c r="CF269" s="1"/>
-      <c r="CG269" s="1"/>
-      <c r="CH269" s="1"/>
-    </row>
-    <row r="270" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="270" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>310</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
-      <c r="E270" s="1"/>
+      <c r="E270" s="6" t="s">
+        <v>364</v>
+      </c>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
@@ -26930,20 +26248,19 @@
       <c r="CC270" s="1"/>
       <c r="CD270" s="1"/>
       <c r="CE270" s="1"/>
-      <c r="CF270" s="1"/>
-      <c r="CG270" s="1"/>
-      <c r="CH270" s="1"/>
-    </row>
-    <row r="271" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="271" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>311</v>
       </c>
-      <c r="B271" s="6" t="s">
-        <v>374</v>
+      <c r="B271" s="17" t="s">
+        <v>366</v>
       </c>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
-      <c r="E271" s="1"/>
+      <c r="E271" s="17" t="s">
+        <v>366</v>
+      </c>
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
@@ -27022,20 +26339,19 @@
       <c r="CC271" s="1"/>
       <c r="CD271" s="1"/>
       <c r="CE271" s="1"/>
-      <c r="CF271" s="1"/>
-      <c r="CG271" s="1"/>
-      <c r="CH271" s="1"/>
-    </row>
-    <row r="272" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="272" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>312</v>
       </c>
-      <c r="B272" s="6" t="s">
-        <v>374</v>
+      <c r="B272" s="17" t="s">
+        <v>366</v>
       </c>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
-      <c r="E272" s="1"/>
+      <c r="E272" s="17" t="s">
+        <v>366</v>
+      </c>
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
@@ -27114,20 +26430,19 @@
       <c r="CC272" s="1"/>
       <c r="CD272" s="1"/>
       <c r="CE272" s="1"/>
-      <c r="CF272" s="1"/>
-      <c r="CG272" s="1"/>
-      <c r="CH272" s="1"/>
-    </row>
-    <row r="273" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="273" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>313</v>
       </c>
-      <c r="B273" s="6" t="s">
-        <v>374</v>
+      <c r="B273" s="17" t="s">
+        <v>366</v>
       </c>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
-      <c r="E273" s="1"/>
+      <c r="E273" s="17" t="s">
+        <v>366</v>
+      </c>
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
@@ -27206,20 +26521,19 @@
       <c r="CC273" s="1"/>
       <c r="CD273" s="1"/>
       <c r="CE273" s="1"/>
-      <c r="CF273" s="1"/>
-      <c r="CG273" s="1"/>
-      <c r="CH273" s="1"/>
-    </row>
-    <row r="274" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>314</v>
       </c>
-      <c r="B274" s="6" t="s">
-        <v>376</v>
+      <c r="B274" s="17" t="s">
+        <v>366</v>
       </c>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
-      <c r="E274" s="1"/>
+      <c r="E274" s="17" t="s">
+        <v>366</v>
+      </c>
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
@@ -27298,20 +26612,19 @@
       <c r="CC274" s="1"/>
       <c r="CD274" s="1"/>
       <c r="CE274" s="1"/>
-      <c r="CF274" s="1"/>
-      <c r="CG274" s="1"/>
-      <c r="CH274" s="1"/>
-    </row>
-    <row r="275" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="275" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>315</v>
       </c>
-      <c r="B275" s="6" t="s">
-        <v>376</v>
+      <c r="B275" s="17" t="s">
+        <v>366</v>
       </c>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
-      <c r="E275" s="1"/>
+      <c r="E275" s="17" t="s">
+        <v>366</v>
+      </c>
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
@@ -27390,20 +26703,19 @@
       <c r="CC275" s="1"/>
       <c r="CD275" s="1"/>
       <c r="CE275" s="1"/>
-      <c r="CF275" s="1"/>
-      <c r="CG275" s="1"/>
-      <c r="CH275" s="1"/>
-    </row>
-    <row r="276" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="276" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>316</v>
       </c>
-      <c r="B276" s="6" t="s">
-        <v>376</v>
+      <c r="B276" s="17" t="s">
+        <v>366</v>
       </c>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
-      <c r="E276" s="1"/>
+      <c r="E276" s="17" t="s">
+        <v>366</v>
+      </c>
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
@@ -27425,10 +26737,10 @@
       <c r="X276" s="1"/>
       <c r="Y276" s="1"/>
       <c r="Z276" s="1"/>
-      <c r="AA276" s="1"/>
+      <c r="AA276" s="2"/>
       <c r="AB276" s="1"/>
       <c r="AC276" s="1"/>
-      <c r="AD276" s="2"/>
+      <c r="AD276" s="1"/>
       <c r="AE276" s="1"/>
       <c r="AF276" s="1"/>
       <c r="AG276" s="1"/>
@@ -27459,10 +26771,10 @@
       <c r="BF276" s="1"/>
       <c r="BG276" s="1"/>
       <c r="BH276" s="1"/>
-      <c r="BI276" s="1"/>
+      <c r="BI276" s="2"/>
       <c r="BJ276" s="1"/>
       <c r="BK276" s="1"/>
-      <c r="BL276" s="2"/>
+      <c r="BL276" s="1"/>
       <c r="BM276" s="1"/>
       <c r="BN276" s="1"/>
       <c r="BO276" s="1"/>
@@ -27482,20 +26794,19 @@
       <c r="CC276" s="1"/>
       <c r="CD276" s="1"/>
       <c r="CE276" s="1"/>
-      <c r="CF276" s="1"/>
-      <c r="CG276" s="1"/>
-      <c r="CH276" s="1"/>
-    </row>
-    <row r="277" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="277" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>317</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
-      <c r="E277" s="1"/>
+      <c r="E277" s="6" t="s">
+        <v>368</v>
+      </c>
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
@@ -27574,20 +26885,19 @@
       <c r="CC277" s="1"/>
       <c r="CD277" s="1"/>
       <c r="CE277" s="1"/>
-      <c r="CF277" s="1"/>
-      <c r="CG277" s="1"/>
-      <c r="CH277" s="1"/>
-    </row>
-    <row r="278" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="278" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>318</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
-      <c r="E278" s="1"/>
+      <c r="E278" s="6" t="s">
+        <v>368</v>
+      </c>
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
@@ -27666,20 +26976,19 @@
       <c r="CC278" s="1"/>
       <c r="CD278" s="1"/>
       <c r="CE278" s="1"/>
-      <c r="CF278" s="1"/>
-      <c r="CG278" s="1"/>
-      <c r="CH278" s="1"/>
-    </row>
-    <row r="279" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="279" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>319</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
-      <c r="E279" s="1"/>
+      <c r="E279" s="6" t="s">
+        <v>368</v>
+      </c>
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
@@ -27758,20 +27067,19 @@
       <c r="CC279" s="1"/>
       <c r="CD279" s="1"/>
       <c r="CE279" s="1"/>
-      <c r="CF279" s="1"/>
-      <c r="CG279" s="1"/>
-      <c r="CH279" s="1"/>
-    </row>
-    <row r="280" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="280" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>320</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
-      <c r="E280" s="1"/>
+      <c r="E280" s="6" t="s">
+        <v>368</v>
+      </c>
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
@@ -27850,20 +27158,19 @@
       <c r="CC280" s="1"/>
       <c r="CD280" s="1"/>
       <c r="CE280" s="1"/>
-      <c r="CF280" s="1"/>
-      <c r="CG280" s="1"/>
-      <c r="CH280" s="1"/>
-    </row>
-    <row r="281" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="281" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>321</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
-      <c r="E281" s="1"/>
+      <c r="E281" s="6" t="s">
+        <v>368</v>
+      </c>
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
@@ -27942,20 +27249,19 @@
       <c r="CC281" s="1"/>
       <c r="CD281" s="1"/>
       <c r="CE281" s="1"/>
-      <c r="CF281" s="1"/>
-      <c r="CG281" s="1"/>
-      <c r="CH281" s="1"/>
-    </row>
-    <row r="282" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="282" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>322</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
-      <c r="E282" s="1"/>
+      <c r="E282" s="6" t="s">
+        <v>368</v>
+      </c>
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
@@ -28034,20 +27340,19 @@
       <c r="CC282" s="1"/>
       <c r="CD282" s="1"/>
       <c r="CE282" s="1"/>
-      <c r="CF282" s="1"/>
-      <c r="CG282" s="1"/>
-      <c r="CH282" s="1"/>
-    </row>
-    <row r="283" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="283" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>323</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
-      <c r="E283" s="1"/>
+      <c r="E283" s="6" t="s">
+        <v>368</v>
+      </c>
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
@@ -28126,20 +27431,19 @@
       <c r="CC283" s="1"/>
       <c r="CD283" s="1"/>
       <c r="CE283" s="1"/>
-      <c r="CF283" s="1"/>
-      <c r="CG283" s="1"/>
-      <c r="CH283" s="1"/>
-    </row>
-    <row r="284" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="284" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>324</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
-      <c r="E284" s="1"/>
+      <c r="E284" s="6" t="s">
+        <v>368</v>
+      </c>
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
@@ -28218,20 +27522,19 @@
       <c r="CC284" s="1"/>
       <c r="CD284" s="1"/>
       <c r="CE284" s="1"/>
-      <c r="CF284" s="1"/>
-      <c r="CG284" s="1"/>
-      <c r="CH284" s="1"/>
-    </row>
-    <row r="285" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="285" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>325</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
-      <c r="E285" s="1"/>
+      <c r="E285" s="6" t="s">
+        <v>368</v>
+      </c>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
@@ -28310,20 +27613,19 @@
       <c r="CC285" s="1"/>
       <c r="CD285" s="1"/>
       <c r="CE285" s="1"/>
-      <c r="CF285" s="1"/>
-      <c r="CG285" s="1"/>
-      <c r="CH285" s="1"/>
-    </row>
-    <row r="286" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="286" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>326</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
-      <c r="E286" s="1"/>
+      <c r="E286" s="6" t="s">
+        <v>368</v>
+      </c>
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
@@ -28402,20 +27704,19 @@
       <c r="CC286" s="1"/>
       <c r="CD286" s="1"/>
       <c r="CE286" s="1"/>
-      <c r="CF286" s="1"/>
-      <c r="CG286" s="1"/>
-      <c r="CH286" s="1"/>
-    </row>
-    <row r="287" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="287" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>327</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
-      <c r="E287" s="1"/>
+      <c r="E287" s="6" t="s">
+        <v>368</v>
+      </c>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
@@ -28494,20 +27795,19 @@
       <c r="CC287" s="1"/>
       <c r="CD287" s="1"/>
       <c r="CE287" s="1"/>
-      <c r="CF287" s="1"/>
-      <c r="CG287" s="1"/>
-      <c r="CH287" s="1"/>
-    </row>
-    <row r="288" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="288" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>214</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
-      <c r="E288" s="1"/>
+      <c r="E288" s="6" t="s">
+        <v>368</v>
+      </c>
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
@@ -28586,20 +27886,19 @@
       <c r="CC288" s="1"/>
       <c r="CD288" s="1"/>
       <c r="CE288" s="1"/>
-      <c r="CF288" s="1"/>
-      <c r="CG288" s="1"/>
-      <c r="CH288" s="1"/>
-    </row>
-    <row r="289" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="289" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>215</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
-      <c r="E289" s="1"/>
+      <c r="E289" s="6" t="s">
+        <v>370</v>
+      </c>
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
@@ -28678,20 +27977,19 @@
       <c r="CC289" s="1"/>
       <c r="CD289" s="1"/>
       <c r="CE289" s="1"/>
-      <c r="CF289" s="1"/>
-      <c r="CG289" s="1"/>
-      <c r="CH289" s="1"/>
-    </row>
-    <row r="290" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="290" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>216</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
-      <c r="E290" s="1"/>
+      <c r="E290" s="6" t="s">
+        <v>370</v>
+      </c>
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
@@ -28770,25 +28068,24 @@
       <c r="CC290" s="1"/>
       <c r="CD290" s="1"/>
       <c r="CE290" s="1"/>
-      <c r="CF290" s="1"/>
-      <c r="CG290" s="1"/>
-      <c r="CH290" s="1"/>
-    </row>
-    <row r="291" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="291" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>217</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
-      <c r="E291" s="1"/>
+      <c r="E291" s="6" t="s">
+        <v>370</v>
+      </c>
       <c r="F291" s="1"/>
-      <c r="G291" s="1"/>
+      <c r="G291" s="2"/>
       <c r="H291" s="1"/>
       <c r="I291" s="1"/>
-      <c r="J291" s="2"/>
+      <c r="J291" s="1"/>
       <c r="K291" s="1"/>
       <c r="L291" s="1"/>
       <c r="M291" s="1"/>
@@ -28862,20 +28159,19 @@
       <c r="CC291" s="1"/>
       <c r="CD291" s="1"/>
       <c r="CE291" s="1"/>
-      <c r="CF291" s="1"/>
-      <c r="CG291" s="1"/>
-      <c r="CH291" s="1"/>
-    </row>
-    <row r="292" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="292" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>218</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
-      <c r="E292" s="1"/>
+      <c r="E292" s="6" t="s">
+        <v>370</v>
+      </c>
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
@@ -28954,20 +28250,19 @@
       <c r="CC292" s="1"/>
       <c r="CD292" s="1"/>
       <c r="CE292" s="1"/>
-      <c r="CF292" s="1"/>
-      <c r="CG292" s="1"/>
-      <c r="CH292" s="1"/>
-    </row>
-    <row r="293" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="293" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>219</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
-      <c r="E293" s="1"/>
+      <c r="E293" s="6" t="s">
+        <v>370</v>
+      </c>
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
@@ -29046,20 +28341,19 @@
       <c r="CC293" s="1"/>
       <c r="CD293" s="1"/>
       <c r="CE293" s="1"/>
-      <c r="CF293" s="1"/>
-      <c r="CG293" s="1"/>
-      <c r="CH293" s="1"/>
-    </row>
-    <row r="294" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="294" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>220</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
-      <c r="E294" s="1"/>
+      <c r="E294" s="6" t="s">
+        <v>372</v>
+      </c>
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
@@ -29138,20 +28432,19 @@
       <c r="CC294" s="1"/>
       <c r="CD294" s="1"/>
       <c r="CE294" s="1"/>
-      <c r="CF294" s="1"/>
-      <c r="CG294" s="1"/>
-      <c r="CH294" s="1"/>
-    </row>
-    <row r="295" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="295" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>221</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
-      <c r="E295" s="1"/>
+      <c r="E295" s="6" t="s">
+        <v>372</v>
+      </c>
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
@@ -29230,20 +28523,19 @@
       <c r="CC295" s="1"/>
       <c r="CD295" s="1"/>
       <c r="CE295" s="1"/>
-      <c r="CF295" s="1"/>
-      <c r="CG295" s="1"/>
-      <c r="CH295" s="1"/>
-    </row>
-    <row r="296" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="296" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>222</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
-      <c r="E296" s="1"/>
+      <c r="E296" s="6" t="s">
+        <v>372</v>
+      </c>
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
@@ -29259,10 +28551,10 @@
       <c r="R296" s="1"/>
       <c r="S296" s="1"/>
       <c r="T296" s="1"/>
-      <c r="U296" s="1"/>
+      <c r="U296" s="2"/>
       <c r="V296" s="1"/>
       <c r="W296" s="1"/>
-      <c r="X296" s="2"/>
+      <c r="X296" s="1"/>
       <c r="Y296" s="1"/>
       <c r="Z296" s="1"/>
       <c r="AA296" s="1"/>
@@ -29322,20 +28614,19 @@
       <c r="CC296" s="1"/>
       <c r="CD296" s="1"/>
       <c r="CE296" s="1"/>
-      <c r="CF296" s="1"/>
-      <c r="CG296" s="1"/>
-      <c r="CH296" s="1"/>
-    </row>
-    <row r="297" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="297" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>223</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
-      <c r="E297" s="1"/>
+      <c r="E297" s="6" t="s">
+        <v>372</v>
+      </c>
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
@@ -29352,9 +28643,9 @@
       <c r="S297" s="1"/>
       <c r="T297" s="1"/>
       <c r="U297" s="1"/>
-      <c r="V297" s="1"/>
-      <c r="W297" s="1"/>
-      <c r="X297" s="1"/>
+      <c r="AD297" s="1"/>
+      <c r="AE297" s="1"/>
+      <c r="AF297" s="1"/>
       <c r="AG297" s="1"/>
       <c r="AH297" s="1"/>
       <c r="AI297" s="1"/>
@@ -29406,20 +28697,19 @@
       <c r="CC297" s="1"/>
       <c r="CD297" s="1"/>
       <c r="CE297" s="1"/>
-      <c r="CF297" s="1"/>
-      <c r="CG297" s="1"/>
-      <c r="CH297" s="1"/>
-    </row>
-    <row r="298" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="298" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>224</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
-      <c r="E298" s="1"/>
+      <c r="E298" s="6" t="s">
+        <v>372</v>
+      </c>
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
@@ -29498,20 +28788,19 @@
       <c r="CC298" s="1"/>
       <c r="CD298" s="1"/>
       <c r="CE298" s="1"/>
-      <c r="CF298" s="1"/>
-      <c r="CG298" s="1"/>
-      <c r="CH298" s="1"/>
-    </row>
-    <row r="299" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="299" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>225</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
-      <c r="E299" s="1"/>
+      <c r="E299" s="6" t="s">
+        <v>372</v>
+      </c>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
@@ -29590,20 +28879,19 @@
       <c r="CC299" s="1"/>
       <c r="CD299" s="1"/>
       <c r="CE299" s="1"/>
-      <c r="CF299" s="1"/>
-      <c r="CG299" s="1"/>
-      <c r="CH299" s="1"/>
-    </row>
-    <row r="300" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="300" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>226</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
-      <c r="E300" s="1"/>
+      <c r="E300" s="6" t="s">
+        <v>372</v>
+      </c>
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
@@ -29682,20 +28970,19 @@
       <c r="CC300" s="1"/>
       <c r="CD300" s="1"/>
       <c r="CE300" s="1"/>
-      <c r="CF300" s="1"/>
-      <c r="CG300" s="1"/>
-      <c r="CH300" s="1"/>
-    </row>
-    <row r="301" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="301" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>227</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
-      <c r="E301" s="1"/>
+      <c r="E301" s="6" t="s">
+        <v>372</v>
+      </c>
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
@@ -29712,9 +28999,9 @@
       <c r="S301" s="1"/>
       <c r="T301" s="1"/>
       <c r="U301" s="1"/>
-      <c r="V301" s="1"/>
-      <c r="W301" s="1"/>
-      <c r="X301" s="1"/>
+      <c r="AD301" s="1"/>
+      <c r="AE301" s="1"/>
+      <c r="AF301" s="1"/>
       <c r="AG301" s="1"/>
       <c r="AH301" s="1"/>
       <c r="AI301" s="1"/>
@@ -29766,20 +29053,19 @@
       <c r="CC301" s="1"/>
       <c r="CD301" s="1"/>
       <c r="CE301" s="1"/>
-      <c r="CF301" s="1"/>
-      <c r="CG301" s="1"/>
-      <c r="CH301" s="1"/>
-    </row>
-    <row r="302" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="302" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>228</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
-      <c r="E302" s="1"/>
+      <c r="E302" s="6" t="s">
+        <v>372</v>
+      </c>
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
@@ -29858,20 +29144,19 @@
       <c r="CC302" s="1"/>
       <c r="CD302" s="1"/>
       <c r="CE302" s="1"/>
-      <c r="CF302" s="1"/>
-      <c r="CG302" s="1"/>
-      <c r="CH302" s="1"/>
-    </row>
-    <row r="303" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="303" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>229</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
-      <c r="E303" s="1"/>
+      <c r="E303" s="6" t="s">
+        <v>372</v>
+      </c>
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
@@ -29950,20 +29235,19 @@
       <c r="CC303" s="1"/>
       <c r="CD303" s="1"/>
       <c r="CE303" s="1"/>
-      <c r="CF303" s="1"/>
-      <c r="CG303" s="1"/>
-      <c r="CH303" s="1"/>
-    </row>
-    <row r="304" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="304" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>230</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
-      <c r="E304" s="1"/>
+      <c r="E304" s="6" t="s">
+        <v>372</v>
+      </c>
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
@@ -30042,20 +29326,19 @@
       <c r="CC304" s="1"/>
       <c r="CD304" s="1"/>
       <c r="CE304" s="1"/>
-      <c r="CF304" s="1"/>
-      <c r="CG304" s="1"/>
-      <c r="CH304" s="1"/>
-    </row>
-    <row r="305" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="305" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>231</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
-      <c r="E305" s="1"/>
+      <c r="E305" s="6" t="s">
+        <v>372</v>
+      </c>
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
@@ -30134,20 +29417,19 @@
       <c r="CC305" s="1"/>
       <c r="CD305" s="1"/>
       <c r="CE305" s="1"/>
-      <c r="CF305" s="1"/>
-      <c r="CG305" s="1"/>
-      <c r="CH305" s="1"/>
-    </row>
-    <row r="306" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="306" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>232</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
-      <c r="E306" s="1"/>
+      <c r="E306" s="6" t="s">
+        <v>372</v>
+      </c>
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
@@ -30226,20 +29508,19 @@
       <c r="CC306" s="1"/>
       <c r="CD306" s="1"/>
       <c r="CE306" s="1"/>
-      <c r="CF306" s="1"/>
-      <c r="CG306" s="1"/>
-      <c r="CH306" s="1"/>
-    </row>
-    <row r="307" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="307" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>233</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
-      <c r="E307" s="1"/>
+      <c r="E307" s="6" t="s">
+        <v>372</v>
+      </c>
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
@@ -30318,20 +29599,19 @@
       <c r="CC307" s="1"/>
       <c r="CD307" s="1"/>
       <c r="CE307" s="1"/>
-      <c r="CF307" s="1"/>
-      <c r="CG307" s="1"/>
-      <c r="CH307" s="1"/>
-    </row>
-    <row r="308" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="308" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>234</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
-      <c r="E308" s="1"/>
+      <c r="E308" s="6" t="s">
+        <v>372</v>
+      </c>
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
@@ -30410,20 +29690,19 @@
       <c r="CC308" s="1"/>
       <c r="CD308" s="1"/>
       <c r="CE308" s="1"/>
-      <c r="CF308" s="1"/>
-      <c r="CG308" s="1"/>
-      <c r="CH308" s="1"/>
-    </row>
-    <row r="309" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="309" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>235</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
-      <c r="E309" s="1"/>
+      <c r="E309" s="6" t="s">
+        <v>374</v>
+      </c>
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
@@ -30502,20 +29781,19 @@
       <c r="CC309" s="1"/>
       <c r="CD309" s="1"/>
       <c r="CE309" s="1"/>
-      <c r="CF309" s="1"/>
-      <c r="CG309" s="1"/>
-      <c r="CH309" s="1"/>
-    </row>
-    <row r="310" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="310" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>236</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
-      <c r="E310" s="1"/>
+      <c r="E310" s="6" t="s">
+        <v>374</v>
+      </c>
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
@@ -30594,20 +29872,19 @@
       <c r="CC310" s="1"/>
       <c r="CD310" s="1"/>
       <c r="CE310" s="1"/>
-      <c r="CF310" s="1"/>
-      <c r="CG310" s="1"/>
-      <c r="CH310" s="1"/>
-    </row>
-    <row r="311" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="311" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>237</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
-      <c r="E311" s="1"/>
+      <c r="E311" s="6" t="s">
+        <v>374</v>
+      </c>
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
@@ -30686,20 +29963,19 @@
       <c r="CC311" s="1"/>
       <c r="CD311" s="1"/>
       <c r="CE311" s="1"/>
-      <c r="CF311" s="1"/>
-      <c r="CG311" s="1"/>
-      <c r="CH311" s="1"/>
-    </row>
-    <row r="312" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="312" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>238</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
-      <c r="E312" s="1"/>
+      <c r="E312" s="6" t="s">
+        <v>374</v>
+      </c>
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
@@ -30778,20 +30054,19 @@
       <c r="CC312" s="1"/>
       <c r="CD312" s="1"/>
       <c r="CE312" s="1"/>
-      <c r="CF312" s="1"/>
-      <c r="CG312" s="1"/>
-      <c r="CH312" s="1"/>
-    </row>
-    <row r="313" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="313" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>239</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
-      <c r="E313" s="1"/>
+      <c r="E313" s="6" t="s">
+        <v>374</v>
+      </c>
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
@@ -30870,20 +30145,19 @@
       <c r="CC313" s="1"/>
       <c r="CD313" s="1"/>
       <c r="CE313" s="1"/>
-      <c r="CF313" s="1"/>
-      <c r="CG313" s="1"/>
-      <c r="CH313" s="1"/>
-    </row>
-    <row r="314" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="314" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>240</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
-      <c r="E314" s="1"/>
+      <c r="E314" s="6" t="s">
+        <v>374</v>
+      </c>
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
@@ -30962,20 +30236,19 @@
       <c r="CC314" s="1"/>
       <c r="CD314" s="1"/>
       <c r="CE314" s="1"/>
-      <c r="CF314" s="1"/>
-      <c r="CG314" s="1"/>
-      <c r="CH314" s="1"/>
-    </row>
-    <row r="315" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="315" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>241</v>
       </c>
-      <c r="B315" s="8" t="s">
-        <v>382</v>
+      <c r="B315" s="6" t="s">
+        <v>376</v>
       </c>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
-      <c r="E315" s="1"/>
+      <c r="E315" s="6" t="s">
+        <v>376</v>
+      </c>
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
@@ -31054,20 +30327,19 @@
       <c r="CC315" s="1"/>
       <c r="CD315" s="1"/>
       <c r="CE315" s="1"/>
-      <c r="CF315" s="1"/>
-      <c r="CG315" s="1"/>
-      <c r="CH315" s="1"/>
-    </row>
-    <row r="316" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="316" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>242</v>
       </c>
-      <c r="B316" s="8" t="s">
-        <v>382</v>
+      <c r="B316" s="6" t="s">
+        <v>376</v>
       </c>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
-      <c r="E316" s="1"/>
+      <c r="E316" s="6" t="s">
+        <v>376</v>
+      </c>
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
@@ -31146,20 +30418,19 @@
       <c r="CC316" s="1"/>
       <c r="CD316" s="1"/>
       <c r="CE316" s="1"/>
-      <c r="CF316" s="1"/>
-      <c r="CG316" s="1"/>
-      <c r="CH316" s="1"/>
-    </row>
-    <row r="317" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="317" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>243</v>
       </c>
-      <c r="B317" s="8" t="s">
-        <v>382</v>
+      <c r="B317" s="6" t="s">
+        <v>376</v>
       </c>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
-      <c r="E317" s="1"/>
+      <c r="E317" s="6" t="s">
+        <v>376</v>
+      </c>
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
@@ -31238,20 +30509,19 @@
       <c r="CC317" s="1"/>
       <c r="CD317" s="1"/>
       <c r="CE317" s="1"/>
-      <c r="CF317" s="1"/>
-      <c r="CG317" s="1"/>
-      <c r="CH317" s="1"/>
-    </row>
-    <row r="318" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="318" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>244</v>
       </c>
-      <c r="B318" s="8" t="s">
-        <v>382</v>
+      <c r="B318" s="6" t="s">
+        <v>376</v>
       </c>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
-      <c r="E318" s="1"/>
+      <c r="E318" s="6" t="s">
+        <v>376</v>
+      </c>
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
@@ -31330,20 +30600,19 @@
       <c r="CC318" s="1"/>
       <c r="CD318" s="1"/>
       <c r="CE318" s="1"/>
-      <c r="CF318" s="1"/>
-      <c r="CG318" s="1"/>
-      <c r="CH318" s="1"/>
-    </row>
-    <row r="319" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="319" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>245</v>
       </c>
-      <c r="B319" s="8" t="s">
-        <v>382</v>
+      <c r="B319" s="6" t="s">
+        <v>376</v>
       </c>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
-      <c r="E319" s="1"/>
+      <c r="E319" s="6" t="s">
+        <v>376</v>
+      </c>
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
@@ -31422,22 +30691,21 @@
       <c r="CC319" s="1"/>
       <c r="CD319" s="1"/>
       <c r="CE319" s="1"/>
-      <c r="CF319" s="1"/>
-      <c r="CG319" s="1"/>
-      <c r="CH319" s="1"/>
-    </row>
-    <row r="320" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="320" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>246</v>
       </c>
-      <c r="B320" s="8" t="s">
-        <v>382</v>
+      <c r="B320" s="6" t="s">
+        <v>376</v>
       </c>
       <c r="C320" s="1"/>
-      <c r="D320" s="1"/>
-      <c r="E320" s="1"/>
+      <c r="D320" s="2"/>
+      <c r="E320" s="6" t="s">
+        <v>376</v>
+      </c>
       <c r="F320" s="1"/>
-      <c r="G320" s="2"/>
+      <c r="G320" s="1"/>
       <c r="H320" s="1"/>
       <c r="I320" s="1"/>
       <c r="J320" s="1"/>
@@ -31514,20 +30782,19 @@
       <c r="CC320" s="1"/>
       <c r="CD320" s="1"/>
       <c r="CE320" s="1"/>
-      <c r="CF320" s="1"/>
-      <c r="CG320" s="1"/>
-      <c r="CH320" s="1"/>
-    </row>
-    <row r="321" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="321" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>247</v>
       </c>
-      <c r="B321" s="8" t="s">
-        <v>382</v>
+      <c r="B321" s="6" t="s">
+        <v>376</v>
       </c>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
-      <c r="E321" s="1"/>
+      <c r="E321" s="6" t="s">
+        <v>376</v>
+      </c>
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
@@ -31606,20 +30873,19 @@
       <c r="CC321" s="1"/>
       <c r="CD321" s="1"/>
       <c r="CE321" s="1"/>
-      <c r="CF321" s="1"/>
-      <c r="CG321" s="1"/>
-      <c r="CH321" s="1"/>
-    </row>
-    <row r="322" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="322" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>248</v>
       </c>
-      <c r="B322" s="8" t="s">
-        <v>382</v>
+      <c r="B322" s="6" t="s">
+        <v>376</v>
       </c>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
-      <c r="E322" s="1"/>
+      <c r="E322" s="6" t="s">
+        <v>376</v>
+      </c>
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
@@ -31698,20 +30964,19 @@
       <c r="CC322" s="1"/>
       <c r="CD322" s="1"/>
       <c r="CE322" s="1"/>
-      <c r="CF322" s="1"/>
-      <c r="CG322" s="1"/>
-      <c r="CH322" s="1"/>
-    </row>
-    <row r="323" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="323" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>249</v>
       </c>
-      <c r="B323" s="8" t="s">
-        <v>382</v>
+      <c r="B323" s="6" t="s">
+        <v>378</v>
       </c>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
-      <c r="E323" s="1"/>
+      <c r="E323" s="6" t="s">
+        <v>378</v>
+      </c>
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
@@ -31790,20 +31055,19 @@
       <c r="CC323" s="1"/>
       <c r="CD323" s="1"/>
       <c r="CE323" s="1"/>
-      <c r="CF323" s="1"/>
-      <c r="CG323" s="1"/>
-      <c r="CH323" s="1"/>
-    </row>
-    <row r="324" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="324" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>250</v>
       </c>
-      <c r="B324" s="8" t="s">
-        <v>382</v>
+      <c r="B324" s="6" t="s">
+        <v>378</v>
       </c>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
-      <c r="E324" s="1"/>
+      <c r="E324" s="6" t="s">
+        <v>378</v>
+      </c>
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
@@ -31882,20 +31146,19 @@
       <c r="CC324" s="1"/>
       <c r="CD324" s="1"/>
       <c r="CE324" s="1"/>
-      <c r="CF324" s="1"/>
-      <c r="CG324" s="1"/>
-      <c r="CH324" s="1"/>
-    </row>
-    <row r="325" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="325" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>251</v>
       </c>
-      <c r="B325" s="8" t="s">
-        <v>382</v>
+      <c r="B325" s="6" t="s">
+        <v>378</v>
       </c>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
-      <c r="E325" s="1"/>
+      <c r="E325" s="6" t="s">
+        <v>378</v>
+      </c>
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
@@ -31974,20 +31237,19 @@
       <c r="CC325" s="1"/>
       <c r="CD325" s="1"/>
       <c r="CE325" s="1"/>
-      <c r="CF325" s="1"/>
-      <c r="CG325" s="1"/>
-      <c r="CH325" s="1"/>
-    </row>
-    <row r="326" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="326" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>252</v>
       </c>
-      <c r="B326" s="8" t="s">
-        <v>382</v>
+      <c r="B326" s="6" t="s">
+        <v>378</v>
       </c>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
-      <c r="E326" s="1"/>
+      <c r="E326" s="6" t="s">
+        <v>378</v>
+      </c>
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
@@ -32066,20 +31328,19 @@
       <c r="CC326" s="1"/>
       <c r="CD326" s="1"/>
       <c r="CE326" s="1"/>
-      <c r="CF326" s="1"/>
-      <c r="CG326" s="1"/>
-      <c r="CH326" s="1"/>
-    </row>
-    <row r="327" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="327" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>253</v>
       </c>
-      <c r="B327" s="8" t="s">
-        <v>382</v>
+      <c r="B327" s="6" t="s">
+        <v>378</v>
       </c>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
-      <c r="E327" s="1"/>
+      <c r="E327" s="6" t="s">
+        <v>378</v>
+      </c>
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
@@ -32158,20 +31419,19 @@
       <c r="CC327" s="1"/>
       <c r="CD327" s="1"/>
       <c r="CE327" s="1"/>
-      <c r="CF327" s="1"/>
-      <c r="CG327" s="1"/>
-      <c r="CH327" s="1"/>
-    </row>
-    <row r="328" spans="1:86" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="328" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>254</v>
       </c>
-      <c r="B328" s="8" t="s">
-        <v>382</v>
+      <c r="B328" s="6" t="s">
+        <v>378</v>
       </c>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
-      <c r="E328" s="1"/>
+      <c r="E328" s="6" t="s">
+        <v>378</v>
+      </c>
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
@@ -32250,9 +31510,6 @@
       <c r="CC328" s="1"/>
       <c r="CD328" s="1"/>
       <c r="CE328" s="1"/>
-      <c r="CF328" s="1"/>
-      <c r="CG328" s="1"/>
-      <c r="CH328" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Notebooks/data/Final_Berg JBS 2013 Supplemental Table 3_For SVM14Dec2017 - Mechanisms.xlsx
+++ b/Notebooks/data/Final_Berg JBS 2013 Supplemental Table 3_For SVM14Dec2017 - Mechanisms.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="705" windowWidth="4680" windowHeight="5505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3135" yWindow="705" windowWidth="4680" windowHeight="5505"/>
   </bookViews>
   <sheets>
     <sheet name="Suppl Table 3" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="4"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="390">
   <si>
     <t>BioMAP Viewer Mixed Profile</t>
   </si>
@@ -1730,7 +1730,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0;###0"/>
   </numFmts>
@@ -2286,21 +2286,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CE328"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CB328"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C1" sqref="C1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="66.140625" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2308,7 +2307,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="2" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2393,11 +2392,8 @@
       <c r="BZ2" s="1"/>
       <c r="CA2" s="1"/>
       <c r="CB2" s="1"/>
-      <c r="CC2" s="1"/>
-      <c r="CD2" s="1"/>
-      <c r="CE2" s="1"/>
-    </row>
-    <row r="3" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2422,10 +2418,10 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
+      <c r="U3" s="2"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="X3" s="2"/>
+      <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
@@ -2482,11 +2478,8 @@
       <c r="BZ3" s="1"/>
       <c r="CA3" s="1"/>
       <c r="CB3" s="1"/>
-      <c r="CC3" s="1"/>
-      <c r="CD3" s="1"/>
-      <c r="CE3" s="1"/>
-    </row>
-    <row r="4" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2571,11 +2564,8 @@
       <c r="BZ4" s="1"/>
       <c r="CA4" s="1"/>
       <c r="CB4" s="1"/>
-      <c r="CC4" s="1"/>
-      <c r="CD4" s="1"/>
-      <c r="CE4" s="1"/>
-    </row>
-    <row r="5" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2660,11 +2650,8 @@
       <c r="BZ5" s="1"/>
       <c r="CA5" s="1"/>
       <c r="CB5" s="1"/>
-      <c r="CC5" s="1"/>
-      <c r="CD5" s="1"/>
-      <c r="CE5" s="1"/>
-    </row>
-    <row r="6" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2749,11 +2736,8 @@
       <c r="BZ6" s="1"/>
       <c r="CA6" s="1"/>
       <c r="CB6" s="1"/>
-      <c r="CC6" s="1"/>
-      <c r="CD6" s="1"/>
-      <c r="CE6" s="1"/>
-    </row>
-    <row r="7" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2838,11 +2822,8 @@
       <c r="BZ7" s="1"/>
       <c r="CA7" s="1"/>
       <c r="CB7" s="1"/>
-      <c r="CC7" s="1"/>
-      <c r="CD7" s="1"/>
-      <c r="CE7" s="1"/>
-    </row>
-    <row r="8" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2927,11 +2908,8 @@
       <c r="BZ8" s="1"/>
       <c r="CA8" s="1"/>
       <c r="CB8" s="1"/>
-      <c r="CC8" s="1"/>
-      <c r="CD8" s="1"/>
-      <c r="CE8" s="1"/>
-    </row>
-    <row r="9" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2945,10 +2923,10 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="2"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="2"/>
+      <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -3016,11 +2994,8 @@
       <c r="BZ9" s="1"/>
       <c r="CA9" s="1"/>
       <c r="CB9" s="1"/>
-      <c r="CC9" s="1"/>
-      <c r="CD9" s="1"/>
-      <c r="CE9" s="1"/>
-    </row>
-    <row r="10" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3105,11 +3080,8 @@
       <c r="BZ10" s="1"/>
       <c r="CA10" s="1"/>
       <c r="CB10" s="1"/>
-      <c r="CC10" s="1"/>
-      <c r="CD10" s="1"/>
-      <c r="CE10" s="1"/>
-    </row>
-    <row r="11" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3194,11 +3166,8 @@
       <c r="BZ11" s="1"/>
       <c r="CA11" s="1"/>
       <c r="CB11" s="1"/>
-      <c r="CC11" s="1"/>
-      <c r="CD11" s="1"/>
-      <c r="CE11" s="1"/>
-    </row>
-    <row r="12" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3283,11 +3252,8 @@
       <c r="BZ12" s="1"/>
       <c r="CA12" s="1"/>
       <c r="CB12" s="1"/>
-      <c r="CC12" s="1"/>
-      <c r="CD12" s="1"/>
-      <c r="CE12" s="1"/>
-    </row>
-    <row r="13" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3372,11 +3338,8 @@
       <c r="BZ13" s="1"/>
       <c r="CA13" s="1"/>
       <c r="CB13" s="1"/>
-      <c r="CC13" s="1"/>
-      <c r="CD13" s="1"/>
-      <c r="CE13" s="1"/>
-    </row>
-    <row r="14" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3384,10 +3347,10 @@
         <v>330</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -3461,11 +3424,8 @@
       <c r="BZ14" s="1"/>
       <c r="CA14" s="1"/>
       <c r="CB14" s="1"/>
-      <c r="CC14" s="1"/>
-      <c r="CD14" s="1"/>
-      <c r="CE14" s="1"/>
-    </row>
-    <row r="15" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3550,11 +3510,8 @@
       <c r="BZ15" s="1"/>
       <c r="CA15" s="1"/>
       <c r="CB15" s="1"/>
-      <c r="CC15" s="1"/>
-      <c r="CD15" s="1"/>
-      <c r="CE15" s="1"/>
-    </row>
-    <row r="16" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3562,10 +3519,10 @@
         <v>330</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -3592,10 +3549,10 @@
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
+      <c r="AH16" s="2"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
-      <c r="AK16" s="2"/>
+      <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
@@ -3639,11 +3596,8 @@
       <c r="BZ16" s="1"/>
       <c r="CA16" s="1"/>
       <c r="CB16" s="1"/>
-      <c r="CC16" s="1"/>
-      <c r="CD16" s="1"/>
-      <c r="CE16" s="1"/>
-    </row>
-    <row r="17" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3671,10 +3625,10 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
+      <c r="X17" s="2"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
-      <c r="AA17" s="2"/>
+      <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
@@ -3705,10 +3659,10 @@
       <c r="BC17" s="1"/>
       <c r="BD17" s="1"/>
       <c r="BE17" s="1"/>
-      <c r="BF17" s="1"/>
+      <c r="BF17" s="2"/>
       <c r="BG17" s="1"/>
       <c r="BH17" s="1"/>
-      <c r="BI17" s="2"/>
+      <c r="BI17" s="1"/>
       <c r="BJ17" s="1"/>
       <c r="BK17" s="1"/>
       <c r="BL17" s="1"/>
@@ -3728,11 +3682,8 @@
       <c r="BZ17" s="1"/>
       <c r="CA17" s="1"/>
       <c r="CB17" s="1"/>
-      <c r="CC17" s="1"/>
-      <c r="CD17" s="1"/>
-      <c r="CE17" s="1"/>
-    </row>
-    <row r="18" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3817,11 +3768,8 @@
       <c r="BZ18" s="1"/>
       <c r="CA18" s="1"/>
       <c r="CB18" s="1"/>
-      <c r="CC18" s="1"/>
-      <c r="CD18" s="1"/>
-      <c r="CE18" s="1"/>
-    </row>
-    <row r="19" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3906,11 +3854,8 @@
       <c r="BZ19" s="1"/>
       <c r="CA19" s="1"/>
       <c r="CB19" s="1"/>
-      <c r="CC19" s="1"/>
-      <c r="CD19" s="1"/>
-      <c r="CE19" s="1"/>
-    </row>
-    <row r="20" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3995,11 +3940,8 @@
       <c r="BZ20" s="1"/>
       <c r="CA20" s="1"/>
       <c r="CB20" s="1"/>
-      <c r="CC20" s="1"/>
-      <c r="CD20" s="1"/>
-      <c r="CE20" s="1"/>
-    </row>
-    <row r="21" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4057,10 +3999,10 @@
       <c r="AY21" s="1"/>
       <c r="AZ21" s="1"/>
       <c r="BA21" s="1"/>
-      <c r="BB21" s="1"/>
+      <c r="BB21" s="2"/>
       <c r="BC21" s="1"/>
       <c r="BD21" s="1"/>
-      <c r="BE21" s="2"/>
+      <c r="BE21" s="1"/>
       <c r="BF21" s="1"/>
       <c r="BG21" s="1"/>
       <c r="BH21" s="1"/>
@@ -4084,11 +4026,8 @@
       <c r="BZ21" s="1"/>
       <c r="CA21" s="1"/>
       <c r="CB21" s="1"/>
-      <c r="CC21" s="1"/>
-      <c r="CD21" s="1"/>
-      <c r="CE21" s="1"/>
-    </row>
-    <row r="22" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4155,10 +4094,10 @@
       <c r="BH22" s="1"/>
       <c r="BI22" s="1"/>
       <c r="BJ22" s="1"/>
-      <c r="BK22" s="1"/>
+      <c r="BK22" s="2"/>
       <c r="BL22" s="1"/>
       <c r="BM22" s="1"/>
-      <c r="BN22" s="2"/>
+      <c r="BN22" s="1"/>
       <c r="BO22" s="1"/>
       <c r="BP22" s="1"/>
       <c r="BQ22" s="1"/>
@@ -4173,11 +4112,8 @@
       <c r="BZ22" s="1"/>
       <c r="CA22" s="1"/>
       <c r="CB22" s="1"/>
-      <c r="CC22" s="1"/>
-      <c r="CD22" s="1"/>
-      <c r="CE22" s="1"/>
-    </row>
-    <row r="23" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -4262,11 +4198,8 @@
       <c r="BZ23" s="1"/>
       <c r="CA23" s="1"/>
       <c r="CB23" s="1"/>
-      <c r="CC23" s="1"/>
-      <c r="CD23" s="1"/>
-      <c r="CE23" s="1"/>
-    </row>
-    <row r="24" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4351,11 +4284,8 @@
       <c r="BZ24" s="1"/>
       <c r="CA24" s="1"/>
       <c r="CB24" s="1"/>
-      <c r="CC24" s="1"/>
-      <c r="CD24" s="1"/>
-      <c r="CE24" s="1"/>
-    </row>
-    <row r="25" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4440,11 +4370,8 @@
       <c r="BZ25" s="1"/>
       <c r="CA25" s="1"/>
       <c r="CB25" s="1"/>
-      <c r="CC25" s="1"/>
-      <c r="CD25" s="1"/>
-      <c r="CE25" s="1"/>
-    </row>
-    <row r="26" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -4529,11 +4456,8 @@
       <c r="BZ26" s="1"/>
       <c r="CA26" s="1"/>
       <c r="CB26" s="1"/>
-      <c r="CC26" s="1"/>
-      <c r="CD26" s="1"/>
-      <c r="CE26" s="1"/>
-    </row>
-    <row r="27" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4582,10 +4506,10 @@
       <c r="AP27" s="1"/>
       <c r="AQ27" s="1"/>
       <c r="AR27" s="1"/>
-      <c r="AS27" s="1"/>
+      <c r="AS27" s="2"/>
       <c r="AT27" s="1"/>
       <c r="AU27" s="1"/>
-      <c r="AV27" s="2"/>
+      <c r="AV27" s="1"/>
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
       <c r="AY27" s="1"/>
@@ -4604,11 +4528,8 @@
       <c r="BL27" s="1"/>
       <c r="BM27" s="1"/>
       <c r="BN27" s="1"/>
-      <c r="BO27" s="1"/>
-      <c r="BP27" s="1"/>
-      <c r="BQ27" s="1"/>
-    </row>
-    <row r="28" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4679,11 +4600,8 @@
       <c r="BL28" s="1"/>
       <c r="BM28" s="1"/>
       <c r="BN28" s="1"/>
-      <c r="BO28" s="1"/>
-      <c r="BP28" s="1"/>
-      <c r="BQ28" s="1"/>
-    </row>
-    <row r="29" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -4706,9 +4624,9 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
       <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
@@ -4752,11 +4670,8 @@
       <c r="BL29" s="1"/>
       <c r="BM29" s="1"/>
       <c r="BN29" s="1"/>
-      <c r="BO29" s="1"/>
-      <c r="BP29" s="1"/>
-      <c r="BQ29" s="1"/>
-    </row>
-    <row r="30" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4827,11 +4742,8 @@
       <c r="BL30" s="1"/>
       <c r="BM30" s="1"/>
       <c r="BN30" s="1"/>
-      <c r="BO30" s="1"/>
-      <c r="BP30" s="1"/>
-      <c r="BQ30" s="1"/>
-    </row>
-    <row r="31" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4916,11 +4828,8 @@
       <c r="BZ31" s="1"/>
       <c r="CA31" s="1"/>
       <c r="CB31" s="1"/>
-      <c r="CC31" s="1"/>
-      <c r="CD31" s="1"/>
-      <c r="CE31" s="1"/>
-    </row>
-    <row r="32" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -5005,11 +4914,8 @@
       <c r="BZ32" s="1"/>
       <c r="CA32" s="1"/>
       <c r="CB32" s="1"/>
-      <c r="CC32" s="1"/>
-      <c r="CD32" s="1"/>
-      <c r="CE32" s="1"/>
-    </row>
-    <row r="33" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -5094,11 +5000,8 @@
       <c r="BZ33" s="1"/>
       <c r="CA33" s="1"/>
       <c r="CB33" s="1"/>
-      <c r="CC33" s="1"/>
-      <c r="CD33" s="1"/>
-      <c r="CE33" s="1"/>
-    </row>
-    <row r="34" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -5183,11 +5086,8 @@
       <c r="BZ34" s="1"/>
       <c r="CA34" s="1"/>
       <c r="CB34" s="1"/>
-      <c r="CC34" s="1"/>
-      <c r="CD34" s="1"/>
-      <c r="CE34" s="1"/>
-    </row>
-    <row r="35" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -5272,11 +5172,8 @@
       <c r="BZ35" s="1"/>
       <c r="CA35" s="1"/>
       <c r="CB35" s="1"/>
-      <c r="CC35" s="1"/>
-      <c r="CD35" s="1"/>
-      <c r="CE35" s="1"/>
-    </row>
-    <row r="36" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -5325,10 +5222,10 @@
       <c r="AP36" s="1"/>
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
-      <c r="AS36" s="1"/>
+      <c r="AS36" s="2"/>
       <c r="AT36" s="1"/>
       <c r="AU36" s="1"/>
-      <c r="AV36" s="2"/>
+      <c r="AV36" s="1"/>
       <c r="AW36" s="1"/>
       <c r="AX36" s="1"/>
       <c r="AY36" s="1"/>
@@ -5361,11 +5258,8 @@
       <c r="BZ36" s="1"/>
       <c r="CA36" s="1"/>
       <c r="CB36" s="1"/>
-      <c r="CC36" s="1"/>
-      <c r="CD36" s="1"/>
-      <c r="CE36" s="1"/>
-    </row>
-    <row r="37" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -5391,10 +5285,10 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
+      <c r="V37" s="2"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
-      <c r="Y37" s="2"/>
+      <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
@@ -5450,11 +5344,8 @@
       <c r="BZ37" s="1"/>
       <c r="CA37" s="1"/>
       <c r="CB37" s="1"/>
-      <c r="CC37" s="1"/>
-      <c r="CD37" s="1"/>
-      <c r="CE37" s="1"/>
-    </row>
-    <row r="38" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -5505,10 +5396,10 @@
       <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
       <c r="AT38" s="1"/>
-      <c r="AU38" s="1"/>
+      <c r="AU38" s="2"/>
       <c r="AV38" s="1"/>
       <c r="AW38" s="1"/>
-      <c r="AX38" s="2"/>
+      <c r="AX38" s="1"/>
       <c r="AY38" s="1"/>
       <c r="AZ38" s="1"/>
       <c r="BA38" s="1"/>
@@ -5539,11 +5430,8 @@
       <c r="BZ38" s="1"/>
       <c r="CA38" s="1"/>
       <c r="CB38" s="1"/>
-      <c r="CC38" s="1"/>
-      <c r="CD38" s="1"/>
-      <c r="CE38" s="1"/>
-    </row>
-    <row r="39" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -5628,11 +5516,8 @@
       <c r="BZ39" s="1"/>
       <c r="CA39" s="1"/>
       <c r="CB39" s="1"/>
-      <c r="CC39" s="1"/>
-      <c r="CD39" s="1"/>
-      <c r="CE39" s="1"/>
-    </row>
-    <row r="40" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -5717,11 +5602,8 @@
       <c r="BZ40" s="1"/>
       <c r="CA40" s="1"/>
       <c r="CB40" s="1"/>
-      <c r="CC40" s="1"/>
-      <c r="CD40" s="1"/>
-      <c r="CE40" s="1"/>
-    </row>
-    <row r="41" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -5806,11 +5688,8 @@
       <c r="BZ41" s="1"/>
       <c r="CA41" s="1"/>
       <c r="CB41" s="1"/>
-      <c r="CC41" s="1"/>
-      <c r="CD41" s="1"/>
-      <c r="CE41" s="1"/>
-    </row>
-    <row r="42" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -5895,11 +5774,8 @@
       <c r="BZ42" s="1"/>
       <c r="CA42" s="1"/>
       <c r="CB42" s="1"/>
-      <c r="CC42" s="1"/>
-      <c r="CD42" s="1"/>
-      <c r="CE42" s="1"/>
-    </row>
-    <row r="43" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -5921,9 +5797,9 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
@@ -5983,11 +5859,8 @@
       <c r="BZ43" s="1"/>
       <c r="CA43" s="1"/>
       <c r="CB43" s="1"/>
-      <c r="CC43" s="1"/>
-      <c r="CD43" s="1"/>
-      <c r="CE43" s="1"/>
-    </row>
-    <row r="44" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -6009,9 +5882,9 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
@@ -6071,11 +5944,8 @@
       <c r="BZ44" s="1"/>
       <c r="CA44" s="1"/>
       <c r="CB44" s="1"/>
-      <c r="CC44" s="1"/>
-      <c r="CD44" s="1"/>
-      <c r="CE44" s="1"/>
-    </row>
-    <row r="45" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -6103,10 +5973,10 @@
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
+      <c r="X45" s="2"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
-      <c r="AA45" s="2"/>
+      <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
@@ -6160,11 +6030,8 @@
       <c r="BZ45" s="1"/>
       <c r="CA45" s="1"/>
       <c r="CB45" s="1"/>
-      <c r="CC45" s="1"/>
-      <c r="CD45" s="1"/>
-      <c r="CE45" s="1"/>
-    </row>
-    <row r="46" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -6195,14 +6062,14 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
-      <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
       <c r="AF46" s="1"/>
-      <c r="AG46" s="1"/>
       <c r="AH46" s="1"/>
       <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
       <c r="AL46" s="1"/>
       <c r="AM46" s="1"/>
@@ -6216,29 +6083,26 @@
       <c r="AU46" s="1"/>
       <c r="AV46" s="1"/>
       <c r="AW46" s="1"/>
-      <c r="AX46" s="1"/>
-      <c r="AY46" s="1"/>
-      <c r="AZ46" s="1"/>
-      <c r="BD46" s="1"/>
+      <c r="BA46" s="1"/>
+      <c r="BB46" s="1"/>
       <c r="BE46" s="1"/>
+      <c r="BF46" s="1"/>
+      <c r="BG46" s="1"/>
       <c r="BH46" s="1"/>
       <c r="BI46" s="1"/>
       <c r="BJ46" s="1"/>
-      <c r="BK46" s="1"/>
       <c r="BL46" s="1"/>
       <c r="BM46" s="1"/>
+      <c r="BN46" s="1"/>
       <c r="BO46" s="1"/>
-      <c r="BP46" s="1"/>
       <c r="BQ46" s="1"/>
       <c r="BR46" s="1"/>
-      <c r="BT46" s="1"/>
-      <c r="BU46" s="1"/>
-      <c r="BV46" s="1"/>
-      <c r="CC46" s="1"/>
-      <c r="CD46" s="1"/>
-      <c r="CE46" s="1"/>
-    </row>
-    <row r="47" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="BS46" s="1"/>
+      <c r="BZ46" s="1"/>
+      <c r="CA46" s="1"/>
+      <c r="CB46" s="1"/>
+    </row>
+    <row r="47" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -6323,11 +6187,8 @@
       <c r="BZ47" s="1"/>
       <c r="CA47" s="1"/>
       <c r="CB47" s="1"/>
-      <c r="CC47" s="1"/>
-      <c r="CD47" s="1"/>
-      <c r="CE47" s="1"/>
-    </row>
-    <row r="48" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -6412,11 +6273,8 @@
       <c r="BZ48" s="1"/>
       <c r="CA48" s="1"/>
       <c r="CB48" s="1"/>
-      <c r="CC48" s="1"/>
-      <c r="CD48" s="1"/>
-      <c r="CE48" s="1"/>
-    </row>
-    <row r="49" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -6501,11 +6359,8 @@
       <c r="BZ49" s="1"/>
       <c r="CA49" s="1"/>
       <c r="CB49" s="1"/>
-      <c r="CC49" s="1"/>
-      <c r="CD49" s="1"/>
-      <c r="CE49" s="1"/>
-    </row>
-    <row r="50" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -6590,11 +6445,8 @@
       <c r="BZ50" s="1"/>
       <c r="CA50" s="1"/>
       <c r="CB50" s="1"/>
-      <c r="CC50" s="1"/>
-      <c r="CD50" s="1"/>
-      <c r="CE50" s="1"/>
-    </row>
-    <row r="51" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -6679,11 +6531,8 @@
       <c r="BZ51" s="1"/>
       <c r="CA51" s="1"/>
       <c r="CB51" s="1"/>
-      <c r="CC51" s="1"/>
-      <c r="CD51" s="1"/>
-      <c r="CE51" s="1"/>
-    </row>
-    <row r="52" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -6768,11 +6617,8 @@
       <c r="BZ52" s="1"/>
       <c r="CA52" s="1"/>
       <c r="CB52" s="1"/>
-      <c r="CC52" s="1"/>
-      <c r="CD52" s="1"/>
-      <c r="CE52" s="1"/>
-    </row>
-    <row r="53" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -6857,11 +6703,8 @@
       <c r="BZ53" s="1"/>
       <c r="CA53" s="1"/>
       <c r="CB53" s="1"/>
-      <c r="CC53" s="1"/>
-      <c r="CD53" s="1"/>
-      <c r="CE53" s="1"/>
-    </row>
-    <row r="54" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -6946,11 +6789,8 @@
       <c r="BZ54" s="1"/>
       <c r="CA54" s="1"/>
       <c r="CB54" s="1"/>
-      <c r="CC54" s="1"/>
-      <c r="CD54" s="1"/>
-      <c r="CE54" s="1"/>
-    </row>
-    <row r="55" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -7035,11 +6875,8 @@
       <c r="BZ55" s="1"/>
       <c r="CA55" s="1"/>
       <c r="CB55" s="1"/>
-      <c r="CC55" s="1"/>
-      <c r="CD55" s="1"/>
-      <c r="CE55" s="1"/>
-    </row>
-    <row r="56" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -7124,11 +6961,8 @@
       <c r="BZ56" s="1"/>
       <c r="CA56" s="1"/>
       <c r="CB56" s="1"/>
-      <c r="CC56" s="1"/>
-      <c r="CD56" s="1"/>
-      <c r="CE56" s="1"/>
-    </row>
-    <row r="57" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -7213,11 +7047,8 @@
       <c r="BZ57" s="1"/>
       <c r="CA57" s="1"/>
       <c r="CB57" s="1"/>
-      <c r="CC57" s="1"/>
-      <c r="CD57" s="1"/>
-      <c r="CE57" s="1"/>
-    </row>
-    <row r="58" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -7302,11 +7133,8 @@
       <c r="BZ58" s="1"/>
       <c r="CA58" s="1"/>
       <c r="CB58" s="1"/>
-      <c r="CC58" s="1"/>
-      <c r="CD58" s="1"/>
-      <c r="CE58" s="1"/>
-    </row>
-    <row r="59" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -7314,10 +7142,10 @@
         <v>340</v>
       </c>
       <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="D59" s="2"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="2"/>
+      <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -7391,11 +7219,8 @@
       <c r="BZ59" s="1"/>
       <c r="CA59" s="1"/>
       <c r="CB59" s="1"/>
-      <c r="CC59" s="1"/>
-      <c r="CD59" s="1"/>
-      <c r="CE59" s="1"/>
-    </row>
-    <row r="60" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -7434,18 +7259,18 @@
       <c r="AF60" s="1"/>
       <c r="AG60" s="1"/>
       <c r="AH60" s="1"/>
-      <c r="AI60" s="1"/>
       <c r="AJ60" s="1"/>
-      <c r="AK60" s="1"/>
+      <c r="AL60" s="1"/>
       <c r="AM60" s="1"/>
+      <c r="AN60" s="1"/>
       <c r="AO60" s="1"/>
       <c r="AP60" s="1"/>
       <c r="AQ60" s="1"/>
       <c r="AR60" s="1"/>
       <c r="AS60" s="1"/>
-      <c r="AT60" s="1"/>
       <c r="AU60" s="1"/>
       <c r="AV60" s="1"/>
+      <c r="AW60" s="1"/>
       <c r="AX60" s="1"/>
       <c r="AY60" s="1"/>
       <c r="AZ60" s="1"/>
@@ -7477,11 +7302,8 @@
       <c r="BZ60" s="1"/>
       <c r="CA60" s="1"/>
       <c r="CB60" s="1"/>
-      <c r="CC60" s="1"/>
-      <c r="CD60" s="1"/>
-      <c r="CE60" s="1"/>
-    </row>
-    <row r="61" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -7566,11 +7388,8 @@
       <c r="BZ61" s="1"/>
       <c r="CA61" s="1"/>
       <c r="CB61" s="1"/>
-      <c r="CC61" s="1"/>
-      <c r="CD61" s="1"/>
-      <c r="CE61" s="1"/>
-    </row>
-    <row r="62" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -7655,11 +7474,8 @@
       <c r="BZ62" s="1"/>
       <c r="CA62" s="1"/>
       <c r="CB62" s="1"/>
-      <c r="CC62" s="1"/>
-      <c r="CD62" s="1"/>
-      <c r="CE62" s="1"/>
-    </row>
-    <row r="63" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -7744,11 +7560,8 @@
       <c r="BZ63" s="1"/>
       <c r="CA63" s="1"/>
       <c r="CB63" s="1"/>
-      <c r="CC63" s="1"/>
-      <c r="CD63" s="1"/>
-      <c r="CE63" s="1"/>
-    </row>
-    <row r="64" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -7798,10 +7611,10 @@
       <c r="AQ64" s="1"/>
       <c r="AR64" s="1"/>
       <c r="AS64" s="1"/>
-      <c r="AT64" s="1"/>
+      <c r="AT64" s="2"/>
       <c r="AU64" s="1"/>
       <c r="AV64" s="1"/>
-      <c r="AW64" s="2"/>
+      <c r="AW64" s="1"/>
       <c r="AX64" s="1"/>
       <c r="AY64" s="1"/>
       <c r="AZ64" s="1"/>
@@ -7833,11 +7646,8 @@
       <c r="BZ64" s="1"/>
       <c r="CA64" s="1"/>
       <c r="CB64" s="1"/>
-      <c r="CC64" s="1"/>
-      <c r="CD64" s="1"/>
-      <c r="CE64" s="1"/>
-    </row>
-    <row r="65" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -7922,11 +7732,8 @@
       <c r="BZ65" s="1"/>
       <c r="CA65" s="1"/>
       <c r="CB65" s="1"/>
-      <c r="CC65" s="1"/>
-      <c r="CD65" s="1"/>
-      <c r="CE65" s="1"/>
-    </row>
-    <row r="66" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -7953,10 +7760,10 @@
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
-      <c r="W66" s="1"/>
+      <c r="W66" s="2"/>
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
-      <c r="Z66" s="2"/>
+      <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
       <c r="AC66" s="1"/>
@@ -8011,11 +7818,8 @@
       <c r="BZ66" s="1"/>
       <c r="CA66" s="1"/>
       <c r="CB66" s="1"/>
-      <c r="CC66" s="1"/>
-      <c r="CD66" s="1"/>
-      <c r="CE66" s="1"/>
-    </row>
-    <row r="67" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -8100,11 +7904,8 @@
       <c r="BZ67" s="1"/>
       <c r="CA67" s="1"/>
       <c r="CB67" s="1"/>
-      <c r="CC67" s="1"/>
-      <c r="CD67" s="1"/>
-      <c r="CE67" s="1"/>
-    </row>
-    <row r="68" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -8189,11 +7990,8 @@
       <c r="BZ68" s="1"/>
       <c r="CA68" s="1"/>
       <c r="CB68" s="1"/>
-      <c r="CC68" s="1"/>
-      <c r="CD68" s="1"/>
-      <c r="CE68" s="1"/>
-    </row>
-    <row r="69" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -8278,11 +8076,8 @@
       <c r="BZ69" s="1"/>
       <c r="CA69" s="1"/>
       <c r="CB69" s="1"/>
-      <c r="CC69" s="1"/>
-      <c r="CD69" s="1"/>
-      <c r="CE69" s="1"/>
-    </row>
-    <row r="70" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -8366,12 +8161,9 @@
       <c r="BY70" s="1"/>
       <c r="BZ70" s="1"/>
       <c r="CA70" s="1"/>
-      <c r="CB70" s="1"/>
-      <c r="CC70" s="1"/>
-      <c r="CD70" s="1"/>
-      <c r="CE70" s="2"/>
-    </row>
-    <row r="71" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="CB70" s="2"/>
+    </row>
+    <row r="71" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -8456,11 +8248,8 @@
       <c r="BZ71" s="1"/>
       <c r="CA71" s="1"/>
       <c r="CB71" s="1"/>
-      <c r="CC71" s="1"/>
-      <c r="CD71" s="1"/>
-      <c r="CE71" s="1"/>
-    </row>
-    <row r="72" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -8545,11 +8334,8 @@
       <c r="BZ72" s="1"/>
       <c r="CA72" s="1"/>
       <c r="CB72" s="1"/>
-      <c r="CC72" s="1"/>
-      <c r="CD72" s="1"/>
-      <c r="CE72" s="1"/>
-    </row>
-    <row r="73" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -8634,11 +8420,8 @@
       <c r="BZ73" s="1"/>
       <c r="CA73" s="1"/>
       <c r="CB73" s="1"/>
-      <c r="CC73" s="1"/>
-      <c r="CD73" s="1"/>
-      <c r="CE73" s="1"/>
-    </row>
-    <row r="74" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -8723,11 +8506,8 @@
       <c r="BZ74" s="1"/>
       <c r="CA74" s="1"/>
       <c r="CB74" s="1"/>
-      <c r="CC74" s="1"/>
-      <c r="CD74" s="1"/>
-      <c r="CE74" s="1"/>
-    </row>
-    <row r="75" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -8812,11 +8592,8 @@
       <c r="BZ75" s="1"/>
       <c r="CA75" s="1"/>
       <c r="CB75" s="1"/>
-      <c r="CC75" s="1"/>
-      <c r="CD75" s="1"/>
-      <c r="CE75" s="1"/>
-    </row>
-    <row r="76" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -8901,11 +8678,8 @@
       <c r="BZ76" s="1"/>
       <c r="CA76" s="1"/>
       <c r="CB76" s="1"/>
-      <c r="CC76" s="1"/>
-      <c r="CD76" s="1"/>
-      <c r="CE76" s="1"/>
-    </row>
-    <row r="77" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -8990,11 +8764,8 @@
       <c r="BZ77" s="1"/>
       <c r="CA77" s="1"/>
       <c r="CB77" s="1"/>
-      <c r="CC77" s="1"/>
-      <c r="CD77" s="1"/>
-      <c r="CE77" s="1"/>
-    </row>
-    <row r="78" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -9005,9 +8776,9 @@
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
       <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -9065,9 +8836,9 @@
       <c r="BL78" s="1"/>
       <c r="BM78" s="1"/>
       <c r="BN78" s="1"/>
-      <c r="BO78" s="1"/>
-      <c r="BP78" s="1"/>
-      <c r="BQ78" s="1"/>
+      <c r="BO78" s="16"/>
+      <c r="BP78" s="16"/>
+      <c r="BQ78" s="16"/>
       <c r="BR78" s="16"/>
       <c r="BS78" s="16"/>
       <c r="BT78" s="16"/>
@@ -9079,11 +8850,8 @@
       <c r="BZ78" s="16"/>
       <c r="CA78" s="16"/>
       <c r="CB78" s="16"/>
-      <c r="CC78" s="16"/>
-      <c r="CD78" s="16"/>
-      <c r="CE78" s="16"/>
-    </row>
-    <row r="79" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -9094,9 +8862,9 @@
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
       <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
@@ -9154,9 +8922,9 @@
       <c r="BL79" s="1"/>
       <c r="BM79" s="1"/>
       <c r="BN79" s="1"/>
-      <c r="BO79" s="1"/>
-      <c r="BP79" s="1"/>
-      <c r="BQ79" s="1"/>
+      <c r="BO79" s="16"/>
+      <c r="BP79" s="16"/>
+      <c r="BQ79" s="16"/>
       <c r="BR79" s="16"/>
       <c r="BS79" s="16"/>
       <c r="BT79" s="16"/>
@@ -9168,11 +8936,8 @@
       <c r="BZ79" s="16"/>
       <c r="CA79" s="16"/>
       <c r="CB79" s="16"/>
-      <c r="CC79" s="16"/>
-      <c r="CD79" s="16"/>
-      <c r="CE79" s="16"/>
-    </row>
-    <row r="80" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -9257,11 +9022,8 @@
       <c r="BZ80" s="1"/>
       <c r="CA80" s="1"/>
       <c r="CB80" s="1"/>
-      <c r="CC80" s="1"/>
-      <c r="CD80" s="1"/>
-      <c r="CE80" s="1"/>
-    </row>
-    <row r="81" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -9272,9 +9034,9 @@
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
       <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
@@ -9284,11 +9046,11 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
-      <c r="S81" s="1"/>
-      <c r="T81" s="1"/>
+      <c r="S81" s="16"/>
+      <c r="T81" s="16"/>
       <c r="U81" s="1"/>
-      <c r="V81" s="16"/>
-      <c r="W81" s="16"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
@@ -9310,10 +9072,10 @@
       <c r="AP81" s="1"/>
       <c r="AQ81" s="1"/>
       <c r="AR81" s="1"/>
-      <c r="AS81" s="1"/>
+      <c r="AS81" s="16"/>
       <c r="AT81" s="1"/>
       <c r="AU81" s="1"/>
-      <c r="AV81" s="16"/>
+      <c r="AV81" s="1"/>
       <c r="AW81" s="1"/>
       <c r="AX81" s="1"/>
       <c r="AY81" s="1"/>
@@ -9332,9 +9094,9 @@
       <c r="BL81" s="1"/>
       <c r="BM81" s="1"/>
       <c r="BN81" s="1"/>
-      <c r="BO81" s="1"/>
-      <c r="BP81" s="1"/>
-      <c r="BQ81" s="1"/>
+      <c r="BO81" s="16"/>
+      <c r="BP81" s="16"/>
+      <c r="BQ81" s="16"/>
       <c r="BR81" s="16"/>
       <c r="BS81" s="16"/>
       <c r="BT81" s="16"/>
@@ -9346,11 +9108,8 @@
       <c r="BZ81" s="16"/>
       <c r="CA81" s="16"/>
       <c r="CB81" s="16"/>
-      <c r="CC81" s="16"/>
-      <c r="CD81" s="16"/>
-      <c r="CE81" s="16"/>
-    </row>
-    <row r="82" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -9435,11 +9194,8 @@
       <c r="BZ82" s="1"/>
       <c r="CA82" s="1"/>
       <c r="CB82" s="1"/>
-      <c r="CC82" s="1"/>
-      <c r="CD82" s="1"/>
-      <c r="CE82" s="1"/>
-    </row>
-    <row r="83" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -9524,11 +9280,8 @@
       <c r="BZ83" s="1"/>
       <c r="CA83" s="1"/>
       <c r="CB83" s="1"/>
-      <c r="CC83" s="1"/>
-      <c r="CD83" s="1"/>
-      <c r="CE83" s="1"/>
-    </row>
-    <row r="84" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -9613,11 +9366,8 @@
       <c r="BZ84" s="1"/>
       <c r="CA84" s="1"/>
       <c r="CB84" s="1"/>
-      <c r="CC84" s="1"/>
-      <c r="CD84" s="1"/>
-      <c r="CE84" s="1"/>
-    </row>
-    <row r="85" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -9702,11 +9452,8 @@
       <c r="BZ85" s="1"/>
       <c r="CA85" s="1"/>
       <c r="CB85" s="1"/>
-      <c r="CC85" s="1"/>
-      <c r="CD85" s="1"/>
-      <c r="CE85" s="1"/>
-    </row>
-    <row r="86" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -9791,11 +9538,8 @@
       <c r="BZ86" s="1"/>
       <c r="CA86" s="1"/>
       <c r="CB86" s="1"/>
-      <c r="CC86" s="1"/>
-      <c r="CD86" s="1"/>
-      <c r="CE86" s="1"/>
-    </row>
-    <row r="87" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -9880,11 +9624,8 @@
       <c r="BZ87" s="1"/>
       <c r="CA87" s="1"/>
       <c r="CB87" s="1"/>
-      <c r="CC87" s="1"/>
-      <c r="CD87" s="1"/>
-      <c r="CE87" s="1"/>
-    </row>
-    <row r="88" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -9969,11 +9710,8 @@
       <c r="BZ88" s="1"/>
       <c r="CA88" s="1"/>
       <c r="CB88" s="1"/>
-      <c r="CC88" s="1"/>
-      <c r="CD88" s="1"/>
-      <c r="CE88" s="1"/>
-    </row>
-    <row r="89" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -10058,11 +9796,8 @@
       <c r="BZ89" s="1"/>
       <c r="CA89" s="1"/>
       <c r="CB89" s="1"/>
-      <c r="CC89" s="1"/>
-      <c r="CD89" s="1"/>
-      <c r="CE89" s="1"/>
-    </row>
-    <row r="90" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -10147,11 +9882,8 @@
       <c r="BZ90" s="1"/>
       <c r="CA90" s="1"/>
       <c r="CB90" s="1"/>
-      <c r="CC90" s="1"/>
-      <c r="CD90" s="1"/>
-      <c r="CE90" s="1"/>
-    </row>
-    <row r="91" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -10236,11 +9968,8 @@
       <c r="BZ91" s="1"/>
       <c r="CA91" s="1"/>
       <c r="CB91" s="1"/>
-      <c r="CC91" s="1"/>
-      <c r="CD91" s="1"/>
-      <c r="CE91" s="1"/>
-    </row>
-    <row r="92" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -10325,11 +10054,8 @@
       <c r="BZ92" s="1"/>
       <c r="CA92" s="1"/>
       <c r="CB92" s="1"/>
-      <c r="CC92" s="1"/>
-      <c r="CD92" s="1"/>
-      <c r="CE92" s="1"/>
-    </row>
-    <row r="93" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -10414,11 +10140,8 @@
       <c r="BZ93" s="1"/>
       <c r="CA93" s="1"/>
       <c r="CB93" s="1"/>
-      <c r="CC93" s="1"/>
-      <c r="CD93" s="1"/>
-      <c r="CE93" s="1"/>
-    </row>
-    <row r="94" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -10503,11 +10226,8 @@
       <c r="BZ94" s="1"/>
       <c r="CA94" s="1"/>
       <c r="CB94" s="1"/>
-      <c r="CC94" s="1"/>
-      <c r="CD94" s="1"/>
-      <c r="CE94" s="1"/>
-    </row>
-    <row r="95" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -10592,11 +10312,8 @@
       <c r="BZ95" s="1"/>
       <c r="CA95" s="1"/>
       <c r="CB95" s="1"/>
-      <c r="CC95" s="1"/>
-      <c r="CD95" s="1"/>
-      <c r="CE95" s="1"/>
-    </row>
-    <row r="96" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -10618,9 +10335,9 @@
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
-      <c r="R96" s="1"/>
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
@@ -10680,11 +10397,8 @@
       <c r="BZ96" s="1"/>
       <c r="CA96" s="1"/>
       <c r="CB96" s="1"/>
-      <c r="CC96" s="1"/>
-      <c r="CD96" s="1"/>
-      <c r="CE96" s="1"/>
-    </row>
-    <row r="97" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -10706,9 +10420,9 @@
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
-      <c r="R97" s="1"/>
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
@@ -10768,11 +10482,8 @@
       <c r="BZ97" s="1"/>
       <c r="CA97" s="1"/>
       <c r="CB97" s="1"/>
-      <c r="CC97" s="1"/>
-      <c r="CD97" s="1"/>
-      <c r="CE97" s="1"/>
-    </row>
-    <row r="98" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -10857,11 +10568,8 @@
       <c r="BZ98" s="1"/>
       <c r="CA98" s="1"/>
       <c r="CB98" s="1"/>
-      <c r="CC98" s="1"/>
-      <c r="CD98" s="1"/>
-      <c r="CE98" s="1"/>
-    </row>
-    <row r="99" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -10883,9 +10591,9 @@
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
-      <c r="R99" s="1"/>
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
@@ -10945,11 +10653,8 @@
       <c r="BZ99" s="1"/>
       <c r="CA99" s="1"/>
       <c r="CB99" s="1"/>
-      <c r="CC99" s="1"/>
-      <c r="CD99" s="1"/>
-      <c r="CE99" s="1"/>
-    </row>
-    <row r="100" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -11034,11 +10739,8 @@
       <c r="BZ100" s="1"/>
       <c r="CA100" s="1"/>
       <c r="CB100" s="1"/>
-      <c r="CC100" s="1"/>
-      <c r="CD100" s="1"/>
-      <c r="CE100" s="1"/>
-    </row>
-    <row r="101" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -11123,11 +10825,8 @@
       <c r="BZ101" s="1"/>
       <c r="CA101" s="1"/>
       <c r="CB101" s="1"/>
-      <c r="CC101" s="1"/>
-      <c r="CD101" s="1"/>
-      <c r="CE101" s="1"/>
-    </row>
-    <row r="102" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -11212,11 +10911,8 @@
       <c r="BZ102" s="1"/>
       <c r="CA102" s="1"/>
       <c r="CB102" s="1"/>
-      <c r="CC102" s="1"/>
-      <c r="CD102" s="1"/>
-      <c r="CE102" s="1"/>
-    </row>
-    <row r="103" spans="1:83" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:80" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
         <v>102</v>
       </c>
@@ -11238,10 +10934,10 @@
       <c r="O103" s="12"/>
       <c r="P103" s="12"/>
       <c r="Q103" s="12"/>
-      <c r="R103" s="12"/>
+      <c r="R103" s="13"/>
       <c r="S103" s="12"/>
       <c r="T103" s="12"/>
-      <c r="U103" s="13"/>
+      <c r="U103" s="12"/>
       <c r="V103" s="12"/>
       <c r="W103" s="12"/>
       <c r="X103" s="12"/>
@@ -11301,11 +10997,8 @@
       <c r="BZ103" s="12"/>
       <c r="CA103" s="12"/>
       <c r="CB103" s="12"/>
-      <c r="CC103" s="12"/>
-      <c r="CD103" s="12"/>
-      <c r="CE103" s="12"/>
-    </row>
-    <row r="104" spans="1:83" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:80" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
         <v>103</v>
       </c>
@@ -11390,11 +11083,8 @@
       <c r="BZ104" s="12"/>
       <c r="CA104" s="12"/>
       <c r="CB104" s="12"/>
-      <c r="CC104" s="12"/>
-      <c r="CD104" s="12"/>
-      <c r="CE104" s="12"/>
-    </row>
-    <row r="105" spans="1:83" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:80" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
         <v>104</v>
       </c>
@@ -11479,11 +11169,8 @@
       <c r="BZ105" s="12"/>
       <c r="CA105" s="12"/>
       <c r="CB105" s="12"/>
-      <c r="CC105" s="12"/>
-      <c r="CD105" s="12"/>
-      <c r="CE105" s="12"/>
-    </row>
-    <row r="106" spans="1:83" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:80" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
         <v>105</v>
       </c>
@@ -11505,9 +11192,9 @@
       <c r="O106" s="12"/>
       <c r="P106" s="12"/>
       <c r="Q106" s="12"/>
-      <c r="R106" s="12"/>
       <c r="S106" s="12"/>
       <c r="T106" s="12"/>
+      <c r="U106" s="12"/>
       <c r="V106" s="12"/>
       <c r="W106" s="12"/>
       <c r="X106" s="12"/>
@@ -11567,11 +11254,8 @@
       <c r="BZ106" s="12"/>
       <c r="CA106" s="12"/>
       <c r="CB106" s="12"/>
-      <c r="CC106" s="12"/>
-      <c r="CD106" s="12"/>
-      <c r="CE106" s="12"/>
-    </row>
-    <row r="107" spans="1:83" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:80" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
         <v>106</v>
       </c>
@@ -11656,11 +11340,8 @@
       <c r="BZ107" s="12"/>
       <c r="CA107" s="12"/>
       <c r="CB107" s="12"/>
-      <c r="CC107" s="12"/>
-      <c r="CD107" s="12"/>
-      <c r="CE107" s="12"/>
-    </row>
-    <row r="108" spans="1:83" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:80" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
         <v>107</v>
       </c>
@@ -11682,9 +11363,9 @@
       <c r="O108" s="12"/>
       <c r="P108" s="12"/>
       <c r="Q108" s="12"/>
-      <c r="R108" s="12"/>
       <c r="S108" s="12"/>
       <c r="T108" s="12"/>
+      <c r="U108" s="12"/>
       <c r="V108" s="12"/>
       <c r="W108" s="12"/>
       <c r="X108" s="12"/>
@@ -11744,11 +11425,8 @@
       <c r="BZ108" s="12"/>
       <c r="CA108" s="12"/>
       <c r="CB108" s="12"/>
-      <c r="CC108" s="12"/>
-      <c r="CD108" s="12"/>
-      <c r="CE108" s="12"/>
-    </row>
-    <row r="109" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -11833,11 +11511,8 @@
       <c r="BZ109" s="1"/>
       <c r="CA109" s="1"/>
       <c r="CB109" s="1"/>
-      <c r="CC109" s="1"/>
-      <c r="CD109" s="1"/>
-      <c r="CE109" s="1"/>
-    </row>
-    <row r="110" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -11922,11 +11597,8 @@
       <c r="BZ110" s="1"/>
       <c r="CA110" s="1"/>
       <c r="CB110" s="1"/>
-      <c r="CC110" s="1"/>
-      <c r="CD110" s="1"/>
-      <c r="CE110" s="1"/>
-    </row>
-    <row r="111" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -12011,11 +11683,8 @@
       <c r="BZ111" s="1"/>
       <c r="CA111" s="1"/>
       <c r="CB111" s="1"/>
-      <c r="CC111" s="1"/>
-      <c r="CD111" s="1"/>
-      <c r="CE111" s="1"/>
-    </row>
-    <row r="112" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -12100,11 +11769,8 @@
       <c r="BZ112" s="1"/>
       <c r="CA112" s="1"/>
       <c r="CB112" s="1"/>
-      <c r="CC112" s="1"/>
-      <c r="CD112" s="1"/>
-      <c r="CE112" s="1"/>
-    </row>
-    <row r="113" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -12189,11 +11855,8 @@
       <c r="BZ113" s="1"/>
       <c r="CA113" s="1"/>
       <c r="CB113" s="1"/>
-      <c r="CC113" s="1"/>
-      <c r="CD113" s="1"/>
-      <c r="CE113" s="1"/>
-    </row>
-    <row r="114" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -12278,11 +11941,8 @@
       <c r="BZ114" s="1"/>
       <c r="CA114" s="1"/>
       <c r="CB114" s="1"/>
-      <c r="CC114" s="1"/>
-      <c r="CD114" s="1"/>
-      <c r="CE114" s="1"/>
-    </row>
-    <row r="115" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -12367,11 +12027,8 @@
       <c r="BZ115" s="1"/>
       <c r="CA115" s="1"/>
       <c r="CB115" s="1"/>
-      <c r="CC115" s="1"/>
-      <c r="CD115" s="1"/>
-      <c r="CE115" s="1"/>
-    </row>
-    <row r="116" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -12456,11 +12113,8 @@
       <c r="BZ116" s="1"/>
       <c r="CA116" s="1"/>
       <c r="CB116" s="1"/>
-      <c r="CC116" s="1"/>
-      <c r="CD116" s="1"/>
-      <c r="CE116" s="1"/>
-    </row>
-    <row r="117" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -12545,11 +12199,8 @@
       <c r="BZ117" s="1"/>
       <c r="CA117" s="1"/>
       <c r="CB117" s="1"/>
-      <c r="CC117" s="1"/>
-      <c r="CD117" s="1"/>
-      <c r="CE117" s="1"/>
-    </row>
-    <row r="118" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -12634,11 +12285,8 @@
       <c r="BZ118" s="1"/>
       <c r="CA118" s="1"/>
       <c r="CB118" s="1"/>
-      <c r="CC118" s="1"/>
-      <c r="CD118" s="1"/>
-      <c r="CE118" s="1"/>
-    </row>
-    <row r="119" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -12723,11 +12371,8 @@
       <c r="BZ119" s="1"/>
       <c r="CA119" s="1"/>
       <c r="CB119" s="1"/>
-      <c r="CC119" s="1"/>
-      <c r="CD119" s="1"/>
-      <c r="CE119" s="1"/>
-    </row>
-    <row r="120" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -12812,11 +12457,8 @@
       <c r="BZ120" s="1"/>
       <c r="CA120" s="1"/>
       <c r="CB120" s="1"/>
-      <c r="CC120" s="1"/>
-      <c r="CD120" s="1"/>
-      <c r="CE120" s="1"/>
-    </row>
-    <row r="121" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -12901,11 +12543,8 @@
       <c r="BZ121" s="1"/>
       <c r="CA121" s="1"/>
       <c r="CB121" s="1"/>
-      <c r="CC121" s="1"/>
-      <c r="CD121" s="1"/>
-      <c r="CE121" s="1"/>
-    </row>
-    <row r="122" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -12990,11 +12629,8 @@
       <c r="BZ122" s="1"/>
       <c r="CA122" s="1"/>
       <c r="CB122" s="1"/>
-      <c r="CC122" s="1"/>
-      <c r="CD122" s="1"/>
-      <c r="CE122" s="1"/>
-    </row>
-    <row r="123" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -13079,11 +12715,8 @@
       <c r="BZ123" s="1"/>
       <c r="CA123" s="1"/>
       <c r="CB123" s="1"/>
-      <c r="CC123" s="1"/>
-      <c r="CD123" s="1"/>
-      <c r="CE123" s="1"/>
-    </row>
-    <row r="124" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -13168,11 +12801,8 @@
       <c r="BZ124" s="1"/>
       <c r="CA124" s="1"/>
       <c r="CB124" s="1"/>
-      <c r="CC124" s="1"/>
-      <c r="CD124" s="1"/>
-      <c r="CE124" s="1"/>
-    </row>
-    <row r="125" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -13257,11 +12887,8 @@
       <c r="BZ125" s="1"/>
       <c r="CA125" s="1"/>
       <c r="CB125" s="1"/>
-      <c r="CC125" s="1"/>
-      <c r="CD125" s="1"/>
-      <c r="CE125" s="1"/>
-    </row>
-    <row r="126" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -13346,11 +12973,8 @@
       <c r="BZ126" s="1"/>
       <c r="CA126" s="1"/>
       <c r="CB126" s="1"/>
-      <c r="CC126" s="1"/>
-      <c r="CD126" s="1"/>
-      <c r="CE126" s="1"/>
-    </row>
-    <row r="127" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -13373,9 +12997,9 @@
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
-      <c r="S127" s="1"/>
-      <c r="T127" s="1"/>
-      <c r="U127" s="1"/>
+      <c r="AA127" s="1"/>
+      <c r="AB127" s="1"/>
+      <c r="AC127" s="1"/>
       <c r="AD127" s="1"/>
       <c r="AE127" s="1"/>
       <c r="AF127" s="1"/>
@@ -13406,9 +13030,9 @@
       <c r="BE127" s="1"/>
       <c r="BF127" s="1"/>
       <c r="BG127" s="1"/>
-      <c r="BH127" s="1"/>
       <c r="BI127" s="1"/>
       <c r="BJ127" s="1"/>
+      <c r="BK127" s="1"/>
       <c r="BL127" s="1"/>
       <c r="BM127" s="1"/>
       <c r="BN127" s="1"/>
@@ -13426,11 +13050,8 @@
       <c r="BZ127" s="1"/>
       <c r="CA127" s="1"/>
       <c r="CB127" s="1"/>
-      <c r="CC127" s="1"/>
-      <c r="CD127" s="1"/>
-      <c r="CE127" s="1"/>
-    </row>
-    <row r="128" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -13453,9 +13074,9 @@
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
-      <c r="S128" s="1"/>
-      <c r="T128" s="1"/>
-      <c r="U128" s="1"/>
+      <c r="AA128" s="1"/>
+      <c r="AB128" s="1"/>
+      <c r="AC128" s="1"/>
       <c r="AD128" s="1"/>
       <c r="AE128" s="1"/>
       <c r="AF128" s="1"/>
@@ -13486,9 +13107,9 @@
       <c r="BE128" s="1"/>
       <c r="BF128" s="1"/>
       <c r="BG128" s="1"/>
-      <c r="BH128" s="1"/>
       <c r="BI128" s="1"/>
       <c r="BJ128" s="1"/>
+      <c r="BK128" s="1"/>
       <c r="BL128" s="1"/>
       <c r="BM128" s="1"/>
       <c r="BN128" s="1"/>
@@ -13506,11 +13127,8 @@
       <c r="BZ128" s="1"/>
       <c r="CA128" s="1"/>
       <c r="CB128" s="1"/>
-      <c r="CC128" s="1"/>
-      <c r="CD128" s="1"/>
-      <c r="CE128" s="1"/>
-    </row>
-    <row r="129" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -13577,10 +13195,10 @@
       <c r="BH129" s="1"/>
       <c r="BI129" s="1"/>
       <c r="BJ129" s="1"/>
-      <c r="BK129" s="1"/>
+      <c r="BK129" s="2"/>
       <c r="BL129" s="1"/>
       <c r="BM129" s="1"/>
-      <c r="BN129" s="2"/>
+      <c r="BN129" s="1"/>
       <c r="BO129" s="1"/>
       <c r="BP129" s="1"/>
       <c r="BQ129" s="1"/>
@@ -13595,11 +13213,8 @@
       <c r="BZ129" s="1"/>
       <c r="CA129" s="1"/>
       <c r="CB129" s="1"/>
-      <c r="CC129" s="1"/>
-      <c r="CD129" s="1"/>
-      <c r="CE129" s="1"/>
-    </row>
-    <row r="130" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -13622,9 +13237,9 @@
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
-      <c r="S130" s="1"/>
-      <c r="T130" s="1"/>
-      <c r="U130" s="1"/>
+      <c r="AA130" s="1"/>
+      <c r="AB130" s="1"/>
+      <c r="AC130" s="1"/>
       <c r="AD130" s="1"/>
       <c r="AE130" s="1"/>
       <c r="AF130" s="1"/>
@@ -13655,9 +13270,9 @@
       <c r="BE130" s="1"/>
       <c r="BF130" s="1"/>
       <c r="BG130" s="1"/>
-      <c r="BH130" s="1"/>
       <c r="BI130" s="1"/>
       <c r="BJ130" s="1"/>
+      <c r="BK130" s="1"/>
       <c r="BL130" s="1"/>
       <c r="BM130" s="1"/>
       <c r="BN130" s="1"/>
@@ -13675,11 +13290,8 @@
       <c r="BZ130" s="1"/>
       <c r="CA130" s="1"/>
       <c r="CB130" s="1"/>
-      <c r="CC130" s="1"/>
-      <c r="CD130" s="1"/>
-      <c r="CE130" s="1"/>
-    </row>
-    <row r="131" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -13764,11 +13376,8 @@
       <c r="BZ131" s="1"/>
       <c r="CA131" s="1"/>
       <c r="CB131" s="1"/>
-      <c r="CC131" s="1"/>
-      <c r="CD131" s="1"/>
-      <c r="CE131" s="1"/>
-    </row>
-    <row r="132" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -13831,10 +13440,10 @@
       <c r="BD132" s="1"/>
       <c r="BE132" s="1"/>
       <c r="BF132" s="1"/>
-      <c r="BG132" s="1"/>
+      <c r="BG132" s="2"/>
       <c r="BH132" s="1"/>
       <c r="BI132" s="1"/>
-      <c r="BJ132" s="2"/>
+      <c r="BJ132" s="1"/>
       <c r="BK132" s="1"/>
       <c r="BL132" s="1"/>
       <c r="BM132" s="1"/>
@@ -13853,11 +13462,8 @@
       <c r="BZ132" s="1"/>
       <c r="CA132" s="1"/>
       <c r="CB132" s="1"/>
-      <c r="CC132" s="1"/>
-      <c r="CD132" s="1"/>
-      <c r="CE132" s="1"/>
-    </row>
-    <row r="133" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -13881,10 +13487,10 @@
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
       <c r="S133" s="1"/>
-      <c r="T133" s="1"/>
+      <c r="T133" s="2"/>
       <c r="U133" s="1"/>
       <c r="V133" s="1"/>
-      <c r="W133" s="2"/>
+      <c r="W133" s="1"/>
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
@@ -13942,11 +13548,8 @@
       <c r="BZ133" s="1"/>
       <c r="CA133" s="1"/>
       <c r="CB133" s="1"/>
-      <c r="CC133" s="1"/>
-      <c r="CD133" s="1"/>
-      <c r="CE133" s="1"/>
-    </row>
-    <row r="134" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -14016,10 +13619,10 @@
       <c r="BK134" s="1"/>
       <c r="BL134" s="1"/>
       <c r="BM134" s="1"/>
-      <c r="BN134" s="1"/>
+      <c r="BN134" s="2"/>
       <c r="BO134" s="1"/>
       <c r="BP134" s="1"/>
-      <c r="BQ134" s="2"/>
+      <c r="BQ134" s="1"/>
       <c r="BR134" s="1"/>
       <c r="BS134" s="1"/>
       <c r="BT134" s="1"/>
@@ -14031,11 +13634,8 @@
       <c r="BZ134" s="1"/>
       <c r="CA134" s="1"/>
       <c r="CB134" s="1"/>
-      <c r="CC134" s="1"/>
-      <c r="CD134" s="1"/>
-      <c r="CE134" s="1"/>
-    </row>
-    <row r="135" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -14120,11 +13720,8 @@
       <c r="BZ135" s="1"/>
       <c r="CA135" s="1"/>
       <c r="CB135" s="1"/>
-      <c r="CC135" s="1"/>
-      <c r="CD135" s="1"/>
-      <c r="CE135" s="1"/>
-    </row>
-    <row r="136" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -14157,13 +13754,13 @@
       <c r="Z136" s="1"/>
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
-      <c r="AC136" s="1"/>
+      <c r="AC136" s="2"/>
       <c r="AD136" s="1"/>
       <c r="AE136" s="1"/>
       <c r="AF136" s="2"/>
       <c r="AG136" s="1"/>
       <c r="AH136" s="1"/>
-      <c r="AI136" s="2"/>
+      <c r="AI136" s="1"/>
       <c r="AJ136" s="1"/>
       <c r="AK136" s="1"/>
       <c r="AL136" s="1"/>
@@ -14209,11 +13806,8 @@
       <c r="BZ136" s="1"/>
       <c r="CA136" s="1"/>
       <c r="CB136" s="1"/>
-      <c r="CC136" s="1"/>
-      <c r="CD136" s="1"/>
-      <c r="CE136" s="1"/>
-    </row>
-    <row r="137" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -14298,11 +13892,8 @@
       <c r="BZ137" s="1"/>
       <c r="CA137" s="1"/>
       <c r="CB137" s="1"/>
-      <c r="CC137" s="1"/>
-      <c r="CD137" s="1"/>
-      <c r="CE137" s="1"/>
-    </row>
-    <row r="138" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -14330,10 +13921,10 @@
       <c r="U138" s="1"/>
       <c r="V138" s="1"/>
       <c r="W138" s="1"/>
-      <c r="X138" s="1"/>
+      <c r="X138" s="2"/>
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
-      <c r="AA138" s="2"/>
+      <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
       <c r="AC138" s="1"/>
       <c r="AD138" s="1"/>
@@ -14387,11 +13978,8 @@
       <c r="BZ138" s="1"/>
       <c r="CA138" s="1"/>
       <c r="CB138" s="1"/>
-      <c r="CC138" s="1"/>
-      <c r="CD138" s="1"/>
-      <c r="CE138" s="1"/>
-    </row>
-    <row r="139" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -14476,11 +14064,8 @@
       <c r="BZ139" s="1"/>
       <c r="CA139" s="1"/>
       <c r="CB139" s="1"/>
-      <c r="CC139" s="1"/>
-      <c r="CD139" s="1"/>
-      <c r="CE139" s="1"/>
-    </row>
-    <row r="140" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -14565,11 +14150,8 @@
       <c r="BZ140" s="1"/>
       <c r="CA140" s="1"/>
       <c r="CB140" s="1"/>
-      <c r="CC140" s="1"/>
-      <c r="CD140" s="1"/>
-      <c r="CE140" s="1"/>
-    </row>
-    <row r="141" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -14654,11 +14236,8 @@
       <c r="BZ141" s="1"/>
       <c r="CA141" s="1"/>
       <c r="CB141" s="1"/>
-      <c r="CC141" s="1"/>
-      <c r="CD141" s="1"/>
-      <c r="CE141" s="1"/>
-    </row>
-    <row r="142" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -14743,11 +14322,8 @@
       <c r="BZ142" s="1"/>
       <c r="CA142" s="1"/>
       <c r="CB142" s="1"/>
-      <c r="CC142" s="1"/>
-      <c r="CD142" s="1"/>
-      <c r="CE142" s="1"/>
-    </row>
-    <row r="143" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -14832,11 +14408,8 @@
       <c r="BZ143" s="1"/>
       <c r="CA143" s="1"/>
       <c r="CB143" s="1"/>
-      <c r="CC143" s="1"/>
-      <c r="CD143" s="1"/>
-      <c r="CE143" s="1"/>
-    </row>
-    <row r="144" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -14921,11 +14494,8 @@
       <c r="BZ144" s="1"/>
       <c r="CA144" s="1"/>
       <c r="CB144" s="1"/>
-      <c r="CC144" s="1"/>
-      <c r="CD144" s="1"/>
-      <c r="CE144" s="1"/>
-    </row>
-    <row r="145" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -15010,11 +14580,8 @@
       <c r="BZ145" s="1"/>
       <c r="CA145" s="1"/>
       <c r="CB145" s="1"/>
-      <c r="CC145" s="1"/>
-      <c r="CD145" s="1"/>
-      <c r="CE145" s="1"/>
-    </row>
-    <row r="146" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -15099,11 +14666,8 @@
       <c r="BZ146" s="1"/>
       <c r="CA146" s="1"/>
       <c r="CB146" s="1"/>
-      <c r="CC146" s="1"/>
-      <c r="CD146" s="1"/>
-      <c r="CE146" s="1"/>
-    </row>
-    <row r="147" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -15188,11 +14752,8 @@
       <c r="BZ147" s="1"/>
       <c r="CA147" s="1"/>
       <c r="CB147" s="1"/>
-      <c r="CC147" s="1"/>
-      <c r="CD147" s="1"/>
-      <c r="CE147" s="1"/>
-    </row>
-    <row r="148" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -15277,11 +14838,8 @@
       <c r="BZ148" s="1"/>
       <c r="CA148" s="1"/>
       <c r="CB148" s="1"/>
-      <c r="CC148" s="1"/>
-      <c r="CD148" s="1"/>
-      <c r="CE148" s="1"/>
-    </row>
-    <row r="149" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -15337,10 +14895,10 @@
       <c r="AW149" s="1"/>
       <c r="AX149" s="1"/>
       <c r="AY149" s="1"/>
-      <c r="AZ149" s="1"/>
+      <c r="AZ149" s="2"/>
       <c r="BA149" s="1"/>
       <c r="BB149" s="1"/>
-      <c r="BC149" s="2"/>
+      <c r="BC149" s="1"/>
       <c r="BD149" s="1"/>
       <c r="BE149" s="1"/>
       <c r="BF149" s="1"/>
@@ -15366,11 +14924,8 @@
       <c r="BZ149" s="1"/>
       <c r="CA149" s="1"/>
       <c r="CB149" s="1"/>
-      <c r="CC149" s="1"/>
-      <c r="CD149" s="1"/>
-      <c r="CE149" s="1"/>
-    </row>
-    <row r="150" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -15455,11 +15010,8 @@
       <c r="BZ150" s="1"/>
       <c r="CA150" s="1"/>
       <c r="CB150" s="1"/>
-      <c r="CC150" s="1"/>
-      <c r="CD150" s="1"/>
-      <c r="CE150" s="1"/>
-    </row>
-    <row r="151" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -15544,11 +15096,8 @@
       <c r="BZ151" s="1"/>
       <c r="CA151" s="1"/>
       <c r="CB151" s="1"/>
-      <c r="CC151" s="1"/>
-      <c r="CD151" s="1"/>
-      <c r="CE151" s="1"/>
-    </row>
-    <row r="152" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -15633,11 +15182,8 @@
       <c r="BZ152" s="1"/>
       <c r="CA152" s="1"/>
       <c r="CB152" s="1"/>
-      <c r="CC152" s="1"/>
-      <c r="CD152" s="1"/>
-      <c r="CE152" s="1"/>
-    </row>
-    <row r="153" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -15722,11 +15268,8 @@
       <c r="BZ153" s="1"/>
       <c r="CA153" s="1"/>
       <c r="CB153" s="1"/>
-      <c r="CC153" s="1"/>
-      <c r="CD153" s="1"/>
-      <c r="CE153" s="1"/>
-    </row>
-    <row r="154" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -15811,11 +15354,8 @@
       <c r="BZ154" s="1"/>
       <c r="CA154" s="1"/>
       <c r="CB154" s="1"/>
-      <c r="CC154" s="1"/>
-      <c r="CD154" s="1"/>
-      <c r="CE154" s="1"/>
-    </row>
-    <row r="155" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -15823,10 +15363,10 @@
         <v>358</v>
       </c>
       <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
+      <c r="D155" s="2"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
-      <c r="G155" s="2"/>
+      <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
@@ -15900,11 +15440,8 @@
       <c r="BZ155" s="1"/>
       <c r="CA155" s="1"/>
       <c r="CB155" s="1"/>
-      <c r="CC155" s="1"/>
-      <c r="CD155" s="1"/>
-      <c r="CE155" s="1"/>
-    </row>
-    <row r="156" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -15989,11 +15526,8 @@
       <c r="BZ156" s="1"/>
       <c r="CA156" s="1"/>
       <c r="CB156" s="1"/>
-      <c r="CC156" s="1"/>
-      <c r="CD156" s="1"/>
-      <c r="CE156" s="1"/>
-    </row>
-    <row r="157" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -16078,11 +15612,8 @@
       <c r="BZ157" s="1"/>
       <c r="CA157" s="1"/>
       <c r="CB157" s="1"/>
-      <c r="CC157" s="1"/>
-      <c r="CD157" s="1"/>
-      <c r="CE157" s="1"/>
-    </row>
-    <row r="158" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -16104,9 +15635,9 @@
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
-      <c r="R158" s="1"/>
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
+      <c r="U158" s="1"/>
       <c r="V158" s="1"/>
       <c r="W158" s="1"/>
       <c r="X158" s="1"/>
@@ -16166,11 +15697,8 @@
       <c r="BZ158" s="1"/>
       <c r="CA158" s="1"/>
       <c r="CB158" s="1"/>
-      <c r="CC158" s="1"/>
-      <c r="CD158" s="1"/>
-      <c r="CE158" s="1"/>
-    </row>
-    <row r="159" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -16255,11 +15783,8 @@
       <c r="BZ159" s="1"/>
       <c r="CA159" s="1"/>
       <c r="CB159" s="1"/>
-      <c r="CC159" s="1"/>
-      <c r="CD159" s="1"/>
-      <c r="CE159" s="1"/>
-    </row>
-    <row r="160" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -16344,11 +15869,8 @@
       <c r="BZ160" s="1"/>
       <c r="CA160" s="1"/>
       <c r="CB160" s="1"/>
-      <c r="CC160" s="1"/>
-      <c r="CD160" s="1"/>
-      <c r="CE160" s="1"/>
-    </row>
-    <row r="161" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -16433,11 +15955,8 @@
       <c r="BZ161" s="1"/>
       <c r="CA161" s="1"/>
       <c r="CB161" s="1"/>
-      <c r="CC161" s="1"/>
-      <c r="CD161" s="1"/>
-      <c r="CE161" s="1"/>
-    </row>
-    <row r="162" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -16522,11 +16041,8 @@
       <c r="BZ162" s="1"/>
       <c r="CA162" s="1"/>
       <c r="CB162" s="1"/>
-      <c r="CC162" s="1"/>
-      <c r="CD162" s="1"/>
-      <c r="CE162" s="1"/>
-    </row>
-    <row r="163" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -16542,10 +16058,10 @@
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
-      <c r="L163" s="1"/>
+      <c r="L163" s="2"/>
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
-      <c r="O163" s="2"/>
+      <c r="O163" s="1"/>
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
@@ -16611,11 +16127,8 @@
       <c r="BZ163" s="1"/>
       <c r="CA163" s="1"/>
       <c r="CB163" s="1"/>
-      <c r="CC163" s="1"/>
-      <c r="CD163" s="1"/>
-      <c r="CE163" s="1"/>
-    </row>
-    <row r="164" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -16700,11 +16213,8 @@
       <c r="BZ164" s="1"/>
       <c r="CA164" s="1"/>
       <c r="CB164" s="1"/>
-      <c r="CC164" s="1"/>
-      <c r="CD164" s="1"/>
-      <c r="CE164" s="1"/>
-    </row>
-    <row r="165" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -16789,11 +16299,8 @@
       <c r="BZ165" s="1"/>
       <c r="CA165" s="1"/>
       <c r="CB165" s="1"/>
-      <c r="CC165" s="1"/>
-      <c r="CD165" s="1"/>
-      <c r="CE165" s="1"/>
-    </row>
-    <row r="166" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -16878,11 +16385,8 @@
       <c r="BZ166" s="1"/>
       <c r="CA166" s="1"/>
       <c r="CB166" s="1"/>
-      <c r="CC166" s="1"/>
-      <c r="CD166" s="1"/>
-      <c r="CE166" s="1"/>
-    </row>
-    <row r="167" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -16967,11 +16471,8 @@
       <c r="BZ167" s="1"/>
       <c r="CA167" s="1"/>
       <c r="CB167" s="1"/>
-      <c r="CC167" s="1"/>
-      <c r="CD167" s="1"/>
-      <c r="CE167" s="1"/>
-    </row>
-    <row r="168" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -17056,11 +16557,8 @@
       <c r="BZ168" s="1"/>
       <c r="CA168" s="1"/>
       <c r="CB168" s="1"/>
-      <c r="CC168" s="1"/>
-      <c r="CD168" s="1"/>
-      <c r="CE168" s="1"/>
-    </row>
-    <row r="169" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -17145,11 +16643,8 @@
       <c r="BZ169" s="1"/>
       <c r="CA169" s="1"/>
       <c r="CB169" s="1"/>
-      <c r="CC169" s="1"/>
-      <c r="CD169" s="1"/>
-      <c r="CE169" s="1"/>
-    </row>
-    <row r="170" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -17234,11 +16729,8 @@
       <c r="BZ170" s="1"/>
       <c r="CA170" s="1"/>
       <c r="CB170" s="1"/>
-      <c r="CC170" s="1"/>
-      <c r="CD170" s="1"/>
-      <c r="CE170" s="1"/>
-    </row>
-    <row r="171" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -17323,11 +16815,8 @@
       <c r="BZ171" s="1"/>
       <c r="CA171" s="1"/>
       <c r="CB171" s="1"/>
-      <c r="CC171" s="1"/>
-      <c r="CD171" s="1"/>
-      <c r="CE171" s="1"/>
-    </row>
-    <row r="172" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -17412,11 +16901,8 @@
       <c r="BZ172" s="1"/>
       <c r="CA172" s="1"/>
       <c r="CB172" s="1"/>
-      <c r="CC172" s="1"/>
-      <c r="CD172" s="1"/>
-      <c r="CE172" s="1"/>
-    </row>
-    <row r="173" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -17501,11 +16987,8 @@
       <c r="BZ173" s="1"/>
       <c r="CA173" s="1"/>
       <c r="CB173" s="1"/>
-      <c r="CC173" s="1"/>
-      <c r="CD173" s="1"/>
-      <c r="CE173" s="1"/>
-    </row>
-    <row r="174" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -17590,11 +17073,8 @@
       <c r="BZ174" s="1"/>
       <c r="CA174" s="1"/>
       <c r="CB174" s="1"/>
-      <c r="CC174" s="1"/>
-      <c r="CD174" s="1"/>
-      <c r="CE174" s="1"/>
-    </row>
-    <row r="175" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -17622,10 +17102,10 @@
       <c r="U175" s="1"/>
       <c r="V175" s="1"/>
       <c r="W175" s="1"/>
-      <c r="X175" s="1"/>
+      <c r="X175" s="2"/>
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
-      <c r="AA175" s="2"/>
+      <c r="AA175" s="1"/>
       <c r="AB175" s="1"/>
       <c r="AC175" s="1"/>
       <c r="AD175" s="1"/>
@@ -17679,11 +17159,8 @@
       <c r="BZ175" s="1"/>
       <c r="CA175" s="1"/>
       <c r="CB175" s="1"/>
-      <c r="CC175" s="1"/>
-      <c r="CD175" s="1"/>
-      <c r="CE175" s="1"/>
-    </row>
-    <row r="176" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -17768,11 +17245,8 @@
       <c r="BZ176" s="1"/>
       <c r="CA176" s="1"/>
       <c r="CB176" s="1"/>
-      <c r="CC176" s="1"/>
-      <c r="CD176" s="1"/>
-      <c r="CE176" s="1"/>
-    </row>
-    <row r="177" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -17857,11 +17331,8 @@
       <c r="BZ177" s="1"/>
       <c r="CA177" s="1"/>
       <c r="CB177" s="1"/>
-      <c r="CC177" s="1"/>
-      <c r="CD177" s="1"/>
-      <c r="CE177" s="1"/>
-    </row>
-    <row r="178" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -17946,11 +17417,8 @@
       <c r="BZ178" s="1"/>
       <c r="CA178" s="1"/>
       <c r="CB178" s="1"/>
-      <c r="CC178" s="1"/>
-      <c r="CD178" s="1"/>
-      <c r="CE178" s="1"/>
-    </row>
-    <row r="179" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -18035,11 +17503,8 @@
       <c r="BZ179" s="1"/>
       <c r="CA179" s="1"/>
       <c r="CB179" s="1"/>
-      <c r="CC179" s="1"/>
-      <c r="CD179" s="1"/>
-      <c r="CE179" s="1"/>
-    </row>
-    <row r="180" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -18124,11 +17589,8 @@
       <c r="BZ180" s="1"/>
       <c r="CA180" s="1"/>
       <c r="CB180" s="1"/>
-      <c r="CC180" s="1"/>
-      <c r="CD180" s="1"/>
-      <c r="CE180" s="1"/>
-    </row>
-    <row r="181" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -18173,10 +17635,10 @@
       <c r="AL181" s="1"/>
       <c r="AM181" s="1"/>
       <c r="AN181" s="1"/>
-      <c r="AO181" s="1"/>
+      <c r="AO181" s="2"/>
       <c r="AP181" s="1"/>
       <c r="AQ181" s="1"/>
-      <c r="AR181" s="2"/>
+      <c r="AR181" s="1"/>
       <c r="AS181" s="1"/>
       <c r="AT181" s="1"/>
       <c r="AU181" s="1"/>
@@ -18213,11 +17675,8 @@
       <c r="BZ181" s="1"/>
       <c r="CA181" s="1"/>
       <c r="CB181" s="1"/>
-      <c r="CC181" s="1"/>
-      <c r="CD181" s="1"/>
-      <c r="CE181" s="1"/>
-    </row>
-    <row r="182" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -18302,11 +17761,8 @@
       <c r="BZ182" s="1"/>
       <c r="CA182" s="1"/>
       <c r="CB182" s="1"/>
-      <c r="CC182" s="1"/>
-      <c r="CD182" s="1"/>
-      <c r="CE182" s="1"/>
-    </row>
-    <row r="183" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -18391,11 +17847,8 @@
       <c r="BZ183" s="1"/>
       <c r="CA183" s="1"/>
       <c r="CB183" s="1"/>
-      <c r="CC183" s="1"/>
-      <c r="CD183" s="1"/>
-      <c r="CE183" s="1"/>
-    </row>
-    <row r="184" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -18480,11 +17933,8 @@
       <c r="BZ184" s="1"/>
       <c r="CA184" s="1"/>
       <c r="CB184" s="1"/>
-      <c r="CC184" s="1"/>
-      <c r="CD184" s="1"/>
-      <c r="CE184" s="1"/>
-    </row>
-    <row r="185" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -18569,11 +18019,8 @@
       <c r="BZ185" s="1"/>
       <c r="CA185" s="1"/>
       <c r="CB185" s="1"/>
-      <c r="CC185" s="1"/>
-      <c r="CD185" s="1"/>
-      <c r="CE185" s="1"/>
-    </row>
-    <row r="186" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -18658,11 +18105,8 @@
       <c r="BZ186" s="1"/>
       <c r="CA186" s="1"/>
       <c r="CB186" s="1"/>
-      <c r="CC186" s="1"/>
-      <c r="CD186" s="1"/>
-      <c r="CE186" s="1"/>
-    </row>
-    <row r="187" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -18747,11 +18191,8 @@
       <c r="BZ187" s="1"/>
       <c r="CA187" s="1"/>
       <c r="CB187" s="1"/>
-      <c r="CC187" s="1"/>
-      <c r="CD187" s="1"/>
-      <c r="CE187" s="1"/>
-    </row>
-    <row r="188" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -18836,11 +18277,8 @@
       <c r="BZ188" s="1"/>
       <c r="CA188" s="1"/>
       <c r="CB188" s="1"/>
-      <c r="CC188" s="1"/>
-      <c r="CD188" s="1"/>
-      <c r="CE188" s="1"/>
-    </row>
-    <row r="189" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -18925,11 +18363,8 @@
       <c r="BZ189" s="1"/>
       <c r="CA189" s="1"/>
       <c r="CB189" s="1"/>
-      <c r="CC189" s="1"/>
-      <c r="CD189" s="1"/>
-      <c r="CE189" s="1"/>
-    </row>
-    <row r="190" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -19014,11 +18449,8 @@
       <c r="BZ190" s="1"/>
       <c r="CA190" s="1"/>
       <c r="CB190" s="1"/>
-      <c r="CC190" s="1"/>
-      <c r="CD190" s="1"/>
-      <c r="CE190" s="1"/>
-    </row>
-    <row r="191" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -19103,11 +18535,8 @@
       <c r="BZ191" s="1"/>
       <c r="CA191" s="1"/>
       <c r="CB191" s="1"/>
-      <c r="CC191" s="1"/>
-      <c r="CD191" s="1"/>
-      <c r="CE191" s="1"/>
-    </row>
-    <row r="192" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -19192,11 +18621,8 @@
       <c r="BZ192" s="1"/>
       <c r="CA192" s="1"/>
       <c r="CB192" s="1"/>
-      <c r="CC192" s="1"/>
-      <c r="CD192" s="1"/>
-      <c r="CE192" s="1"/>
-    </row>
-    <row r="193" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -19271,21 +18697,18 @@
       <c r="BP193" s="1"/>
       <c r="BQ193" s="1"/>
       <c r="BR193" s="1"/>
-      <c r="BS193" s="1"/>
+      <c r="BS193" s="2"/>
       <c r="BT193" s="1"/>
       <c r="BU193" s="1"/>
-      <c r="BV193" s="2"/>
+      <c r="BV193" s="1"/>
       <c r="BW193" s="1"/>
       <c r="BX193" s="1"/>
       <c r="BY193" s="1"/>
       <c r="BZ193" s="1"/>
       <c r="CA193" s="1"/>
       <c r="CB193" s="1"/>
-      <c r="CC193" s="1"/>
-      <c r="CD193" s="1"/>
-      <c r="CE193" s="1"/>
-    </row>
-    <row r="194" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -19370,11 +18793,8 @@
       <c r="BZ194" s="1"/>
       <c r="CA194" s="1"/>
       <c r="CB194" s="1"/>
-      <c r="CC194" s="1"/>
-      <c r="CD194" s="1"/>
-      <c r="CE194" s="1"/>
-    </row>
-    <row r="195" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -19459,11 +18879,8 @@
       <c r="BZ195" s="1"/>
       <c r="CA195" s="1"/>
       <c r="CB195" s="1"/>
-      <c r="CC195" s="1"/>
-      <c r="CD195" s="1"/>
-      <c r="CE195" s="1"/>
-    </row>
-    <row r="196" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -19478,10 +18895,10 @@
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
-      <c r="K196" s="1"/>
+      <c r="K196" s="2"/>
       <c r="L196" s="1"/>
       <c r="M196" s="1"/>
-      <c r="N196" s="2"/>
+      <c r="N196" s="1"/>
       <c r="O196" s="1"/>
       <c r="P196" s="1"/>
       <c r="Q196" s="1"/>
@@ -19548,11 +18965,8 @@
       <c r="BZ196" s="1"/>
       <c r="CA196" s="1"/>
       <c r="CB196" s="1"/>
-      <c r="CC196" s="1"/>
-      <c r="CD196" s="1"/>
-      <c r="CE196" s="1"/>
-    </row>
-    <row r="197" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -19619,10 +19033,10 @@
       <c r="BH197" s="1"/>
       <c r="BI197" s="1"/>
       <c r="BJ197" s="1"/>
-      <c r="BK197" s="1"/>
+      <c r="BK197" s="2"/>
       <c r="BL197" s="1"/>
       <c r="BM197" s="1"/>
-      <c r="BN197" s="2"/>
+      <c r="BN197" s="1"/>
       <c r="BO197" s="1"/>
       <c r="BP197" s="1"/>
       <c r="BQ197" s="1"/>
@@ -19637,11 +19051,8 @@
       <c r="BZ197" s="1"/>
       <c r="CA197" s="1"/>
       <c r="CB197" s="1"/>
-      <c r="CC197" s="1"/>
-      <c r="CD197" s="1"/>
-      <c r="CE197" s="1"/>
-    </row>
-    <row r="198" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -19726,11 +19137,8 @@
       <c r="BZ198" s="1"/>
       <c r="CA198" s="1"/>
       <c r="CB198" s="1"/>
-      <c r="CC198" s="1"/>
-      <c r="CD198" s="1"/>
-      <c r="CE198" s="1"/>
-    </row>
-    <row r="199" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -19815,11 +19223,8 @@
       <c r="BZ199" s="1"/>
       <c r="CA199" s="1"/>
       <c r="CB199" s="1"/>
-      <c r="CC199" s="1"/>
-      <c r="CD199" s="1"/>
-      <c r="CE199" s="1"/>
-    </row>
-    <row r="200" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -19904,11 +19309,8 @@
       <c r="BZ200" s="1"/>
       <c r="CA200" s="1"/>
       <c r="CB200" s="1"/>
-      <c r="CC200" s="1"/>
-      <c r="CD200" s="1"/>
-      <c r="CE200" s="1"/>
-    </row>
-    <row r="201" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -19993,11 +19395,8 @@
       <c r="BZ201" s="1"/>
       <c r="CA201" s="1"/>
       <c r="CB201" s="1"/>
-      <c r="CC201" s="1"/>
-      <c r="CD201" s="1"/>
-      <c r="CE201" s="1"/>
-    </row>
-    <row r="202" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -20082,11 +19481,8 @@
       <c r="BZ202" s="1"/>
       <c r="CA202" s="1"/>
       <c r="CB202" s="1"/>
-      <c r="CC202" s="1"/>
-      <c r="CD202" s="1"/>
-      <c r="CE202" s="1"/>
-    </row>
-    <row r="203" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -20171,11 +19567,8 @@
       <c r="BZ203" s="1"/>
       <c r="CA203" s="1"/>
       <c r="CB203" s="1"/>
-      <c r="CC203" s="1"/>
-      <c r="CD203" s="1"/>
-      <c r="CE203" s="1"/>
-    </row>
-    <row r="204" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -20260,11 +19653,8 @@
       <c r="BZ204" s="1"/>
       <c r="CA204" s="1"/>
       <c r="CB204" s="1"/>
-      <c r="CC204" s="1"/>
-      <c r="CD204" s="1"/>
-      <c r="CE204" s="1"/>
-    </row>
-    <row r="205" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -20349,11 +19739,8 @@
       <c r="BZ205" s="1"/>
       <c r="CA205" s="1"/>
       <c r="CB205" s="1"/>
-      <c r="CC205" s="1"/>
-      <c r="CD205" s="1"/>
-      <c r="CE205" s="1"/>
-    </row>
-    <row r="206" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -20386,10 +19773,10 @@
       <c r="Z206" s="1"/>
       <c r="AA206" s="1"/>
       <c r="AB206" s="1"/>
-      <c r="AC206" s="1"/>
+      <c r="AC206" s="2"/>
       <c r="AD206" s="1"/>
       <c r="AE206" s="1"/>
-      <c r="AF206" s="2"/>
+      <c r="AF206" s="1"/>
       <c r="AG206" s="1"/>
       <c r="AH206" s="1"/>
       <c r="AI206" s="1"/>
@@ -20438,11 +19825,8 @@
       <c r="BZ206" s="1"/>
       <c r="CA206" s="1"/>
       <c r="CB206" s="1"/>
-      <c r="CC206" s="1"/>
-      <c r="CD206" s="1"/>
-      <c r="CE206" s="1"/>
-    </row>
-    <row r="207" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -20527,11 +19911,8 @@
       <c r="BZ207" s="1"/>
       <c r="CA207" s="1"/>
       <c r="CB207" s="1"/>
-      <c r="CC207" s="1"/>
-      <c r="CD207" s="1"/>
-      <c r="CE207" s="1"/>
-    </row>
-    <row r="208" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -20616,11 +19997,8 @@
       <c r="BZ208" s="1"/>
       <c r="CA208" s="1"/>
       <c r="CB208" s="1"/>
-      <c r="CC208" s="1"/>
-      <c r="CD208" s="1"/>
-      <c r="CE208" s="1"/>
-    </row>
-    <row r="209" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -20705,11 +20083,8 @@
       <c r="BZ209" s="1"/>
       <c r="CA209" s="1"/>
       <c r="CB209" s="1"/>
-      <c r="CC209" s="1"/>
-      <c r="CD209" s="1"/>
-      <c r="CE209" s="1"/>
-    </row>
-    <row r="210" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -20794,11 +20169,8 @@
       <c r="BZ210" s="1"/>
       <c r="CA210" s="1"/>
       <c r="CB210" s="1"/>
-      <c r="CC210" s="1"/>
-      <c r="CD210" s="1"/>
-      <c r="CE210" s="1"/>
-    </row>
-    <row r="211" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -20883,11 +20255,8 @@
       <c r="BZ211" s="1"/>
       <c r="CA211" s="1"/>
       <c r="CB211" s="1"/>
-      <c r="CC211" s="1"/>
-      <c r="CD211" s="1"/>
-      <c r="CE211" s="1"/>
-    </row>
-    <row r="212" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -20972,11 +20341,8 @@
       <c r="BZ212" s="1"/>
       <c r="CA212" s="1"/>
       <c r="CB212" s="1"/>
-      <c r="CC212" s="1"/>
-      <c r="CD212" s="1"/>
-      <c r="CE212" s="1"/>
-    </row>
-    <row r="213" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -21061,11 +20427,8 @@
       <c r="BZ213" s="1"/>
       <c r="CA213" s="1"/>
       <c r="CB213" s="1"/>
-      <c r="CC213" s="1"/>
-      <c r="CD213" s="1"/>
-      <c r="CE213" s="1"/>
-    </row>
-    <row r="214" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -21130,10 +20493,10 @@
       <c r="BF214" s="1"/>
       <c r="BG214" s="1"/>
       <c r="BH214" s="1"/>
-      <c r="BI214" s="1"/>
+      <c r="BI214" s="2"/>
       <c r="BJ214" s="1"/>
       <c r="BK214" s="1"/>
-      <c r="BL214" s="2"/>
+      <c r="BL214" s="1"/>
       <c r="BM214" s="1"/>
       <c r="BN214" s="1"/>
       <c r="BO214" s="1"/>
@@ -21150,11 +20513,8 @@
       <c r="BZ214" s="1"/>
       <c r="CA214" s="1"/>
       <c r="CB214" s="1"/>
-      <c r="CC214" s="1"/>
-      <c r="CD214" s="1"/>
-      <c r="CE214" s="1"/>
-    </row>
-    <row r="215" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>255</v>
       </c>
@@ -21163,9 +20523,7 @@
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
-      <c r="E215" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="E215" s="1"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
@@ -21241,11 +20599,8 @@
       <c r="BZ215" s="1"/>
       <c r="CA215" s="1"/>
       <c r="CB215" s="1"/>
-      <c r="CC215" s="1"/>
-      <c r="CD215" s="1"/>
-      <c r="CE215" s="1"/>
-    </row>
-    <row r="216" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>256</v>
       </c>
@@ -21254,9 +20609,7 @@
       </c>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
-      <c r="E216" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="E216" s="1"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
@@ -21332,11 +20685,8 @@
       <c r="BZ216" s="1"/>
       <c r="CA216" s="1"/>
       <c r="CB216" s="1"/>
-      <c r="CC216" s="1"/>
-      <c r="CD216" s="1"/>
-      <c r="CE216" s="1"/>
-    </row>
-    <row r="217" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>257</v>
       </c>
@@ -21345,9 +20695,7 @@
       </c>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
-      <c r="E217" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="E217" s="1"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
@@ -21423,11 +20771,8 @@
       <c r="BZ217" s="1"/>
       <c r="CA217" s="1"/>
       <c r="CB217" s="1"/>
-      <c r="CC217" s="1"/>
-      <c r="CD217" s="1"/>
-      <c r="CE217" s="1"/>
-    </row>
-    <row r="218" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>258</v>
       </c>
@@ -21436,9 +20781,7 @@
       </c>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
-      <c r="E218" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="E218" s="1"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
@@ -21514,11 +20857,8 @@
       <c r="BZ218" s="1"/>
       <c r="CA218" s="1"/>
       <c r="CB218" s="1"/>
-      <c r="CC218" s="1"/>
-      <c r="CD218" s="1"/>
-      <c r="CE218" s="1"/>
-    </row>
-    <row r="219" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>259</v>
       </c>
@@ -21527,9 +20867,7 @@
       </c>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
-      <c r="E219" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="E219" s="1"/>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
@@ -21563,10 +20901,10 @@
       <c r="AJ219" s="1"/>
       <c r="AK219" s="1"/>
       <c r="AL219" s="1"/>
-      <c r="AM219" s="1"/>
+      <c r="AM219" s="2"/>
       <c r="AN219" s="1"/>
       <c r="AO219" s="1"/>
-      <c r="AP219" s="2"/>
+      <c r="AP219" s="1"/>
       <c r="AQ219" s="1"/>
       <c r="AR219" s="1"/>
       <c r="AS219" s="1"/>
@@ -21605,11 +20943,8 @@
       <c r="BZ219" s="1"/>
       <c r="CA219" s="1"/>
       <c r="CB219" s="1"/>
-      <c r="CC219" s="1"/>
-      <c r="CD219" s="1"/>
-      <c r="CE219" s="1"/>
-    </row>
-    <row r="220" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>260</v>
       </c>
@@ -21618,9 +20953,7 @@
       </c>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
-      <c r="E220" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="E220" s="1"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
@@ -21636,10 +20969,10 @@
       <c r="R220" s="1"/>
       <c r="S220" s="1"/>
       <c r="T220" s="1"/>
-      <c r="U220" s="1"/>
+      <c r="U220" s="2"/>
       <c r="V220" s="1"/>
       <c r="W220" s="1"/>
-      <c r="X220" s="2"/>
+      <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
       <c r="AA220" s="1"/>
@@ -21696,11 +21029,8 @@
       <c r="BZ220" s="1"/>
       <c r="CA220" s="1"/>
       <c r="CB220" s="1"/>
-      <c r="CC220" s="1"/>
-      <c r="CD220" s="1"/>
-      <c r="CE220" s="1"/>
-    </row>
-    <row r="221" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>261</v>
       </c>
@@ -21709,9 +21039,7 @@
       </c>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
-      <c r="E221" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
@@ -21765,10 +21093,10 @@
       <c r="BD221" s="1"/>
       <c r="BE221" s="1"/>
       <c r="BF221" s="1"/>
-      <c r="BG221" s="1"/>
+      <c r="BG221" s="2"/>
       <c r="BH221" s="1"/>
       <c r="BI221" s="1"/>
-      <c r="BJ221" s="2"/>
+      <c r="BJ221" s="1"/>
       <c r="BK221" s="1"/>
       <c r="BL221" s="1"/>
       <c r="BM221" s="1"/>
@@ -21787,11 +21115,8 @@
       <c r="BZ221" s="1"/>
       <c r="CA221" s="1"/>
       <c r="CB221" s="1"/>
-      <c r="CC221" s="1"/>
-      <c r="CD221" s="1"/>
-      <c r="CE221" s="1"/>
-    </row>
-    <row r="222" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>262</v>
       </c>
@@ -21800,9 +21125,7 @@
       </c>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
-      <c r="E222" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
@@ -21878,11 +21201,8 @@
       <c r="BZ222" s="1"/>
       <c r="CA222" s="1"/>
       <c r="CB222" s="1"/>
-      <c r="CC222" s="1"/>
-      <c r="CD222" s="1"/>
-      <c r="CE222" s="1"/>
-    </row>
-    <row r="223" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>263</v>
       </c>
@@ -21891,9 +21211,7 @@
       </c>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
-      <c r="E223" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
@@ -21969,11 +21287,8 @@
       <c r="BZ223" s="1"/>
       <c r="CA223" s="1"/>
       <c r="CB223" s="1"/>
-      <c r="CC223" s="1"/>
-      <c r="CD223" s="1"/>
-      <c r="CE223" s="1"/>
-    </row>
-    <row r="224" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>264</v>
       </c>
@@ -21982,9 +21297,7 @@
       </c>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
-      <c r="E224" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="E224" s="1"/>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
@@ -22060,11 +21373,8 @@
       <c r="BZ224" s="1"/>
       <c r="CA224" s="1"/>
       <c r="CB224" s="1"/>
-      <c r="CC224" s="1"/>
-      <c r="CD224" s="1"/>
-      <c r="CE224" s="1"/>
-    </row>
-    <row r="225" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>265</v>
       </c>
@@ -22073,9 +21383,7 @@
       </c>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
-      <c r="E225" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="E225" s="1"/>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
@@ -22151,11 +21459,8 @@
       <c r="BZ225" s="1"/>
       <c r="CA225" s="1"/>
       <c r="CB225" s="1"/>
-      <c r="CC225" s="1"/>
-      <c r="CD225" s="1"/>
-      <c r="CE225" s="1"/>
-    </row>
-    <row r="226" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>266</v>
       </c>
@@ -22163,10 +21468,8 @@
         <v>380</v>
       </c>
       <c r="C226" s="1"/>
-      <c r="D226" s="2"/>
-      <c r="E226" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
@@ -22185,10 +21488,10 @@
       <c r="U226" s="1"/>
       <c r="V226" s="1"/>
       <c r="W226" s="1"/>
-      <c r="X226" s="1"/>
+      <c r="X226" s="2"/>
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
-      <c r="AA226" s="2"/>
+      <c r="AA226" s="1"/>
       <c r="AB226" s="1"/>
       <c r="AC226" s="1"/>
       <c r="AD226" s="1"/>
@@ -22242,11 +21545,8 @@
       <c r="BZ226" s="1"/>
       <c r="CA226" s="1"/>
       <c r="CB226" s="1"/>
-      <c r="CC226" s="1"/>
-      <c r="CD226" s="1"/>
-      <c r="CE226" s="1"/>
-    </row>
-    <row r="227" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>267</v>
       </c>
@@ -22255,9 +21555,7 @@
       </c>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
-      <c r="E227" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
@@ -22333,11 +21631,8 @@
       <c r="BZ227" s="1"/>
       <c r="CA227" s="1"/>
       <c r="CB227" s="1"/>
-      <c r="CC227" s="1"/>
-      <c r="CD227" s="1"/>
-      <c r="CE227" s="1"/>
-    </row>
-    <row r="228" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>268</v>
       </c>
@@ -22346,9 +21641,7 @@
       </c>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
-      <c r="E228" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
@@ -22424,11 +21717,8 @@
       <c r="BZ228" s="1"/>
       <c r="CA228" s="1"/>
       <c r="CB228" s="1"/>
-      <c r="CC228" s="1"/>
-      <c r="CD228" s="1"/>
-      <c r="CE228" s="1"/>
-    </row>
-    <row r="229" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>269</v>
       </c>
@@ -22437,9 +21727,7 @@
       </c>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
-      <c r="E229" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="E229" s="1"/>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
@@ -22515,11 +21803,8 @@
       <c r="BZ229" s="1"/>
       <c r="CA229" s="1"/>
       <c r="CB229" s="1"/>
-      <c r="CC229" s="1"/>
-      <c r="CD229" s="1"/>
-      <c r="CE229" s="1"/>
-    </row>
-    <row r="230" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>270</v>
       </c>
@@ -22528,9 +21813,7 @@
       </c>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
-      <c r="E230" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="E230" s="1"/>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
@@ -22606,11 +21889,8 @@
       <c r="BZ230" s="1"/>
       <c r="CA230" s="1"/>
       <c r="CB230" s="1"/>
-      <c r="CC230" s="1"/>
-      <c r="CD230" s="1"/>
-      <c r="CE230" s="1"/>
-    </row>
-    <row r="231" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>271</v>
       </c>
@@ -22619,9 +21899,7 @@
       </c>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
-      <c r="E231" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="E231" s="1"/>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
@@ -22697,11 +21975,8 @@
       <c r="BZ231" s="1"/>
       <c r="CA231" s="1"/>
       <c r="CB231" s="1"/>
-      <c r="CC231" s="1"/>
-      <c r="CD231" s="1"/>
-      <c r="CE231" s="1"/>
-    </row>
-    <row r="232" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>272</v>
       </c>
@@ -22710,9 +21985,7 @@
       </c>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
-      <c r="E232" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="E232" s="1"/>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
@@ -22788,11 +22061,8 @@
       <c r="BZ232" s="1"/>
       <c r="CA232" s="1"/>
       <c r="CB232" s="1"/>
-      <c r="CC232" s="1"/>
-      <c r="CD232" s="1"/>
-      <c r="CE232" s="1"/>
-    </row>
-    <row r="233" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>273</v>
       </c>
@@ -22801,9 +22071,7 @@
       </c>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
-      <c r="E233" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="E233" s="1"/>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
@@ -22879,11 +22147,8 @@
       <c r="BZ233" s="1"/>
       <c r="CA233" s="1"/>
       <c r="CB233" s="1"/>
-      <c r="CC233" s="1"/>
-      <c r="CD233" s="1"/>
-      <c r="CE233" s="1"/>
-    </row>
-    <row r="234" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>274</v>
       </c>
@@ -22892,9 +22157,7 @@
       </c>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
-      <c r="E234" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="E234" s="1"/>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
@@ -22970,11 +22233,8 @@
       <c r="BZ234" s="1"/>
       <c r="CA234" s="1"/>
       <c r="CB234" s="1"/>
-      <c r="CC234" s="1"/>
-      <c r="CD234" s="1"/>
-      <c r="CE234" s="1"/>
-    </row>
-    <row r="235" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>275</v>
       </c>
@@ -22983,9 +22243,7 @@
       </c>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
-      <c r="E235" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="E235" s="1"/>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
@@ -23061,11 +22319,8 @@
       <c r="BZ235" s="1"/>
       <c r="CA235" s="1"/>
       <c r="CB235" s="1"/>
-      <c r="CC235" s="1"/>
-      <c r="CD235" s="1"/>
-      <c r="CE235" s="1"/>
-    </row>
-    <row r="236" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>276</v>
       </c>
@@ -23074,9 +22329,7 @@
       </c>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
-      <c r="E236" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="E236" s="1"/>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
@@ -23152,11 +22405,8 @@
       <c r="BZ236" s="1"/>
       <c r="CA236" s="1"/>
       <c r="CB236" s="1"/>
-      <c r="CC236" s="1"/>
-      <c r="CD236" s="1"/>
-      <c r="CE236" s="1"/>
-    </row>
-    <row r="237" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>277</v>
       </c>
@@ -23165,9 +22415,7 @@
       </c>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
-      <c r="E237" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
@@ -23243,11 +22491,8 @@
       <c r="BZ237" s="1"/>
       <c r="CA237" s="1"/>
       <c r="CB237" s="1"/>
-      <c r="CC237" s="1"/>
-      <c r="CD237" s="1"/>
-      <c r="CE237" s="1"/>
-    </row>
-    <row r="238" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>278</v>
       </c>
@@ -23256,9 +22501,7 @@
       </c>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
-      <c r="E238" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="E238" s="1"/>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
@@ -23334,11 +22577,8 @@
       <c r="BZ238" s="1"/>
       <c r="CA238" s="1"/>
       <c r="CB238" s="1"/>
-      <c r="CC238" s="1"/>
-      <c r="CD238" s="1"/>
-      <c r="CE238" s="1"/>
-    </row>
-    <row r="239" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>279</v>
       </c>
@@ -23347,9 +22587,7 @@
       </c>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
-      <c r="E239" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="E239" s="1"/>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
@@ -23368,10 +22606,10 @@
       <c r="U239" s="1"/>
       <c r="V239" s="1"/>
       <c r="W239" s="1"/>
-      <c r="X239" s="1"/>
+      <c r="X239" s="2"/>
       <c r="Y239" s="1"/>
       <c r="Z239" s="1"/>
-      <c r="AA239" s="2"/>
+      <c r="AA239" s="1"/>
       <c r="AB239" s="1"/>
       <c r="AC239" s="1"/>
       <c r="AD239" s="1"/>
@@ -23425,11 +22663,8 @@
       <c r="BZ239" s="1"/>
       <c r="CA239" s="1"/>
       <c r="CB239" s="1"/>
-      <c r="CC239" s="1"/>
-      <c r="CD239" s="1"/>
-      <c r="CE239" s="1"/>
-    </row>
-    <row r="240" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>280</v>
       </c>
@@ -23438,9 +22673,7 @@
       </c>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
-      <c r="E240" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="E240" s="1"/>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
@@ -23516,11 +22749,8 @@
       <c r="BZ240" s="1"/>
       <c r="CA240" s="1"/>
       <c r="CB240" s="1"/>
-      <c r="CC240" s="1"/>
-      <c r="CD240" s="1"/>
-      <c r="CE240" s="1"/>
-    </row>
-    <row r="241" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>281</v>
       </c>
@@ -23529,9 +22759,7 @@
       </c>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
-      <c r="E241" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="E241" s="1"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
@@ -23607,11 +22835,8 @@
       <c r="BZ241" s="1"/>
       <c r="CA241" s="1"/>
       <c r="CB241" s="1"/>
-      <c r="CC241" s="1"/>
-      <c r="CD241" s="1"/>
-      <c r="CE241" s="1"/>
-    </row>
-    <row r="242" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>282</v>
       </c>
@@ -23620,9 +22845,7 @@
       </c>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
-      <c r="E242" s="8" t="s">
-        <v>382</v>
-      </c>
+      <c r="E242" s="1"/>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
@@ -23698,11 +22921,8 @@
       <c r="BZ242" s="1"/>
       <c r="CA242" s="1"/>
       <c r="CB242" s="1"/>
-      <c r="CC242" s="1"/>
-      <c r="CD242" s="1"/>
-      <c r="CE242" s="1"/>
-    </row>
-    <row r="243" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>283</v>
       </c>
@@ -23711,9 +22931,7 @@
       </c>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
-      <c r="E243" s="8" t="s">
-        <v>382</v>
-      </c>
+      <c r="E243" s="1"/>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
@@ -23789,11 +23007,8 @@
       <c r="BZ243" s="1"/>
       <c r="CA243" s="1"/>
       <c r="CB243" s="1"/>
-      <c r="CC243" s="1"/>
-      <c r="CD243" s="1"/>
-      <c r="CE243" s="1"/>
-    </row>
-    <row r="244" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>284</v>
       </c>
@@ -23802,9 +23017,7 @@
       </c>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
-      <c r="E244" s="8" t="s">
-        <v>382</v>
-      </c>
+      <c r="E244" s="1"/>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
@@ -23880,11 +23093,8 @@
       <c r="BZ244" s="1"/>
       <c r="CA244" s="1"/>
       <c r="CB244" s="1"/>
-      <c r="CC244" s="1"/>
-      <c r="CD244" s="1"/>
-      <c r="CE244" s="1"/>
-    </row>
-    <row r="245" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>285</v>
       </c>
@@ -23893,9 +23103,7 @@
       </c>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
-      <c r="E245" s="8" t="s">
-        <v>382</v>
-      </c>
+      <c r="E245" s="1"/>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
@@ -23971,11 +23179,8 @@
       <c r="BZ245" s="1"/>
       <c r="CA245" s="1"/>
       <c r="CB245" s="1"/>
-      <c r="CC245" s="1"/>
-      <c r="CD245" s="1"/>
-      <c r="CE245" s="1"/>
-    </row>
-    <row r="246" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>286</v>
       </c>
@@ -23984,9 +23189,7 @@
       </c>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
-      <c r="E246" s="8" t="s">
-        <v>382</v>
-      </c>
+      <c r="E246" s="1"/>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
@@ -24062,11 +23265,8 @@
       <c r="BZ246" s="1"/>
       <c r="CA246" s="1"/>
       <c r="CB246" s="1"/>
-      <c r="CC246" s="1"/>
-      <c r="CD246" s="1"/>
-      <c r="CE246" s="1"/>
-    </row>
-    <row r="247" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>287</v>
       </c>
@@ -24075,9 +23275,7 @@
       </c>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
-      <c r="E247" s="8" t="s">
-        <v>382</v>
-      </c>
+      <c r="E247" s="1"/>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
@@ -24153,11 +23351,8 @@
       <c r="BZ247" s="1"/>
       <c r="CA247" s="1"/>
       <c r="CB247" s="1"/>
-      <c r="CC247" s="1"/>
-      <c r="CD247" s="1"/>
-      <c r="CE247" s="1"/>
-    </row>
-    <row r="248" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>288</v>
       </c>
@@ -24166,9 +23361,7 @@
       </c>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
-      <c r="E248" s="8" t="s">
-        <v>382</v>
-      </c>
+      <c r="E248" s="1"/>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
@@ -24244,11 +23437,8 @@
       <c r="BZ248" s="1"/>
       <c r="CA248" s="1"/>
       <c r="CB248" s="1"/>
-      <c r="CC248" s="1"/>
-      <c r="CD248" s="1"/>
-      <c r="CE248" s="1"/>
-    </row>
-    <row r="249" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>289</v>
       </c>
@@ -24257,9 +23447,7 @@
       </c>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
-      <c r="E249" s="8" t="s">
-        <v>382</v>
-      </c>
+      <c r="E249" s="1"/>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
@@ -24335,11 +23523,8 @@
       <c r="BZ249" s="1"/>
       <c r="CA249" s="1"/>
       <c r="CB249" s="1"/>
-      <c r="CC249" s="1"/>
-      <c r="CD249" s="1"/>
-      <c r="CE249" s="1"/>
-    </row>
-    <row r="250" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>290</v>
       </c>
@@ -24348,9 +23533,7 @@
       </c>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
-      <c r="E250" s="8" t="s">
-        <v>382</v>
-      </c>
+      <c r="E250" s="1"/>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
@@ -24426,11 +23609,8 @@
       <c r="BZ250" s="1"/>
       <c r="CA250" s="1"/>
       <c r="CB250" s="1"/>
-      <c r="CC250" s="1"/>
-      <c r="CD250" s="1"/>
-      <c r="CE250" s="1"/>
-    </row>
-    <row r="251" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>291</v>
       </c>
@@ -24439,9 +23619,7 @@
       </c>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
-      <c r="E251" s="8" t="s">
-        <v>382</v>
-      </c>
+      <c r="E251" s="1"/>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
@@ -24517,11 +23695,8 @@
       <c r="BZ251" s="1"/>
       <c r="CA251" s="1"/>
       <c r="CB251" s="1"/>
-      <c r="CC251" s="1"/>
-      <c r="CD251" s="1"/>
-      <c r="CE251" s="1"/>
-    </row>
-    <row r="252" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>292</v>
       </c>
@@ -24530,9 +23705,7 @@
       </c>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
-      <c r="E252" s="8" t="s">
-        <v>382</v>
-      </c>
+      <c r="E252" s="1"/>
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
@@ -24608,11 +23781,8 @@
       <c r="BZ252" s="1"/>
       <c r="CA252" s="1"/>
       <c r="CB252" s="1"/>
-      <c r="CC252" s="1"/>
-      <c r="CD252" s="1"/>
-      <c r="CE252" s="1"/>
-    </row>
-    <row r="253" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>293</v>
       </c>
@@ -24621,9 +23791,7 @@
       </c>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
-      <c r="E253" s="8" t="s">
-        <v>382</v>
-      </c>
+      <c r="E253" s="1"/>
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
@@ -24699,11 +23867,8 @@
       <c r="BZ253" s="1"/>
       <c r="CA253" s="1"/>
       <c r="CB253" s="1"/>
-      <c r="CC253" s="1"/>
-      <c r="CD253" s="1"/>
-      <c r="CE253" s="1"/>
-    </row>
-    <row r="254" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>294</v>
       </c>
@@ -24712,9 +23877,7 @@
       </c>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
-      <c r="E254" s="8" t="s">
-        <v>382</v>
-      </c>
+      <c r="E254" s="1"/>
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
@@ -24733,10 +23896,10 @@
       <c r="U254" s="1"/>
       <c r="V254" s="1"/>
       <c r="W254" s="1"/>
-      <c r="X254" s="1"/>
+      <c r="X254" s="2"/>
       <c r="Y254" s="1"/>
       <c r="Z254" s="1"/>
-      <c r="AA254" s="2"/>
+      <c r="AA254" s="1"/>
       <c r="AB254" s="1"/>
       <c r="AC254" s="1"/>
       <c r="AD254" s="1"/>
@@ -24790,11 +23953,8 @@
       <c r="BZ254" s="1"/>
       <c r="CA254" s="1"/>
       <c r="CB254" s="1"/>
-      <c r="CC254" s="1"/>
-      <c r="CD254" s="1"/>
-      <c r="CE254" s="1"/>
-    </row>
-    <row r="255" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>295</v>
       </c>
@@ -24803,9 +23963,7 @@
       </c>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
-      <c r="E255" s="8" t="s">
-        <v>382</v>
-      </c>
+      <c r="E255" s="1"/>
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
@@ -24881,11 +24039,8 @@
       <c r="BZ255" s="1"/>
       <c r="CA255" s="1"/>
       <c r="CB255" s="1"/>
-      <c r="CC255" s="1"/>
-      <c r="CD255" s="1"/>
-      <c r="CE255" s="1"/>
-    </row>
-    <row r="256" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>296</v>
       </c>
@@ -24894,9 +24049,7 @@
       </c>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
-      <c r="E256" s="6" t="s">
-        <v>364</v>
-      </c>
+      <c r="E256" s="1"/>
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
@@ -24972,11 +24125,8 @@
       <c r="BZ256" s="1"/>
       <c r="CA256" s="1"/>
       <c r="CB256" s="1"/>
-      <c r="CC256" s="1"/>
-      <c r="CD256" s="1"/>
-      <c r="CE256" s="1"/>
-    </row>
-    <row r="257" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>297</v>
       </c>
@@ -24985,9 +24135,7 @@
       </c>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
-      <c r="E257" s="6" t="s">
-        <v>364</v>
-      </c>
+      <c r="E257" s="1"/>
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
@@ -25040,10 +24188,10 @@
       <c r="BC257" s="1"/>
       <c r="BD257" s="1"/>
       <c r="BE257" s="1"/>
-      <c r="BF257" s="1"/>
+      <c r="BF257" s="2"/>
       <c r="BG257" s="1"/>
       <c r="BH257" s="1"/>
-      <c r="BI257" s="2"/>
+      <c r="BI257" s="1"/>
       <c r="BJ257" s="1"/>
       <c r="BK257" s="1"/>
       <c r="BL257" s="1"/>
@@ -25063,11 +24211,8 @@
       <c r="BZ257" s="1"/>
       <c r="CA257" s="1"/>
       <c r="CB257" s="1"/>
-      <c r="CC257" s="1"/>
-      <c r="CD257" s="1"/>
-      <c r="CE257" s="1"/>
-    </row>
-    <row r="258" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>298</v>
       </c>
@@ -25076,9 +24221,7 @@
       </c>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
-      <c r="E258" s="6" t="s">
-        <v>364</v>
-      </c>
+      <c r="E258" s="1"/>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
@@ -25154,11 +24297,8 @@
       <c r="BZ258" s="1"/>
       <c r="CA258" s="1"/>
       <c r="CB258" s="1"/>
-      <c r="CC258" s="1"/>
-      <c r="CD258" s="1"/>
-      <c r="CE258" s="1"/>
-    </row>
-    <row r="259" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>299</v>
       </c>
@@ -25167,9 +24307,7 @@
       </c>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
-      <c r="E259" s="6" t="s">
-        <v>364</v>
-      </c>
+      <c r="E259" s="1"/>
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
@@ -25245,11 +24383,8 @@
       <c r="BZ259" s="1"/>
       <c r="CA259" s="1"/>
       <c r="CB259" s="1"/>
-      <c r="CC259" s="1"/>
-      <c r="CD259" s="1"/>
-      <c r="CE259" s="1"/>
-    </row>
-    <row r="260" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>300</v>
       </c>
@@ -25258,9 +24393,7 @@
       </c>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
-      <c r="E260" s="6" t="s">
-        <v>364</v>
-      </c>
+      <c r="E260" s="1"/>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
@@ -25336,11 +24469,8 @@
       <c r="BZ260" s="1"/>
       <c r="CA260" s="1"/>
       <c r="CB260" s="1"/>
-      <c r="CC260" s="1"/>
-      <c r="CD260" s="1"/>
-      <c r="CE260" s="1"/>
-    </row>
-    <row r="261" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>301</v>
       </c>
@@ -25349,9 +24479,7 @@
       </c>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
-      <c r="E261" s="6" t="s">
-        <v>364</v>
-      </c>
+      <c r="E261" s="1"/>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
@@ -25427,11 +24555,8 @@
       <c r="BZ261" s="1"/>
       <c r="CA261" s="1"/>
       <c r="CB261" s="1"/>
-      <c r="CC261" s="1"/>
-      <c r="CD261" s="1"/>
-      <c r="CE261" s="1"/>
-    </row>
-    <row r="262" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>302</v>
       </c>
@@ -25440,9 +24565,7 @@
       </c>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
-      <c r="E262" s="6" t="s">
-        <v>364</v>
-      </c>
+      <c r="E262" s="1"/>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
@@ -25455,9 +24578,9 @@
       <c r="O262" s="1"/>
       <c r="P262" s="1"/>
       <c r="Q262" s="1"/>
-      <c r="R262" s="1"/>
       <c r="S262" s="1"/>
       <c r="T262" s="1"/>
+      <c r="U262" s="1"/>
       <c r="V262" s="1"/>
       <c r="W262" s="1"/>
       <c r="X262" s="1"/>
@@ -25517,11 +24640,8 @@
       <c r="BZ262" s="1"/>
       <c r="CA262" s="1"/>
       <c r="CB262" s="1"/>
-      <c r="CC262" s="1"/>
-      <c r="CD262" s="1"/>
-      <c r="CE262" s="1"/>
-    </row>
-    <row r="263" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="263" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>303</v>
       </c>
@@ -25530,9 +24650,7 @@
       </c>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
-      <c r="E263" s="6" t="s">
-        <v>364</v>
-      </c>
+      <c r="E263" s="1"/>
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
@@ -25608,11 +24726,8 @@
       <c r="BZ263" s="1"/>
       <c r="CA263" s="1"/>
       <c r="CB263" s="1"/>
-      <c r="CC263" s="1"/>
-      <c r="CD263" s="1"/>
-      <c r="CE263" s="1"/>
-    </row>
-    <row r="264" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>304</v>
       </c>
@@ -25621,9 +24736,7 @@
       </c>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
-      <c r="E264" s="6" t="s">
-        <v>364</v>
-      </c>
+      <c r="E264" s="1"/>
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
@@ -25699,11 +24812,8 @@
       <c r="BZ264" s="1"/>
       <c r="CA264" s="1"/>
       <c r="CB264" s="1"/>
-      <c r="CC264" s="1"/>
-      <c r="CD264" s="1"/>
-      <c r="CE264" s="1"/>
-    </row>
-    <row r="265" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>305</v>
       </c>
@@ -25712,9 +24822,7 @@
       </c>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
-      <c r="E265" s="6" t="s">
-        <v>364</v>
-      </c>
+      <c r="E265" s="1"/>
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
@@ -25785,16 +24893,13 @@
       <c r="BU265" s="1"/>
       <c r="BV265" s="1"/>
       <c r="BW265" s="1"/>
-      <c r="BX265" s="1"/>
+      <c r="BX265" s="2"/>
       <c r="BY265" s="1"/>
       <c r="BZ265" s="1"/>
-      <c r="CA265" s="2"/>
+      <c r="CA265" s="1"/>
       <c r="CB265" s="1"/>
-      <c r="CC265" s="1"/>
-      <c r="CD265" s="1"/>
-      <c r="CE265" s="1"/>
-    </row>
-    <row r="266" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>306</v>
       </c>
@@ -25803,9 +24908,7 @@
       </c>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
-      <c r="E266" s="6" t="s">
-        <v>364</v>
-      </c>
+      <c r="E266" s="1"/>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
@@ -25840,10 +24943,10 @@
       <c r="AK266" s="1"/>
       <c r="AL266" s="1"/>
       <c r="AM266" s="1"/>
-      <c r="AN266" s="1"/>
+      <c r="AN266" s="2"/>
       <c r="AO266" s="1"/>
       <c r="AP266" s="1"/>
-      <c r="AQ266" s="2"/>
+      <c r="AQ266" s="1"/>
       <c r="AR266" s="1"/>
       <c r="AS266" s="1"/>
       <c r="AT266" s="1"/>
@@ -25881,11 +24984,8 @@
       <c r="BZ266" s="1"/>
       <c r="CA266" s="1"/>
       <c r="CB266" s="1"/>
-      <c r="CC266" s="1"/>
-      <c r="CD266" s="1"/>
-      <c r="CE266" s="1"/>
-    </row>
-    <row r="267" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="267" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>307</v>
       </c>
@@ -25894,13 +24994,11 @@
       </c>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
-      <c r="E267" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="F267" s="1"/>
+      <c r="E267" s="1"/>
+      <c r="F267" s="2"/>
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
-      <c r="I267" s="2"/>
+      <c r="I267" s="1"/>
       <c r="J267" s="1"/>
       <c r="K267" s="1"/>
       <c r="L267" s="1"/>
@@ -25966,17 +25064,14 @@
       <c r="BT267" s="1"/>
       <c r="BU267" s="1"/>
       <c r="BV267" s="1"/>
-      <c r="BW267" s="1"/>
+      <c r="BW267" s="2"/>
       <c r="BX267" s="1"/>
       <c r="BY267" s="1"/>
-      <c r="BZ267" s="2"/>
+      <c r="BZ267" s="1"/>
       <c r="CA267" s="1"/>
       <c r="CB267" s="1"/>
-      <c r="CC267" s="1"/>
-      <c r="CD267" s="1"/>
-      <c r="CE267" s="1"/>
-    </row>
-    <row r="268" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="268" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>308</v>
       </c>
@@ -25985,9 +25080,7 @@
       </c>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
-      <c r="E268" s="6" t="s">
-        <v>364</v>
-      </c>
+      <c r="E268" s="1"/>
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
@@ -26063,11 +25156,8 @@
       <c r="BZ268" s="1"/>
       <c r="CA268" s="1"/>
       <c r="CB268" s="1"/>
-      <c r="CC268" s="1"/>
-      <c r="CD268" s="1"/>
-      <c r="CE268" s="1"/>
-    </row>
-    <row r="269" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="269" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>309</v>
       </c>
@@ -26076,9 +25166,7 @@
       </c>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
-      <c r="E269" s="6" t="s">
-        <v>364</v>
-      </c>
+      <c r="E269" s="1"/>
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
@@ -26154,11 +25242,8 @@
       <c r="BZ269" s="1"/>
       <c r="CA269" s="1"/>
       <c r="CB269" s="1"/>
-      <c r="CC269" s="1"/>
-      <c r="CD269" s="1"/>
-      <c r="CE269" s="1"/>
-    </row>
-    <row r="270" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="270" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>310</v>
       </c>
@@ -26167,9 +25252,7 @@
       </c>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
-      <c r="E270" s="6" t="s">
-        <v>364</v>
-      </c>
+      <c r="E270" s="1"/>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
@@ -26245,11 +25328,8 @@
       <c r="BZ270" s="1"/>
       <c r="CA270" s="1"/>
       <c r="CB270" s="1"/>
-      <c r="CC270" s="1"/>
-      <c r="CD270" s="1"/>
-      <c r="CE270" s="1"/>
-    </row>
-    <row r="271" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="271" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>311</v>
       </c>
@@ -26258,9 +25338,7 @@
       </c>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
-      <c r="E271" s="17" t="s">
-        <v>366</v>
-      </c>
+      <c r="E271" s="1"/>
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
@@ -26336,11 +25414,8 @@
       <c r="BZ271" s="1"/>
       <c r="CA271" s="1"/>
       <c r="CB271" s="1"/>
-      <c r="CC271" s="1"/>
-      <c r="CD271" s="1"/>
-      <c r="CE271" s="1"/>
-    </row>
-    <row r="272" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="272" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>312</v>
       </c>
@@ -26349,9 +25424,7 @@
       </c>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
-      <c r="E272" s="17" t="s">
-        <v>366</v>
-      </c>
+      <c r="E272" s="1"/>
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
@@ -26427,11 +25500,8 @@
       <c r="BZ272" s="1"/>
       <c r="CA272" s="1"/>
       <c r="CB272" s="1"/>
-      <c r="CC272" s="1"/>
-      <c r="CD272" s="1"/>
-      <c r="CE272" s="1"/>
-    </row>
-    <row r="273" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="273" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>313</v>
       </c>
@@ -26440,9 +25510,7 @@
       </c>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
-      <c r="E273" s="17" t="s">
-        <v>366</v>
-      </c>
+      <c r="E273" s="1"/>
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
@@ -26518,11 +25586,8 @@
       <c r="BZ273" s="1"/>
       <c r="CA273" s="1"/>
       <c r="CB273" s="1"/>
-      <c r="CC273" s="1"/>
-      <c r="CD273" s="1"/>
-      <c r="CE273" s="1"/>
-    </row>
-    <row r="274" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>314</v>
       </c>
@@ -26531,9 +25596,7 @@
       </c>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
-      <c r="E274" s="17" t="s">
-        <v>366</v>
-      </c>
+      <c r="E274" s="1"/>
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
@@ -26609,11 +25672,8 @@
       <c r="BZ274" s="1"/>
       <c r="CA274" s="1"/>
       <c r="CB274" s="1"/>
-      <c r="CC274" s="1"/>
-      <c r="CD274" s="1"/>
-      <c r="CE274" s="1"/>
-    </row>
-    <row r="275" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="275" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>315</v>
       </c>
@@ -26622,9 +25682,7 @@
       </c>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
-      <c r="E275" s="17" t="s">
-        <v>366</v>
-      </c>
+      <c r="E275" s="1"/>
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
@@ -26700,11 +25758,8 @@
       <c r="BZ275" s="1"/>
       <c r="CA275" s="1"/>
       <c r="CB275" s="1"/>
-      <c r="CC275" s="1"/>
-      <c r="CD275" s="1"/>
-      <c r="CE275" s="1"/>
-    </row>
-    <row r="276" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="276" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>316</v>
       </c>
@@ -26713,9 +25768,7 @@
       </c>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
-      <c r="E276" s="17" t="s">
-        <v>366</v>
-      </c>
+      <c r="E276" s="1"/>
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
@@ -26734,10 +25787,10 @@
       <c r="U276" s="1"/>
       <c r="V276" s="1"/>
       <c r="W276" s="1"/>
-      <c r="X276" s="1"/>
+      <c r="X276" s="2"/>
       <c r="Y276" s="1"/>
       <c r="Z276" s="1"/>
-      <c r="AA276" s="2"/>
+      <c r="AA276" s="1"/>
       <c r="AB276" s="1"/>
       <c r="AC276" s="1"/>
       <c r="AD276" s="1"/>
@@ -26768,10 +25821,10 @@
       <c r="BC276" s="1"/>
       <c r="BD276" s="1"/>
       <c r="BE276" s="1"/>
-      <c r="BF276" s="1"/>
+      <c r="BF276" s="2"/>
       <c r="BG276" s="1"/>
       <c r="BH276" s="1"/>
-      <c r="BI276" s="2"/>
+      <c r="BI276" s="1"/>
       <c r="BJ276" s="1"/>
       <c r="BK276" s="1"/>
       <c r="BL276" s="1"/>
@@ -26791,11 +25844,8 @@
       <c r="BZ276" s="1"/>
       <c r="CA276" s="1"/>
       <c r="CB276" s="1"/>
-      <c r="CC276" s="1"/>
-      <c r="CD276" s="1"/>
-      <c r="CE276" s="1"/>
-    </row>
-    <row r="277" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="277" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>317</v>
       </c>
@@ -26804,9 +25854,7 @@
       </c>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
-      <c r="E277" s="6" t="s">
-        <v>368</v>
-      </c>
+      <c r="E277" s="1"/>
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
@@ -26882,11 +25930,8 @@
       <c r="BZ277" s="1"/>
       <c r="CA277" s="1"/>
       <c r="CB277" s="1"/>
-      <c r="CC277" s="1"/>
-      <c r="CD277" s="1"/>
-      <c r="CE277" s="1"/>
-    </row>
-    <row r="278" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="278" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>318</v>
       </c>
@@ -26895,9 +25940,7 @@
       </c>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
-      <c r="E278" s="6" t="s">
-        <v>368</v>
-      </c>
+      <c r="E278" s="1"/>
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
@@ -26973,11 +26016,8 @@
       <c r="BZ278" s="1"/>
       <c r="CA278" s="1"/>
       <c r="CB278" s="1"/>
-      <c r="CC278" s="1"/>
-      <c r="CD278" s="1"/>
-      <c r="CE278" s="1"/>
-    </row>
-    <row r="279" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="279" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>319</v>
       </c>
@@ -26986,9 +26026,7 @@
       </c>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
-      <c r="E279" s="6" t="s">
-        <v>368</v>
-      </c>
+      <c r="E279" s="1"/>
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
@@ -27064,11 +26102,8 @@
       <c r="BZ279" s="1"/>
       <c r="CA279" s="1"/>
       <c r="CB279" s="1"/>
-      <c r="CC279" s="1"/>
-      <c r="CD279" s="1"/>
-      <c r="CE279" s="1"/>
-    </row>
-    <row r="280" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="280" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>320</v>
       </c>
@@ -27077,9 +26112,7 @@
       </c>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
-      <c r="E280" s="6" t="s">
-        <v>368</v>
-      </c>
+      <c r="E280" s="1"/>
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
@@ -27155,11 +26188,8 @@
       <c r="BZ280" s="1"/>
       <c r="CA280" s="1"/>
       <c r="CB280" s="1"/>
-      <c r="CC280" s="1"/>
-      <c r="CD280" s="1"/>
-      <c r="CE280" s="1"/>
-    </row>
-    <row r="281" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="281" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>321</v>
       </c>
@@ -27168,9 +26198,7 @@
       </c>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
-      <c r="E281" s="6" t="s">
-        <v>368</v>
-      </c>
+      <c r="E281" s="1"/>
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
@@ -27246,11 +26274,8 @@
       <c r="BZ281" s="1"/>
       <c r="CA281" s="1"/>
       <c r="CB281" s="1"/>
-      <c r="CC281" s="1"/>
-      <c r="CD281" s="1"/>
-      <c r="CE281" s="1"/>
-    </row>
-    <row r="282" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="282" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>322</v>
       </c>
@@ -27259,9 +26284,7 @@
       </c>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
-      <c r="E282" s="6" t="s">
-        <v>368</v>
-      </c>
+      <c r="E282" s="1"/>
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
@@ -27337,11 +26360,8 @@
       <c r="BZ282" s="1"/>
       <c r="CA282" s="1"/>
       <c r="CB282" s="1"/>
-      <c r="CC282" s="1"/>
-      <c r="CD282" s="1"/>
-      <c r="CE282" s="1"/>
-    </row>
-    <row r="283" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="283" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>323</v>
       </c>
@@ -27350,9 +26370,7 @@
       </c>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
-      <c r="E283" s="6" t="s">
-        <v>368</v>
-      </c>
+      <c r="E283" s="1"/>
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
@@ -27428,11 +26446,8 @@
       <c r="BZ283" s="1"/>
       <c r="CA283" s="1"/>
       <c r="CB283" s="1"/>
-      <c r="CC283" s="1"/>
-      <c r="CD283" s="1"/>
-      <c r="CE283" s="1"/>
-    </row>
-    <row r="284" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="284" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>324</v>
       </c>
@@ -27441,9 +26456,7 @@
       </c>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
-      <c r="E284" s="6" t="s">
-        <v>368</v>
-      </c>
+      <c r="E284" s="1"/>
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
@@ -27519,11 +26532,8 @@
       <c r="BZ284" s="1"/>
       <c r="CA284" s="1"/>
       <c r="CB284" s="1"/>
-      <c r="CC284" s="1"/>
-      <c r="CD284" s="1"/>
-      <c r="CE284" s="1"/>
-    </row>
-    <row r="285" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="285" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>325</v>
       </c>
@@ -27532,9 +26542,7 @@
       </c>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
-      <c r="E285" s="6" t="s">
-        <v>368</v>
-      </c>
+      <c r="E285" s="1"/>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
@@ -27610,11 +26618,8 @@
       <c r="BZ285" s="1"/>
       <c r="CA285" s="1"/>
       <c r="CB285" s="1"/>
-      <c r="CC285" s="1"/>
-      <c r="CD285" s="1"/>
-      <c r="CE285" s="1"/>
-    </row>
-    <row r="286" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="286" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>326</v>
       </c>
@@ -27623,9 +26628,7 @@
       </c>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
-      <c r="E286" s="6" t="s">
-        <v>368</v>
-      </c>
+      <c r="E286" s="1"/>
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
@@ -27701,11 +26704,8 @@
       <c r="BZ286" s="1"/>
       <c r="CA286" s="1"/>
       <c r="CB286" s="1"/>
-      <c r="CC286" s="1"/>
-      <c r="CD286" s="1"/>
-      <c r="CE286" s="1"/>
-    </row>
-    <row r="287" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="287" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>327</v>
       </c>
@@ -27714,9 +26714,7 @@
       </c>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
-      <c r="E287" s="6" t="s">
-        <v>368</v>
-      </c>
+      <c r="E287" s="1"/>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
@@ -27792,11 +26790,8 @@
       <c r="BZ287" s="1"/>
       <c r="CA287" s="1"/>
       <c r="CB287" s="1"/>
-      <c r="CC287" s="1"/>
-      <c r="CD287" s="1"/>
-      <c r="CE287" s="1"/>
-    </row>
-    <row r="288" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="288" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>214</v>
       </c>
@@ -27805,9 +26800,7 @@
       </c>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
-      <c r="E288" s="6" t="s">
-        <v>368</v>
-      </c>
+      <c r="E288" s="1"/>
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
@@ -27883,11 +26876,8 @@
       <c r="BZ288" s="1"/>
       <c r="CA288" s="1"/>
       <c r="CB288" s="1"/>
-      <c r="CC288" s="1"/>
-      <c r="CD288" s="1"/>
-      <c r="CE288" s="1"/>
-    </row>
-    <row r="289" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="289" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>215</v>
       </c>
@@ -27896,9 +26886,7 @@
       </c>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
-      <c r="E289" s="6" t="s">
-        <v>370</v>
-      </c>
+      <c r="E289" s="1"/>
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
@@ -27974,11 +26962,8 @@
       <c r="BZ289" s="1"/>
       <c r="CA289" s="1"/>
       <c r="CB289" s="1"/>
-      <c r="CC289" s="1"/>
-      <c r="CD289" s="1"/>
-      <c r="CE289" s="1"/>
-    </row>
-    <row r="290" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="290" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>216</v>
       </c>
@@ -27987,9 +26972,7 @@
       </c>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
-      <c r="E290" s="6" t="s">
-        <v>370</v>
-      </c>
+      <c r="E290" s="1"/>
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
@@ -28065,11 +27048,8 @@
       <c r="BZ290" s="1"/>
       <c r="CA290" s="1"/>
       <c r="CB290" s="1"/>
-      <c r="CC290" s="1"/>
-      <c r="CD290" s="1"/>
-      <c r="CE290" s="1"/>
-    </row>
-    <row r="291" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="291" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>217</v>
       </c>
@@ -28077,12 +27057,10 @@
         <v>370</v>
       </c>
       <c r="C291" s="1"/>
-      <c r="D291" s="1"/>
-      <c r="E291" s="6" t="s">
-        <v>370</v>
-      </c>
+      <c r="D291" s="2"/>
+      <c r="E291" s="1"/>
       <c r="F291" s="1"/>
-      <c r="G291" s="2"/>
+      <c r="G291" s="1"/>
       <c r="H291" s="1"/>
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
@@ -28156,11 +27134,8 @@
       <c r="BZ291" s="1"/>
       <c r="CA291" s="1"/>
       <c r="CB291" s="1"/>
-      <c r="CC291" s="1"/>
-      <c r="CD291" s="1"/>
-      <c r="CE291" s="1"/>
-    </row>
-    <row r="292" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="292" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>218</v>
       </c>
@@ -28169,9 +27144,7 @@
       </c>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
-      <c r="E292" s="6" t="s">
-        <v>370</v>
-      </c>
+      <c r="E292" s="1"/>
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
@@ -28247,11 +27220,8 @@
       <c r="BZ292" s="1"/>
       <c r="CA292" s="1"/>
       <c r="CB292" s="1"/>
-      <c r="CC292" s="1"/>
-      <c r="CD292" s="1"/>
-      <c r="CE292" s="1"/>
-    </row>
-    <row r="293" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="293" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>219</v>
       </c>
@@ -28260,9 +27230,7 @@
       </c>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
-      <c r="E293" s="6" t="s">
-        <v>370</v>
-      </c>
+      <c r="E293" s="1"/>
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
@@ -28338,11 +27306,8 @@
       <c r="BZ293" s="1"/>
       <c r="CA293" s="1"/>
       <c r="CB293" s="1"/>
-      <c r="CC293" s="1"/>
-      <c r="CD293" s="1"/>
-      <c r="CE293" s="1"/>
-    </row>
-    <row r="294" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="294" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>220</v>
       </c>
@@ -28351,9 +27316,7 @@
       </c>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
-      <c r="E294" s="6" t="s">
-        <v>372</v>
-      </c>
+      <c r="E294" s="1"/>
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
@@ -28429,11 +27392,8 @@
       <c r="BZ294" s="1"/>
       <c r="CA294" s="1"/>
       <c r="CB294" s="1"/>
-      <c r="CC294" s="1"/>
-      <c r="CD294" s="1"/>
-      <c r="CE294" s="1"/>
-    </row>
-    <row r="295" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="295" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>221</v>
       </c>
@@ -28442,9 +27402,7 @@
       </c>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
-      <c r="E295" s="6" t="s">
-        <v>372</v>
-      </c>
+      <c r="E295" s="1"/>
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
@@ -28520,11 +27478,8 @@
       <c r="BZ295" s="1"/>
       <c r="CA295" s="1"/>
       <c r="CB295" s="1"/>
-      <c r="CC295" s="1"/>
-      <c r="CD295" s="1"/>
-      <c r="CE295" s="1"/>
-    </row>
-    <row r="296" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="296" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>222</v>
       </c>
@@ -28533,9 +27488,7 @@
       </c>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
-      <c r="E296" s="6" t="s">
-        <v>372</v>
-      </c>
+      <c r="E296" s="1"/>
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
@@ -28548,10 +27501,10 @@
       <c r="O296" s="1"/>
       <c r="P296" s="1"/>
       <c r="Q296" s="1"/>
-      <c r="R296" s="1"/>
+      <c r="R296" s="2"/>
       <c r="S296" s="1"/>
       <c r="T296" s="1"/>
-      <c r="U296" s="2"/>
+      <c r="U296" s="1"/>
       <c r="V296" s="1"/>
       <c r="W296" s="1"/>
       <c r="X296" s="1"/>
@@ -28611,11 +27564,8 @@
       <c r="BZ296" s="1"/>
       <c r="CA296" s="1"/>
       <c r="CB296" s="1"/>
-      <c r="CC296" s="1"/>
-      <c r="CD296" s="1"/>
-      <c r="CE296" s="1"/>
-    </row>
-    <row r="297" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="297" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>223</v>
       </c>
@@ -28624,9 +27574,7 @@
       </c>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
-      <c r="E297" s="6" t="s">
-        <v>372</v>
-      </c>
+      <c r="E297" s="1"/>
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
@@ -28640,9 +27588,9 @@
       <c r="P297" s="1"/>
       <c r="Q297" s="1"/>
       <c r="R297" s="1"/>
-      <c r="S297" s="1"/>
-      <c r="T297" s="1"/>
-      <c r="U297" s="1"/>
+      <c r="AA297" s="1"/>
+      <c r="AB297" s="1"/>
+      <c r="AC297" s="1"/>
       <c r="AD297" s="1"/>
       <c r="AE297" s="1"/>
       <c r="AF297" s="1"/>
@@ -28694,11 +27642,8 @@
       <c r="BZ297" s="1"/>
       <c r="CA297" s="1"/>
       <c r="CB297" s="1"/>
-      <c r="CC297" s="1"/>
-      <c r="CD297" s="1"/>
-      <c r="CE297" s="1"/>
-    </row>
-    <row r="298" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="298" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>224</v>
       </c>
@@ -28707,9 +27652,7 @@
       </c>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
-      <c r="E298" s="6" t="s">
-        <v>372</v>
-      </c>
+      <c r="E298" s="1"/>
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
@@ -28785,11 +27728,8 @@
       <c r="BZ298" s="1"/>
       <c r="CA298" s="1"/>
       <c r="CB298" s="1"/>
-      <c r="CC298" s="1"/>
-      <c r="CD298" s="1"/>
-      <c r="CE298" s="1"/>
-    </row>
-    <row r="299" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="299" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>225</v>
       </c>
@@ -28798,9 +27738,7 @@
       </c>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
-      <c r="E299" s="6" t="s">
-        <v>372</v>
-      </c>
+      <c r="E299" s="1"/>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
@@ -28876,11 +27814,8 @@
       <c r="BZ299" s="1"/>
       <c r="CA299" s="1"/>
       <c r="CB299" s="1"/>
-      <c r="CC299" s="1"/>
-      <c r="CD299" s="1"/>
-      <c r="CE299" s="1"/>
-    </row>
-    <row r="300" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="300" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>226</v>
       </c>
@@ -28889,9 +27824,7 @@
       </c>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
-      <c r="E300" s="6" t="s">
-        <v>372</v>
-      </c>
+      <c r="E300" s="1"/>
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
@@ -28967,11 +27900,8 @@
       <c r="BZ300" s="1"/>
       <c r="CA300" s="1"/>
       <c r="CB300" s="1"/>
-      <c r="CC300" s="1"/>
-      <c r="CD300" s="1"/>
-      <c r="CE300" s="1"/>
-    </row>
-    <row r="301" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="301" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>227</v>
       </c>
@@ -28980,9 +27910,7 @@
       </c>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
-      <c r="E301" s="6" t="s">
-        <v>372</v>
-      </c>
+      <c r="E301" s="1"/>
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
@@ -28996,9 +27924,9 @@
       <c r="P301" s="1"/>
       <c r="Q301" s="1"/>
       <c r="R301" s="1"/>
-      <c r="S301" s="1"/>
-      <c r="T301" s="1"/>
-      <c r="U301" s="1"/>
+      <c r="AA301" s="1"/>
+      <c r="AB301" s="1"/>
+      <c r="AC301" s="1"/>
       <c r="AD301" s="1"/>
       <c r="AE301" s="1"/>
       <c r="AF301" s="1"/>
@@ -29050,11 +27978,8 @@
       <c r="BZ301" s="1"/>
       <c r="CA301" s="1"/>
       <c r="CB301" s="1"/>
-      <c r="CC301" s="1"/>
-      <c r="CD301" s="1"/>
-      <c r="CE301" s="1"/>
-    </row>
-    <row r="302" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="302" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>228</v>
       </c>
@@ -29063,9 +27988,7 @@
       </c>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
-      <c r="E302" s="6" t="s">
-        <v>372</v>
-      </c>
+      <c r="E302" s="1"/>
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
@@ -29141,11 +28064,8 @@
       <c r="BZ302" s="1"/>
       <c r="CA302" s="1"/>
       <c r="CB302" s="1"/>
-      <c r="CC302" s="1"/>
-      <c r="CD302" s="1"/>
-      <c r="CE302" s="1"/>
-    </row>
-    <row r="303" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="303" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>229</v>
       </c>
@@ -29154,9 +28074,7 @@
       </c>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
-      <c r="E303" s="6" t="s">
-        <v>372</v>
-      </c>
+      <c r="E303" s="1"/>
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
@@ -29232,11 +28150,8 @@
       <c r="BZ303" s="1"/>
       <c r="CA303" s="1"/>
       <c r="CB303" s="1"/>
-      <c r="CC303" s="1"/>
-      <c r="CD303" s="1"/>
-      <c r="CE303" s="1"/>
-    </row>
-    <row r="304" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="304" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>230</v>
       </c>
@@ -29245,9 +28160,7 @@
       </c>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
-      <c r="E304" s="6" t="s">
-        <v>372</v>
-      </c>
+      <c r="E304" s="1"/>
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
@@ -29323,11 +28236,8 @@
       <c r="BZ304" s="1"/>
       <c r="CA304" s="1"/>
       <c r="CB304" s="1"/>
-      <c r="CC304" s="1"/>
-      <c r="CD304" s="1"/>
-      <c r="CE304" s="1"/>
-    </row>
-    <row r="305" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="305" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>231</v>
       </c>
@@ -29336,9 +28246,7 @@
       </c>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
-      <c r="E305" s="6" t="s">
-        <v>372</v>
-      </c>
+      <c r="E305" s="1"/>
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
@@ -29414,11 +28322,8 @@
       <c r="BZ305" s="1"/>
       <c r="CA305" s="1"/>
       <c r="CB305" s="1"/>
-      <c r="CC305" s="1"/>
-      <c r="CD305" s="1"/>
-      <c r="CE305" s="1"/>
-    </row>
-    <row r="306" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="306" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>232</v>
       </c>
@@ -29427,9 +28332,7 @@
       </c>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
-      <c r="E306" s="6" t="s">
-        <v>372</v>
-      </c>
+      <c r="E306" s="1"/>
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
@@ -29505,11 +28408,8 @@
       <c r="BZ306" s="1"/>
       <c r="CA306" s="1"/>
       <c r="CB306" s="1"/>
-      <c r="CC306" s="1"/>
-      <c r="CD306" s="1"/>
-      <c r="CE306" s="1"/>
-    </row>
-    <row r="307" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="307" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>233</v>
       </c>
@@ -29518,9 +28418,7 @@
       </c>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
-      <c r="E307" s="6" t="s">
-        <v>372</v>
-      </c>
+      <c r="E307" s="1"/>
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
@@ -29596,11 +28494,8 @@
       <c r="BZ307" s="1"/>
       <c r="CA307" s="1"/>
       <c r="CB307" s="1"/>
-      <c r="CC307" s="1"/>
-      <c r="CD307" s="1"/>
-      <c r="CE307" s="1"/>
-    </row>
-    <row r="308" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="308" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>234</v>
       </c>
@@ -29609,9 +28504,7 @@
       </c>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
-      <c r="E308" s="6" t="s">
-        <v>372</v>
-      </c>
+      <c r="E308" s="1"/>
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
@@ -29687,11 +28580,8 @@
       <c r="BZ308" s="1"/>
       <c r="CA308" s="1"/>
       <c r="CB308" s="1"/>
-      <c r="CC308" s="1"/>
-      <c r="CD308" s="1"/>
-      <c r="CE308" s="1"/>
-    </row>
-    <row r="309" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="309" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>235</v>
       </c>
@@ -29700,9 +28590,7 @@
       </c>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
-      <c r="E309" s="6" t="s">
-        <v>374</v>
-      </c>
+      <c r="E309" s="1"/>
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
@@ -29778,11 +28666,8 @@
       <c r="BZ309" s="1"/>
       <c r="CA309" s="1"/>
       <c r="CB309" s="1"/>
-      <c r="CC309" s="1"/>
-      <c r="CD309" s="1"/>
-      <c r="CE309" s="1"/>
-    </row>
-    <row r="310" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="310" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>236</v>
       </c>
@@ -29791,9 +28676,7 @@
       </c>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
-      <c r="E310" s="6" t="s">
-        <v>374</v>
-      </c>
+      <c r="E310" s="1"/>
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
@@ -29869,11 +28752,8 @@
       <c r="BZ310" s="1"/>
       <c r="CA310" s="1"/>
       <c r="CB310" s="1"/>
-      <c r="CC310" s="1"/>
-      <c r="CD310" s="1"/>
-      <c r="CE310" s="1"/>
-    </row>
-    <row r="311" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="311" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>237</v>
       </c>
@@ -29882,9 +28762,7 @@
       </c>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
-      <c r="E311" s="6" t="s">
-        <v>374</v>
-      </c>
+      <c r="E311" s="1"/>
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
@@ -29960,11 +28838,8 @@
       <c r="BZ311" s="1"/>
       <c r="CA311" s="1"/>
       <c r="CB311" s="1"/>
-      <c r="CC311" s="1"/>
-      <c r="CD311" s="1"/>
-      <c r="CE311" s="1"/>
-    </row>
-    <row r="312" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="312" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>238</v>
       </c>
@@ -29973,9 +28848,7 @@
       </c>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
-      <c r="E312" s="6" t="s">
-        <v>374</v>
-      </c>
+      <c r="E312" s="1"/>
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
@@ -30051,11 +28924,8 @@
       <c r="BZ312" s="1"/>
       <c r="CA312" s="1"/>
       <c r="CB312" s="1"/>
-      <c r="CC312" s="1"/>
-      <c r="CD312" s="1"/>
-      <c r="CE312" s="1"/>
-    </row>
-    <row r="313" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="313" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>239</v>
       </c>
@@ -30064,9 +28934,7 @@
       </c>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
-      <c r="E313" s="6" t="s">
-        <v>374</v>
-      </c>
+      <c r="E313" s="1"/>
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
@@ -30142,11 +29010,8 @@
       <c r="BZ313" s="1"/>
       <c r="CA313" s="1"/>
       <c r="CB313" s="1"/>
-      <c r="CC313" s="1"/>
-      <c r="CD313" s="1"/>
-      <c r="CE313" s="1"/>
-    </row>
-    <row r="314" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="314" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>240</v>
       </c>
@@ -30155,9 +29020,7 @@
       </c>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
-      <c r="E314" s="6" t="s">
-        <v>374</v>
-      </c>
+      <c r="E314" s="1"/>
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
@@ -30233,11 +29096,8 @@
       <c r="BZ314" s="1"/>
       <c r="CA314" s="1"/>
       <c r="CB314" s="1"/>
-      <c r="CC314" s="1"/>
-      <c r="CD314" s="1"/>
-      <c r="CE314" s="1"/>
-    </row>
-    <row r="315" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="315" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>241</v>
       </c>
@@ -30246,9 +29106,7 @@
       </c>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
-      <c r="E315" s="6" t="s">
-        <v>376</v>
-      </c>
+      <c r="E315" s="1"/>
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
@@ -30324,11 +29182,8 @@
       <c r="BZ315" s="1"/>
       <c r="CA315" s="1"/>
       <c r="CB315" s="1"/>
-      <c r="CC315" s="1"/>
-      <c r="CD315" s="1"/>
-      <c r="CE315" s="1"/>
-    </row>
-    <row r="316" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="316" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>242</v>
       </c>
@@ -30337,9 +29192,7 @@
       </c>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
-      <c r="E316" s="6" t="s">
-        <v>376</v>
-      </c>
+      <c r="E316" s="1"/>
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
@@ -30415,11 +29268,8 @@
       <c r="BZ316" s="1"/>
       <c r="CA316" s="1"/>
       <c r="CB316" s="1"/>
-      <c r="CC316" s="1"/>
-      <c r="CD316" s="1"/>
-      <c r="CE316" s="1"/>
-    </row>
-    <row r="317" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="317" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>243</v>
       </c>
@@ -30428,9 +29278,7 @@
       </c>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
-      <c r="E317" s="6" t="s">
-        <v>376</v>
-      </c>
+      <c r="E317" s="1"/>
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
@@ -30506,11 +29354,8 @@
       <c r="BZ317" s="1"/>
       <c r="CA317" s="1"/>
       <c r="CB317" s="1"/>
-      <c r="CC317" s="1"/>
-      <c r="CD317" s="1"/>
-      <c r="CE317" s="1"/>
-    </row>
-    <row r="318" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="318" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>244</v>
       </c>
@@ -30519,9 +29364,7 @@
       </c>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
-      <c r="E318" s="6" t="s">
-        <v>376</v>
-      </c>
+      <c r="E318" s="1"/>
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
@@ -30597,11 +29440,8 @@
       <c r="BZ318" s="1"/>
       <c r="CA318" s="1"/>
       <c r="CB318" s="1"/>
-      <c r="CC318" s="1"/>
-      <c r="CD318" s="1"/>
-      <c r="CE318" s="1"/>
-    </row>
-    <row r="319" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="319" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>245</v>
       </c>
@@ -30610,9 +29450,7 @@
       </c>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
-      <c r="E319" s="6" t="s">
-        <v>376</v>
-      </c>
+      <c r="E319" s="1"/>
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
@@ -30688,11 +29526,8 @@
       <c r="BZ319" s="1"/>
       <c r="CA319" s="1"/>
       <c r="CB319" s="1"/>
-      <c r="CC319" s="1"/>
-      <c r="CD319" s="1"/>
-      <c r="CE319" s="1"/>
-    </row>
-    <row r="320" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="320" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>246</v>
       </c>
@@ -30700,10 +29535,8 @@
         <v>376</v>
       </c>
       <c r="C320" s="1"/>
-      <c r="D320" s="2"/>
-      <c r="E320" s="6" t="s">
-        <v>376</v>
-      </c>
+      <c r="D320" s="1"/>
+      <c r="E320" s="1"/>
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
@@ -30779,11 +29612,8 @@
       <c r="BZ320" s="1"/>
       <c r="CA320" s="1"/>
       <c r="CB320" s="1"/>
-      <c r="CC320" s="1"/>
-      <c r="CD320" s="1"/>
-      <c r="CE320" s="1"/>
-    </row>
-    <row r="321" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="321" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>247</v>
       </c>
@@ -30792,9 +29622,7 @@
       </c>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
-      <c r="E321" s="6" t="s">
-        <v>376</v>
-      </c>
+      <c r="E321" s="1"/>
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
@@ -30870,11 +29698,8 @@
       <c r="BZ321" s="1"/>
       <c r="CA321" s="1"/>
       <c r="CB321" s="1"/>
-      <c r="CC321" s="1"/>
-      <c r="CD321" s="1"/>
-      <c r="CE321" s="1"/>
-    </row>
-    <row r="322" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="322" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>248</v>
       </c>
@@ -30883,9 +29708,7 @@
       </c>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
-      <c r="E322" s="6" t="s">
-        <v>376</v>
-      </c>
+      <c r="E322" s="1"/>
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
@@ -30961,11 +29784,8 @@
       <c r="BZ322" s="1"/>
       <c r="CA322" s="1"/>
       <c r="CB322" s="1"/>
-      <c r="CC322" s="1"/>
-      <c r="CD322" s="1"/>
-      <c r="CE322" s="1"/>
-    </row>
-    <row r="323" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="323" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>249</v>
       </c>
@@ -30974,9 +29794,7 @@
       </c>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
-      <c r="E323" s="6" t="s">
-        <v>378</v>
-      </c>
+      <c r="E323" s="1"/>
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
@@ -31052,11 +29870,8 @@
       <c r="BZ323" s="1"/>
       <c r="CA323" s="1"/>
       <c r="CB323" s="1"/>
-      <c r="CC323" s="1"/>
-      <c r="CD323" s="1"/>
-      <c r="CE323" s="1"/>
-    </row>
-    <row r="324" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="324" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>250</v>
       </c>
@@ -31065,9 +29880,7 @@
       </c>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
-      <c r="E324" s="6" t="s">
-        <v>378</v>
-      </c>
+      <c r="E324" s="1"/>
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
@@ -31143,11 +29956,8 @@
       <c r="BZ324" s="1"/>
       <c r="CA324" s="1"/>
       <c r="CB324" s="1"/>
-      <c r="CC324" s="1"/>
-      <c r="CD324" s="1"/>
-      <c r="CE324" s="1"/>
-    </row>
-    <row r="325" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="325" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>251</v>
       </c>
@@ -31156,9 +29966,7 @@
       </c>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
-      <c r="E325" s="6" t="s">
-        <v>378</v>
-      </c>
+      <c r="E325" s="1"/>
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
@@ -31234,11 +30042,8 @@
       <c r="BZ325" s="1"/>
       <c r="CA325" s="1"/>
       <c r="CB325" s="1"/>
-      <c r="CC325" s="1"/>
-      <c r="CD325" s="1"/>
-      <c r="CE325" s="1"/>
-    </row>
-    <row r="326" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="326" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>252</v>
       </c>
@@ -31247,9 +30052,7 @@
       </c>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
-      <c r="E326" s="6" t="s">
-        <v>378</v>
-      </c>
+      <c r="E326" s="1"/>
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
@@ -31325,11 +30128,8 @@
       <c r="BZ326" s="1"/>
       <c r="CA326" s="1"/>
       <c r="CB326" s="1"/>
-      <c r="CC326" s="1"/>
-      <c r="CD326" s="1"/>
-      <c r="CE326" s="1"/>
-    </row>
-    <row r="327" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="327" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>253</v>
       </c>
@@ -31338,9 +30138,7 @@
       </c>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
-      <c r="E327" s="6" t="s">
-        <v>378</v>
-      </c>
+      <c r="E327" s="1"/>
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
@@ -31416,11 +30214,8 @@
       <c r="BZ327" s="1"/>
       <c r="CA327" s="1"/>
       <c r="CB327" s="1"/>
-      <c r="CC327" s="1"/>
-      <c r="CD327" s="1"/>
-      <c r="CE327" s="1"/>
-    </row>
-    <row r="328" spans="1:83" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="328" spans="1:80" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>254</v>
       </c>
@@ -31429,9 +30224,7 @@
       </c>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
-      <c r="E328" s="6" t="s">
-        <v>378</v>
-      </c>
+      <c r="E328" s="1"/>
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
@@ -31507,9 +30300,6 @@
       <c r="BZ328" s="1"/>
       <c r="CA328" s="1"/>
       <c r="CB328" s="1"/>
-      <c r="CC328" s="1"/>
-      <c r="CD328" s="1"/>
-      <c r="CE328" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -31518,7 +30308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D82CF4D-1914-4872-85D5-1C060D751E42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
